--- a/Indice .xlsx
+++ b/Indice .xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="ORDEM ALFABETICA" sheetId="1" r:id="rId1"/>
     <sheet name="ORDEM NUMERICA" sheetId="4" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
   <si>
     <t>Índice</t>
   </si>
@@ -27,19 +26,19 @@
     <t>Oh quão lindo esse nome é</t>
   </si>
   <si>
-    <t>Acredito</t>
-  </si>
-  <si>
-    <t>Oh Senhor</t>
+    <t>Algo novo</t>
+  </si>
+  <si>
+    <t>Ousado amor</t>
   </si>
   <si>
     <t>Aliança de sangue</t>
   </si>
   <si>
-    <t>Ousado amor</t>
-  </si>
-  <si>
-    <t>Alicança</t>
+    <t>Pedra preciosa</t>
+  </si>
+  <si>
+    <t>Ambiente de glória</t>
   </si>
   <si>
     <t>Perto quero estar</t>
@@ -63,21 +62,21 @@
     <t>Pra sempre</t>
   </si>
   <si>
+    <t>Aquieta minh'alma</t>
+  </si>
+  <si>
+    <t>Primeira essência</t>
+  </si>
+  <si>
     <t>Beija-me com tua glória</t>
   </si>
   <si>
-    <t>Primeira essência</t>
+    <t>Quando o vento soprar</t>
   </si>
   <si>
     <t>Caia fogo</t>
   </si>
   <si>
-    <t>Quando o vento soprar</t>
-  </si>
-  <si>
-    <t>Caminho no deserto</t>
-  </si>
-  <si>
     <t>Quanto mais eu te buscar</t>
   </si>
   <si>
@@ -87,37 +86,37 @@
     <t>Quão formoso</t>
   </si>
   <si>
-    <t>Casa do Pai</t>
+    <t>Ceu e terra</t>
+  </si>
+  <si>
+    <t>Que amor é esse</t>
+  </si>
+  <si>
+    <t>Cobre-me</t>
   </si>
   <si>
     <t>Queima de novo</t>
   </si>
   <si>
-    <t>Ceu e terra</t>
-  </si>
-  <si>
-    <t>Questiona  ou adora</t>
-  </si>
-  <si>
-    <t>Cobre-me</t>
+    <t>Coração igual ao teu</t>
   </si>
   <si>
     <t>Ressuscitou</t>
   </si>
   <si>
-    <t>Coração igual ao teu</t>
+    <t>Cria em mim</t>
   </si>
   <si>
     <t>Senhor te quero</t>
   </si>
   <si>
-    <t>Cria em mim</t>
+    <t>Cristo vive em mim</t>
   </si>
   <si>
     <t>Ser conhecido de Deus</t>
   </si>
   <si>
-    <t>Cristo vive em mim</t>
+    <t>Digno</t>
   </si>
   <si>
     <t>Seu sangue</t>
@@ -126,7 +125,7 @@
     <t>Digno de Gloria</t>
   </si>
   <si>
-    <t>Só em ti confiarei</t>
+    <t>Sinto fluir</t>
   </si>
   <si>
     <t>Ele vem</t>
@@ -138,16 +137,16 @@
     <t>Em espirito, em verdade</t>
   </si>
   <si>
+    <t>Som do ceu</t>
+  </si>
+  <si>
+    <t>Em teus braços</t>
+  </si>
+  <si>
     <t>Sonda-me ho Deus</t>
   </si>
   <si>
-    <t>Em teus braços</t>
-  </si>
-  <si>
-    <t>Sonda-me Senhor</t>
-  </si>
-  <si>
-    <t>Em ti esperarei</t>
+    <t>Emaús</t>
   </si>
   <si>
     <t>Sou humano</t>
@@ -159,7 +158,7 @@
     <t>Sou teu</t>
   </si>
   <si>
-    <t>És meu Deus</t>
+    <t>Essência da adoração</t>
   </si>
   <si>
     <t>Teu amor não falha</t>
@@ -174,16 +173,16 @@
     <t>Eu navegarei</t>
   </si>
   <si>
-    <t>Teu santo nome</t>
-  </si>
-  <si>
-    <t>Extraordinário</t>
-  </si>
-  <si>
-    <t>Todas as coisas</t>
-  </si>
-  <si>
-    <t>Fala comigo</t>
+    <t>Teu reino me chamou de seu</t>
+  </si>
+  <si>
+    <t>Eu vou construir</t>
+  </si>
+  <si>
+    <t>Tua alegria</t>
+  </si>
+  <si>
+    <t>Filho do Deus vivo</t>
   </si>
   <si>
     <t>Tua graça me basta</t>
@@ -195,115 +194,82 @@
     <t>Tua palavra</t>
   </si>
   <si>
+    <t>Grande é o senhor</t>
+  </si>
+  <si>
+    <t>Uma coisa peço ao Senhor</t>
+  </si>
+  <si>
     <t>Há um lugar</t>
   </si>
   <si>
+    <t>Venha o teu reino</t>
+  </si>
+  <si>
+    <t>Hosana</t>
+  </si>
+  <si>
     <t>Vim para adorar-te</t>
   </si>
   <si>
-    <t>Hosana</t>
+    <t>Infinitamente mais</t>
+  </si>
+  <si>
+    <t>Vou deixar na cruz</t>
+  </si>
+  <si>
+    <t>Invocamos</t>
   </si>
   <si>
     <t>Yeshua</t>
   </si>
   <si>
-    <t>Infinitamente mais</t>
-  </si>
-  <si>
-    <t>invocamos</t>
-  </si>
-  <si>
     <t>Jesus é o caminho</t>
   </si>
   <si>
+    <t>Jesus em tua presença</t>
+  </si>
+  <si>
     <t>Lembra Senhor</t>
   </si>
   <si>
-    <t>Leva-me a cruz</t>
-  </si>
-  <si>
     <t>Lugar secreto</t>
   </si>
   <si>
     <t>Lugar seguro</t>
   </si>
   <si>
-    <t>Manancial</t>
-  </si>
-  <si>
     <t>Me faz te conhecer</t>
   </si>
   <si>
+    <t>Me leva o deserto</t>
+  </si>
+  <si>
+    <t>Melhor lugar</t>
+  </si>
+  <si>
     <t>Meu alvo</t>
   </si>
   <si>
-    <t>Meu universo</t>
-  </si>
-  <si>
     <t>Mil graus</t>
   </si>
   <si>
     <t>Mostra-me tua face</t>
   </si>
   <si>
-    <t>Muda minha vida</t>
-  </si>
-  <si>
     <t>Nada alem do sangue</t>
   </si>
   <si>
     <t>Não há Deus maior</t>
   </si>
   <si>
+    <t>Não há um nome igual</t>
+  </si>
+  <si>
     <t>No caminho do milagre</t>
   </si>
   <si>
-    <t>O que fazer quando Ele vem</t>
-  </si>
-  <si>
     <t>Oceanos</t>
-  </si>
-  <si>
-    <t>Digno</t>
-  </si>
-  <si>
-    <t>Me leva o deserto</t>
-  </si>
-  <si>
-    <t>Filho do Deus vivo</t>
-  </si>
-  <si>
-    <t>Essência da adoração</t>
-  </si>
-  <si>
-    <t>Vou deixar na cruz</t>
-  </si>
-  <si>
-    <t>Pedra preciosa</t>
-  </si>
-  <si>
-    <t>Algo novo</t>
-  </si>
-  <si>
-    <t>Jesus em tua presença</t>
-  </si>
-  <si>
-    <t>Emaús</t>
-  </si>
-  <si>
-    <t>Que amor é esse</t>
-  </si>
-  <si>
-    <t>Eu vou construir</t>
-  </si>
-  <si>
-    <t>Ambiente de glória</t>
-  </si>
-  <si>
-    <t>Não há um nome igual</t>
-  </si>
-  <si>
-    <t>Grande é o senhor</t>
   </si>
 </sst>
 </file>
@@ -311,10 +277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -368,36 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,6 +348,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -419,9 +378,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,7 +409,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,23 +469,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,12 +499,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -551,7 +511,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,13 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,25 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,25 +607,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +643,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,55 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,26 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -801,6 +747,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,149 +824,149 @@
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1023,20 +989,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1051,6 +1017,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1406,8 +1373,8 @@
   <sheetPr/>
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1444,7 +1411,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" ht="14.1" customHeight="1" spans="1:5">
+    <row r="3" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A3" s="7">
         <v>46</v>
       </c>
@@ -1459,22 +1426,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.1" customHeight="1" spans="1:5">
+    <row r="4" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A4" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="7">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="14.1" customHeight="1" spans="1:5">
+    <row r="5" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A5" s="7">
         <v>26</v>
       </c>
@@ -1483,15 +1450,15 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7">
-        <v>68</v>
-      </c>
-      <c r="E5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="14.1" customHeight="1" spans="1:5">
+    <row r="6" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A6" s="7">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -1504,7 +1471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="14.1" customHeight="1" spans="1:5">
+    <row r="7" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A7" s="7">
         <v>60</v>
       </c>
@@ -1519,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="14.1" customHeight="1" spans="1:5">
+    <row r="8" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A8" s="7">
         <v>12</v>
       </c>
@@ -1534,7 +1501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="14.1" customHeight="1" spans="1:5">
+    <row r="9" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -1549,9 +1516,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="14.1" customHeight="1" spans="1:5">
+    <row r="10" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A10" s="7">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>15</v>
@@ -1564,9 +1531,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="14.1" customHeight="1" spans="1:5">
+    <row r="11" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A11" s="7">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>17</v>
@@ -1579,9 +1546,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="14.1" customHeight="1" spans="1:5">
+    <row r="12" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A12" s="7">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>19</v>
@@ -1594,7 +1561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="14.1" customHeight="1" spans="1:5">
+    <row r="13" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A13" s="7">
         <v>65</v>
       </c>
@@ -1609,39 +1576,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" ht="14.1" customHeight="1" spans="1:5">
+    <row r="14" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A14" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="7">
-        <v>78</v>
-      </c>
-      <c r="E14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="14.1" customHeight="1" spans="1:5">
+    <row r="15" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A15" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="7">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" ht="14.1" customHeight="1" spans="1:5">
+    <row r="16" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A16" s="7">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>27</v>
@@ -1654,9 +1621,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="14.1" customHeight="1" spans="1:5">
+    <row r="17" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A17" s="7">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>29</v>
@@ -1669,9 +1636,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" ht="14.1" customHeight="1" spans="1:5">
+    <row r="18" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A18" s="7">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>31</v>
@@ -1680,13 +1647,13 @@
       <c r="D18" s="7">
         <v>79</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" ht="14.1" customHeight="1" spans="1:5">
+    <row r="19" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A19" s="7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>33</v>
@@ -1699,7 +1666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" ht="14.1" customHeight="1" spans="1:5">
+    <row r="20" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A20" s="7">
         <v>23</v>
       </c>
@@ -1708,13 +1675,13 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="7">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" ht="14.1" customHeight="1" spans="1:5">
+    <row r="21" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -1725,11 +1692,11 @@
       <c r="D21" s="7">
         <v>76</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" ht="14.1" customHeight="1" spans="1:5">
+    <row r="22" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -1738,13 +1705,13 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="7">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" ht="14.1" customHeight="1" spans="1:5">
+    <row r="23" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A23" s="7">
         <v>5</v>
       </c>
@@ -1753,15 +1720,15 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" ht="14.1" customHeight="1" spans="1:5">
+    <row r="24" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A24" s="7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>43</v>
@@ -1774,7 +1741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" ht="14.1" customHeight="1" spans="1:5">
+    <row r="25" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A25" s="7">
         <v>63</v>
       </c>
@@ -1785,13 +1752,13 @@
       <c r="D25" s="7">
         <v>67</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" ht="14.1" customHeight="1" spans="1:5">
+    <row r="26" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A26" s="7">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>47</v>
@@ -1804,11 +1771,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" ht="14.1" customHeight="1" spans="1:5">
+    <row r="27" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A27" s="7">
         <v>74</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="9"/>
@@ -1819,7 +1786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" ht="14.1" customHeight="1" spans="1:5">
+    <row r="28" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A28" s="7">
         <v>14</v>
       </c>
@@ -1830,26 +1797,26 @@
       <c r="D28" s="7">
         <v>72</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" ht="14.1" customHeight="1" spans="1:5">
+    <row r="29" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A29" s="7">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="7">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" ht="14.1" customHeight="1" spans="1:5">
+    <row r="30" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A30" s="7">
         <v>18</v>
       </c>
@@ -1864,7 +1831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" ht="14.1" customHeight="1" spans="1:5">
+    <row r="31" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A31" s="7">
         <v>55</v>
       </c>
@@ -1879,285 +1846,261 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" ht="14.1" customHeight="1" spans="1:5">
+    <row r="32" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A32" s="7">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="7">
-        <v>75</v>
-      </c>
-      <c r="E32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" ht="14.1" customHeight="1" spans="1:5">
+    <row r="33" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A33" s="7">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="7">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" ht="14.1" customHeight="1" spans="1:5">
+    <row r="34" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A34" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="7">
-        <v>82</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" ht="14.1" customHeight="1" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A35" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="7">
-        <v>83</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" ht="14.1" customHeight="1" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A36" s="7">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="7">
-        <v>84</v>
-      </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" ht="14.1" customHeight="1" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A37" s="7">
+        <v>62</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" customFormat="1" ht="14" customHeight="1" spans="1:5">
+      <c r="A38" s="7">
+        <v>42</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" customFormat="1" ht="14" customHeight="1" spans="1:5">
+      <c r="A39" s="7">
         <v>81</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="7">
-        <v>85</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A38" s="7">
-        <v>51</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="7">
-        <v>86</v>
-      </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A39" s="7">
+      <c r="B39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" customFormat="1" ht="14" customHeight="1" spans="1:5">
+      <c r="A40" s="7">
         <v>69</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="7">
-        <v>87</v>
-      </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A40" s="7">
+      <c r="B40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" customFormat="1" ht="14" customHeight="1" spans="1:5">
+      <c r="A41" s="7">
         <v>44</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="7">
-        <v>88</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A41" s="7">
-        <v>29</v>
-      </c>
       <c r="B41" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="7">
-        <v>89</v>
-      </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" ht="14.1" customHeight="1" spans="1:5">
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A42" s="7">
         <v>25</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="7">
-        <v>90</v>
-      </c>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" ht="14.1" customHeight="1" spans="1:5">
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A43" s="7">
+        <v>8</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" customFormat="1" ht="14" customHeight="1" spans="1:5">
+      <c r="A44" s="7">
+        <v>82</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" customFormat="1" ht="14" customHeight="1" spans="1:5">
+      <c r="A45" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="7">
-        <v>91</v>
-      </c>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A44" s="7">
-        <v>57</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="7">
-        <v>92</v>
-      </c>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A45" s="7">
+      <c r="B45" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" customFormat="1" ht="14" customHeight="1" spans="1:5">
+      <c r="A46" s="7">
         <v>70</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="7">
-        <v>93</v>
-      </c>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A46" s="7">
+      <c r="B46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" customFormat="1" ht="14" customHeight="1" spans="1:5">
+      <c r="A47" s="7">
         <v>66</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="7">
-        <v>94</v>
-      </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A47" s="7">
-        <v>80</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>76</v>
+      <c r="B47" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C47" s="9"/>
-      <c r="D47" s="7">
-        <v>95</v>
-      </c>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" ht="14.1" customHeight="1" spans="1:5">
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A48" s="7">
         <v>59</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="7">
-        <v>96</v>
-      </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" ht="14.1" customHeight="1" spans="1:5">
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A49" s="7">
         <v>30</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="7">
-        <v>97</v>
-      </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" ht="14.1" customHeight="1" spans="1:5">
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A50" s="7">
+        <v>56</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" customFormat="1" ht="14" customHeight="1" spans="1:5">
+      <c r="A51" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="7">
-        <v>98</v>
-      </c>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A51" s="7">
-        <v>77</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>80</v>
+      <c r="B51" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="7">
-        <v>99</v>
-      </c>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" ht="14.1" customHeight="1" spans="1:5">
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+    </row>
+    <row r="52" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A52" s="7">
         <v>73</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>81</v>
+      <c r="B52" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C52" s="9"/>
-      <c r="D52" s="7">
-        <v>100</v>
-      </c>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" ht="14.1" customHeight="1" spans="3:3">
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+    </row>
+    <row r="53" ht="14.1" customHeight="1" spans="3:5">
       <c r="C53" s="13"/>
+      <c r="D53"/>
+      <c r="E53"/>
     </row>
     <row r="54" ht="14.1" customHeight="1" spans="3:3">
       <c r="C54" s="13"/>
@@ -2924,8 +2867,8 @@
       <c r="E195" s="14"/>
     </row>
   </sheetData>
-  <sortState ref="A1:E102">
-    <sortCondition ref="B67"/>
+  <sortState ref="A3:B86">
+    <sortCondition ref="B3:B86"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E2"/>
@@ -2941,8 +2884,8 @@
   <sheetPr/>
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A52" sqref="$A1:$XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2979,22 +2922,22 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" ht="14.1" customHeight="1" spans="1:5">
+    <row r="3" ht="14" customHeight="1" spans="1:5">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="7">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="14.1" customHeight="1" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:5">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3003,13 +2946,13 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="7">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" ht="14.1" customHeight="1" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" ht="14" customHeight="1" spans="1:5">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -3018,28 +2961,28 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7">
-        <v>68</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="14.1" customHeight="1" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="14" customHeight="1" spans="1:5">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="7">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="14.1" customHeight="1" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="14" customHeight="1" spans="1:5">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3048,58 +2991,58 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" ht="14.1" customHeight="1" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" ht="14" customHeight="1" spans="1:5">
       <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="7">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="14.1" customHeight="1" spans="1:5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" ht="14" customHeight="1" spans="1:5">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="14.1" customHeight="1" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" ht="14" customHeight="1" spans="1:5">
       <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="7">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="14.1" customHeight="1" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" ht="14" customHeight="1" spans="1:5">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -3108,13 +3051,13 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="7">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="14.1" customHeight="1" spans="1:5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" ht="14" customHeight="1" spans="1:5">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -3123,13 +3066,13 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="7">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="14.1" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="14" customHeight="1" spans="1:5">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -3138,13 +3081,13 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="7">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" ht="14.1" customHeight="1" spans="1:5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" ht="14" customHeight="1" spans="1:5">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -3153,13 +3096,13 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="7">
-        <v>78</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="14.1" customHeight="1" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" ht="14" customHeight="1" spans="1:5">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -3168,13 +3111,13 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" ht="14.1" customHeight="1" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" ht="14" customHeight="1" spans="1:5">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -3183,13 +3126,13 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="7">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" ht="14.1" customHeight="1" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" ht="14" customHeight="1" spans="1:5">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -3198,58 +3141,58 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="7">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" ht="14.1" customHeight="1" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="14" customHeight="1" spans="1:5">
       <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="7">
+        <v>66</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" ht="14.1" customHeight="1" spans="1:5">
+    </row>
+    <row r="19" ht="14" customHeight="1" spans="1:5">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="7">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" ht="14.1" customHeight="1" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" ht="14" customHeight="1" spans="1:5">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="7">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" ht="14.1" customHeight="1" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" ht="14" customHeight="1" spans="1:5">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -3258,13 +3201,13 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="7">
-        <v>76</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" ht="14.1" customHeight="1" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" ht="14" customHeight="1" spans="1:5">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -3273,43 +3216,43 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="7">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" ht="14.1" customHeight="1" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" ht="14" customHeight="1" spans="1:5">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="7">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" ht="14.1" customHeight="1" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" ht="14" customHeight="1" spans="1:5">
       <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="7">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" ht="14.1" customHeight="1" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" ht="14" customHeight="1" spans="1:5">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -3318,13 +3261,13 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="7">
-        <v>67</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" ht="14.1" customHeight="1" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" ht="14" customHeight="1" spans="1:5">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -3333,28 +3276,28 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="7">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" ht="14.1" customHeight="1" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" ht="14" customHeight="1" spans="1:5">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="7">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" ht="14.1" customHeight="1" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" ht="14" customHeight="1" spans="1:5">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -3363,73 +3306,73 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="7">
-        <v>72</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" ht="14.1" customHeight="1" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" ht="14" customHeight="1" spans="1:5">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="7">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" ht="14.1" customHeight="1" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" ht="14" customHeight="1" spans="1:5">
       <c r="A30" s="7">
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="7">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" ht="14.1" customHeight="1" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" ht="14" customHeight="1" spans="1:5">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="7">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" ht="14.1" customHeight="1" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" ht="14" customHeight="1" spans="1:5">
       <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="7">
-        <v>75</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" ht="14.1" customHeight="1" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" ht="14" customHeight="1" spans="1:5">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -3438,13 +3381,13 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="7">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" ht="14.1" customHeight="1" spans="1:5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" ht="14" customHeight="1" spans="1:5">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -3455,22 +3398,26 @@
       <c r="D34" s="7">
         <v>82</v>
       </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E34" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" ht="14" customHeight="1" spans="1:5">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="7">
         <v>83</v>
       </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E35" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" ht="14" customHeight="1" spans="1:5">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -3481,22 +3428,24 @@
       <c r="D36" s="7">
         <v>84</v>
       </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E36" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" ht="14" customHeight="1" spans="1:5">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="7">
         <v>85</v>
       </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" ht="14" customHeight="1" spans="1:5">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -3507,9 +3456,9 @@
       <c r="D38" s="7">
         <v>86</v>
       </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" ht="14" customHeight="1" spans="1:5">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -3520,9 +3469,9 @@
       <c r="D39" s="7">
         <v>87</v>
       </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" ht="14" customHeight="1" spans="1:5">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -3533,61 +3482,61 @@
       <c r="D40" s="7">
         <v>88</v>
       </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" ht="14" customHeight="1" spans="1:5">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="7">
         <v>89</v>
       </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" ht="14" customHeight="1" spans="1:5">
       <c r="A42" s="7">
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="7">
         <v>90</v>
       </c>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" ht="14" customHeight="1" spans="1:5">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="7">
         <v>91</v>
       </c>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" ht="14" customHeight="1" spans="1:5">
       <c r="A44" s="7">
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="7">
         <v>92</v>
       </c>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" ht="14" customHeight="1" spans="1:5">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -3598,35 +3547,35 @@
       <c r="D45" s="7">
         <v>93</v>
       </c>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" ht="14" customHeight="1" spans="1:5">
       <c r="A46" s="7">
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="7">
         <v>94</v>
       </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" ht="14" customHeight="1" spans="1:5">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="7">
         <v>95</v>
       </c>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" ht="14" customHeight="1" spans="1:5">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -3637,22 +3586,22 @@
       <c r="D48" s="7">
         <v>96</v>
       </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" ht="14" customHeight="1" spans="1:5">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="7">
         <v>97</v>
       </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" ht="14" customHeight="1" spans="1:5">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -3663,320 +3612,134 @@
       <c r="D50" s="7">
         <v>98</v>
       </c>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" ht="14" customHeight="1" spans="1:5">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="7">
         <v>99</v>
       </c>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" ht="14.1" customHeight="1" spans="1:5">
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" ht="14" customHeight="1" spans="1:5">
       <c r="A52" s="7">
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="7">
         <v>100</v>
       </c>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A53" s="7">
-        <v>51</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" ht="14" customHeight="1" spans="3:3">
       <c r="C53" s="13"/>
     </row>
-    <row r="54" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A54" s="7">
-        <v>52</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>59</v>
-      </c>
+    <row r="54" ht="14" customHeight="1" spans="3:3">
       <c r="C54" s="13"/>
     </row>
-    <row r="55" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A55" s="7">
-        <v>53</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>93</v>
-      </c>
+    <row r="55" ht="14" customHeight="1" spans="3:3">
       <c r="C55" s="13"/>
     </row>
-    <row r="56" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A56" s="7">
-        <v>54</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>17</v>
-      </c>
+    <row r="56" ht="14" customHeight="1" spans="3:3">
       <c r="C56" s="13"/>
     </row>
-    <row r="57" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A57" s="7">
-        <v>55</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>57</v>
-      </c>
+    <row r="57" ht="14" customHeight="1" spans="3:3">
       <c r="C57" s="13"/>
     </row>
-    <row r="58" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A58" s="7">
-        <v>56</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>94</v>
-      </c>
+    <row r="58" ht="14" customHeight="1" spans="3:3">
       <c r="C58" s="13"/>
     </row>
-    <row r="59" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A59" s="7">
-        <v>57</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>95</v>
-      </c>
+    <row r="59" ht="14" customHeight="1" spans="3:3">
       <c r="C59" s="13"/>
     </row>
-    <row r="60" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A60" s="7">
-        <v>58</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>50</v>
-      </c>
+    <row r="60" ht="14" customHeight="1" spans="3:3">
       <c r="C60" s="13"/>
     </row>
-    <row r="61" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A61" s="7">
-        <v>59</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>77</v>
-      </c>
+    <row r="61" ht="14" customHeight="1" spans="3:3">
       <c r="C61" s="13"/>
     </row>
-    <row r="62" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A62" s="7">
-        <v>60</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>9</v>
-      </c>
+    <row r="62" ht="14" customHeight="1" spans="3:3">
       <c r="C62" s="13"/>
     </row>
-    <row r="63" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A63" s="7">
-        <v>61</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>26</v>
-      </c>
+    <row r="63" ht="14" customHeight="1" spans="3:3">
       <c r="C63" s="14"/>
     </row>
-    <row r="64" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A64" s="7">
-        <v>62</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>65</v>
-      </c>
+    <row r="64" ht="14" customHeight="1" spans="3:3">
       <c r="C64" s="14"/>
     </row>
-    <row r="65" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A65" s="7">
-        <v>63</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>45</v>
-      </c>
+    <row r="65" ht="14" customHeight="1" spans="3:3">
       <c r="C65" s="14"/>
     </row>
-    <row r="66" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A66" s="7">
-        <v>64</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>2</v>
-      </c>
+    <row r="66" ht="14" customHeight="1" spans="3:3">
       <c r="C66" s="14"/>
     </row>
-    <row r="67" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A67" s="7">
-        <v>65</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>21</v>
-      </c>
+    <row r="67" ht="14" customHeight="1" spans="3:3">
       <c r="C67" s="14"/>
     </row>
-    <row r="68" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A68" s="7">
-        <v>66</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>75</v>
-      </c>
+    <row r="68" ht="14" customHeight="1" spans="3:3">
       <c r="C68" s="14"/>
     </row>
-    <row r="69" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A69" s="7">
-        <v>67</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>46</v>
-      </c>
+    <row r="69" ht="14" customHeight="1" spans="3:3">
       <c r="C69" s="14"/>
     </row>
-    <row r="70" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A70" s="7">
-        <v>68</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>6</v>
-      </c>
+    <row r="70" ht="14" customHeight="1" spans="3:3">
       <c r="C70" s="14"/>
     </row>
-    <row r="71" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A71" s="7">
-        <v>69</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>68</v>
-      </c>
+    <row r="71" ht="14" customHeight="1" spans="3:3">
       <c r="C71" s="14"/>
     </row>
-    <row r="72" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A72" s="7">
-        <v>70</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>74</v>
-      </c>
+    <row r="72" ht="14" customHeight="1" spans="3:3">
       <c r="C72" s="14"/>
     </row>
-    <row r="73" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A73" s="7">
-        <v>71</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>36</v>
-      </c>
+    <row r="73" ht="14" customHeight="1" spans="3:3">
       <c r="C73" s="14"/>
     </row>
-    <row r="74" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A74" s="7">
-        <v>72</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>52</v>
-      </c>
+    <row r="74" ht="14" customHeight="1" spans="3:3">
       <c r="C74" s="14"/>
     </row>
-    <row r="75" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A75" s="7">
-        <v>73</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>81</v>
-      </c>
+    <row r="75" ht="14" customHeight="1" spans="3:3">
       <c r="C75" s="14"/>
     </row>
-    <row r="76" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A76" s="7">
-        <v>74</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>49</v>
-      </c>
+    <row r="76" ht="14" customHeight="1" spans="3:3">
       <c r="C76" s="14"/>
     </row>
-    <row r="77" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A77" s="7">
-        <v>75</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>60</v>
-      </c>
+    <row r="77" ht="14" customHeight="1" spans="3:3">
       <c r="C77" s="14"/>
     </row>
-    <row r="78" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A78" s="7">
-        <v>76</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>38</v>
-      </c>
+    <row r="78" ht="14" customHeight="1" spans="3:3">
       <c r="C78" s="14"/>
     </row>
-    <row r="79" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A79" s="7">
-        <v>77</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>80</v>
-      </c>
+    <row r="79" ht="14" customHeight="1" spans="3:3">
       <c r="C79" s="14"/>
     </row>
-    <row r="80" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A80" s="7">
-        <v>78</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>24</v>
-      </c>
+    <row r="80" ht="14" customHeight="1" spans="3:3">
       <c r="C80" s="14"/>
     </row>
-    <row r="81" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A81" s="7">
-        <v>79</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>32</v>
-      </c>
+    <row r="81" ht="14" customHeight="1" spans="3:3">
       <c r="C81" s="14"/>
     </row>
-    <row r="82" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A82" s="7">
-        <v>80</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>76</v>
-      </c>
+    <row r="82" ht="14" customHeight="1" spans="3:3">
       <c r="C82" s="14"/>
     </row>
-    <row r="83" ht="14.1" customHeight="1" spans="1:3">
-      <c r="A83" s="7">
-        <v>81</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>66</v>
-      </c>
+    <row r="83" ht="14" customHeight="1" spans="3:3">
       <c r="C83" s="14"/>
     </row>
-    <row r="84" ht="14.1" customHeight="1" spans="3:3">
+    <row r="84" ht="14" customHeight="1" spans="3:3">
       <c r="C84" s="14"/>
     </row>
-    <row r="85" ht="14.1" customHeight="1" spans="3:3">
+    <row r="85" ht="14" customHeight="1" spans="3:3">
       <c r="C85" s="14"/>
     </row>
-    <row r="86" ht="14.1" customHeight="1" spans="3:3">
+    <row r="86" ht="14" customHeight="1" spans="3:3">
       <c r="C86" s="14"/>
     </row>
     <row r="87" ht="14.1" customHeight="1" spans="3:3">
@@ -4655,21 +4418,4 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="72"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Indice .xlsx
+++ b/Indice .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965"/>
+    <workbookView windowWidth="19785" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ORDEM ALFABETICA" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="182">
   <si>
     <t>Índice</t>
   </si>
   <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
     <t>A casa é sua</t>
   </si>
   <si>
@@ -270,6 +276,302 @@
   </si>
   <si>
     <t>Oceanos</t>
+  </si>
+  <si>
+    <t>Ceu e terra - TENOR</t>
+  </si>
+  <si>
+    <t>Eu vou construir - TENOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - REMOVER MUSICAS </t>
+  </si>
+  <si>
+    <t>Aqui eu vim para dizer - TENOR</t>
+  </si>
+  <si>
+    <t>Há um lugar - SOPRANO</t>
+  </si>
+  <si>
+    <t>2 - PASSAR ALGUMAS MUSICAS DE TENOR PARA SOPRANO/CONTRALTO</t>
+  </si>
+  <si>
+    <t>Sou humano - SOPRANO</t>
+  </si>
+  <si>
+    <t>Ambiente de glória -  TENOR E ???</t>
+  </si>
+  <si>
+    <t>3- DEFINIR MUSICAS COM ???</t>
+  </si>
+  <si>
+    <t>Sonda-me ho Deus - ???</t>
+  </si>
+  <si>
+    <t>Caia fogo - TENOR E CONTRALTO</t>
+  </si>
+  <si>
+    <t>Em teus braços - SOPRANO</t>
+  </si>
+  <si>
+    <t>Glória e honra - CONTRALTO</t>
+  </si>
+  <si>
+    <r>
+      <t>Digno - ???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>♣</t>
+    </r>
+  </si>
+  <si>
+    <t>Não há um nome igual - TENOR</t>
+  </si>
+  <si>
+    <t>Invocamos - TENOR</t>
+  </si>
+  <si>
+    <t>Grande é o senhor - TENOR</t>
+  </si>
+  <si>
+    <t>Me leva o deserto - SOPRANO</t>
+  </si>
+  <si>
+    <t>Teu reino - TENOR</t>
+  </si>
+  <si>
+    <t>Poderoso Deus - TENOR</t>
+  </si>
+  <si>
+    <t>Nada alem do sangue - ???</t>
+  </si>
+  <si>
+    <t>Tua palavra - ???</t>
+  </si>
+  <si>
+    <t>Ao erguermos as mãos - SOPRANO</t>
+  </si>
+  <si>
+    <t>Primeira essência - SOPRANO</t>
+  </si>
+  <si>
+    <t>Uma coisa peço ao Senhor - TENOR</t>
+  </si>
+  <si>
+    <t>Apenas um minuto - TENOR</t>
+  </si>
+  <si>
+    <t>Jesus é o caminho - ???</t>
+  </si>
+  <si>
+    <t>Quanto mais eu te buscar - TENOR</t>
+  </si>
+  <si>
+    <t>Entrego a ti - ???</t>
+  </si>
+  <si>
+    <t>Eu navegarei - ???</t>
+  </si>
+  <si>
+    <t>Oh quão lindo esse nome é - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Ele vem - TENOR E SOPRANO</t>
+  </si>
+  <si>
+    <t>Canção do apocalipse - SOPRANO</t>
+  </si>
+  <si>
+    <t>Hosana - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Mostra-me tua face - TENOR</t>
+  </si>
+  <si>
+    <t>Infinitamente mais - TENOR</t>
+  </si>
+  <si>
+    <t>Sou teu - ???</t>
+  </si>
+  <si>
+    <t>Filho do Deus vivo - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Ousado amor - TENOR</t>
+  </si>
+  <si>
+    <t>Quando o vento soprar - TENOR</t>
+  </si>
+  <si>
+    <t>Lugar secreto - LUGAR SECRETO</t>
+  </si>
+  <si>
+    <t>Em espirito, em verdade - TENOR</t>
+  </si>
+  <si>
+    <t>Mil graus - TODOS</t>
+  </si>
+  <si>
+    <t>Cria em mim - SOPRANO</t>
+  </si>
+  <si>
+    <t>Venha o teu reino - TENOR</t>
+  </si>
+  <si>
+    <t>Beija-me com tua glória - TENOR</t>
+  </si>
+  <si>
+    <t>Teu reino me chamou de seu - SOPRANO</t>
+  </si>
+  <si>
+    <t>Digno de Gloria - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Oceanos - ???</t>
+  </si>
+  <si>
+    <t>Porque dele por ele - TENOR</t>
+  </si>
+  <si>
+    <t>Eu me rendo - ???</t>
+  </si>
+  <si>
+    <t>Me faz te conhecer - TENOR</t>
+  </si>
+  <si>
+    <t>Vim para adorar-te - TENOR</t>
+  </si>
+  <si>
+    <t>Aliança de sangue - TENOR E CONTRALTO</t>
+  </si>
+  <si>
+    <t>Só tu es santo - TENOR</t>
+  </si>
+  <si>
+    <t>Essência da adoração - TENOR E CONTRALTO</t>
+  </si>
+  <si>
+    <t>Som do ceu - TENOR</t>
+  </si>
+  <si>
+    <t>Cobre-me - SOPRANO</t>
+  </si>
+  <si>
+    <t>Queima de novo - TENOR</t>
+  </si>
+  <si>
+    <t>Vou deixar na cruz - TENOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser conhecido de Deus - </t>
+  </si>
+  <si>
+    <t>Não há Deus maior - TENOR</t>
+  </si>
+  <si>
+    <t>Tua alegria - TENOR</t>
+  </si>
+  <si>
+    <t>Ressuscitou - ???</t>
+  </si>
+  <si>
+    <t>Lembra Senhor - TENOR</t>
+  </si>
+  <si>
+    <t>Perto quero estar - TENOR</t>
+  </si>
+  <si>
+    <t>Melhor lugar - TENOR</t>
+  </si>
+  <si>
+    <t>Pedra preciosa - TENOR</t>
+  </si>
+  <si>
+    <t>Sinto fluir - TENOR E SOPRANO</t>
+  </si>
+  <si>
+    <t>Quão formoso - TENOR</t>
+  </si>
+  <si>
+    <t>Aquieta minh'alma - SOPRANO</t>
+  </si>
+  <si>
+    <t>Coração igual ao teu - ???</t>
+  </si>
+  <si>
+    <t>Santo - TENOR</t>
+  </si>
+  <si>
+    <t>Teu amor não falha - ???</t>
+  </si>
+  <si>
+    <t>Santidade - TENOR</t>
+  </si>
+  <si>
+    <t>Pra sempre - TENOR E ???</t>
+  </si>
+  <si>
+    <t>Volto os meus olhos - ???</t>
+  </si>
+  <si>
+    <t>Tua graça me basta - TENOR</t>
+  </si>
+  <si>
+    <t>O nosso General é cristo - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Algo novo - TENOR</t>
+  </si>
+  <si>
+    <t>Eu vou me derreter - ???</t>
+  </si>
+  <si>
+    <t>Yeshua - ???</t>
+  </si>
+  <si>
+    <t>Meu salvador - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Meu alvo - TENOR</t>
+  </si>
+  <si>
+    <t>Tempo de festa - SOPRANO</t>
+  </si>
+  <si>
+    <t>Jesus em tua presença - TENOR</t>
+  </si>
+  <si>
+    <t>Unico senhor - TENOR</t>
+  </si>
+  <si>
+    <t>Seu sangue - TENOR</t>
+  </si>
+  <si>
+    <t>Lugar seguro - ???</t>
+  </si>
+  <si>
+    <t>Emaús - TENOR</t>
+  </si>
+  <si>
+    <t>A casa é sua - TENOR</t>
+  </si>
+  <si>
+    <t>Que amor é esse - SOPRANO</t>
+  </si>
+  <si>
+    <t>Senhor te quero - TENOR</t>
+  </si>
+  <si>
+    <t>No caminho do milagre - TENOR</t>
+  </si>
+  <si>
+    <t>Cristo vive em mim - TENOR</t>
   </si>
 </sst>
 </file>
@@ -277,12 +579,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,10 +635,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Cooper Black"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,58 +701,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,14 +709,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,14 +749,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,10 +772,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -499,7 +813,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,37 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,19 +861,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,43 +903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,19 +927,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,31 +987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +1035,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -732,41 +1079,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,70 +1109,75 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,104 +1186,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,6 +1330,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -1373,8 +1690,8 @@
   <sheetPr/>
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1384,7 +1701,9 @@
     <col min="3" max="3" width="6.28571428571429" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.8571428571429" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="7.2" customWidth="1"/>
+    <col min="7" max="7" width="27.0761904761905" customWidth="1"/>
+    <col min="8" max="8" width="32.9238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:9">
@@ -1396,8 +1715,12 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="I1" s="6"/>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:9">
@@ -1416,14 +1739,14 @@
         <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="7">
         <v>64</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1431,14 +1754,14 @@
         <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="7">
         <v>68</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1446,14 +1769,14 @@
         <v>26</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7">
         <v>33</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1461,14 +1784,14 @@
         <v>53</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="7">
         <v>32</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1476,14 +1799,14 @@
         <v>60</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="7">
         <v>9</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1491,14 +1814,14 @@
         <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="7">
         <v>24</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1506,14 +1829,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7">
         <v>37</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1521,14 +1844,14 @@
         <v>84</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="7">
         <v>11</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1536,14 +1859,14 @@
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="7">
         <v>19</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1551,14 +1874,14 @@
         <v>54</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="7">
         <v>13</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1566,14 +1889,14 @@
         <v>65</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="7">
         <v>34</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1581,14 +1904,14 @@
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="7">
         <v>47</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1596,14 +1919,14 @@
         <v>28</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="7">
         <v>78</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1611,14 +1934,14 @@
         <v>35</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="7">
         <v>31</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1626,14 +1949,14 @@
         <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="7">
         <v>48</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1641,14 +1964,14 @@
         <v>50</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="7">
         <v>79</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1656,14 +1979,14 @@
         <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="7">
         <v>43</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1671,14 +1994,14 @@
         <v>23</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="7">
         <v>83</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1686,14 +2009,14 @@
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="7">
         <v>76</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1701,14 +2024,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="7">
         <v>77</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1716,14 +2039,14 @@
         <v>5</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="7">
         <v>4</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1731,14 +2054,14 @@
         <v>45</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="7">
         <v>3</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1746,14 +2069,14 @@
         <v>63</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="7">
         <v>67</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1761,14 +2084,14 @@
         <v>27</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="7">
         <v>36</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1776,14 +2099,14 @@
         <v>74</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="7">
         <v>58</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1791,14 +2114,14 @@
         <v>14</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="7">
         <v>72</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1806,14 +2129,14 @@
         <v>51</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="7">
         <v>80</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1821,14 +2144,14 @@
         <v>18</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="7">
         <v>38</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1836,14 +2159,14 @@
         <v>55</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="7">
         <v>10</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1851,14 +2174,14 @@
         <v>57</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="7">
         <v>61</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1866,14 +2189,14 @@
         <v>52</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="7">
         <v>71</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1881,14 +2204,14 @@
         <v>16</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="7">
         <v>75</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1896,14 +2219,14 @@
         <v>17</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="7">
         <v>29</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1911,14 +2234,14 @@
         <v>7</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="7">
         <v>40</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="14" customHeight="1" spans="1:5">
@@ -1926,176 +2249,176 @@
         <v>62</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A38" s="7">
         <v>42</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A39" s="7">
         <v>81</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A40" s="7">
         <v>69</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A41" s="7">
         <v>44</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A42" s="7">
         <v>25</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A43" s="7">
         <v>8</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A44" s="7">
         <v>82</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A45" s="7">
         <v>41</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A46" s="7">
         <v>70</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C46" s="9"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A47" s="7">
         <v>66</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C47" s="9"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A48" s="7">
         <v>59</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A49" s="7">
         <v>30</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A50" s="7">
         <v>56</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C50" s="9"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A52" s="7">
         <v>73</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C52" s="9"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" ht="14.1" customHeight="1" spans="3:5">
       <c r="C53" s="13"/>
@@ -2884,8 +3207,8 @@
   <sheetPr/>
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A52" sqref="$A1:$XFD52"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2895,7 +3218,7 @@
     <col min="3" max="3" width="6.28571428571429" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.8571428571429" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="45.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:9">
@@ -2922,49 +3245,58 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" ht="14" customHeight="1" spans="1:5">
+    <row r="3" ht="14" customHeight="1" spans="1:6">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="7">
         <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" ht="14" customHeight="1" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:6">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="7">
         <v>52</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" ht="14" customHeight="1" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="14" customHeight="1" spans="1:6">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7">
         <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>7</v>
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
@@ -2972,14 +3304,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="7">
         <v>54</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
@@ -2987,14 +3319,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="7">
         <v>55</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
@@ -3002,14 +3334,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="7">
         <v>56</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
@@ -3017,14 +3349,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7">
         <v>57</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
@@ -3032,14 +3364,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="7">
         <v>58</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
@@ -3047,14 +3379,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="7">
         <v>59</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
@@ -3062,14 +3394,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="7">
         <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
@@ -3077,14 +3409,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="7">
         <v>61</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
@@ -3092,14 +3424,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="7">
         <v>62</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
@@ -3107,14 +3439,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="7">
         <v>63</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
@@ -3122,14 +3454,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="7">
         <v>64</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
@@ -3137,14 +3469,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="7">
         <v>65</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
@@ -3152,14 +3484,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="7">
         <v>66</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
@@ -3167,14 +3499,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="7">
         <v>67</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
@@ -3182,14 +3514,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="7">
         <v>68</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
@@ -3197,14 +3529,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="7">
         <v>69</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
@@ -3212,14 +3544,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="7">
         <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
@@ -3227,14 +3559,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="7">
         <v>71</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:5">
@@ -3242,14 +3574,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="7">
         <v>72</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
@@ -3257,14 +3589,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="7">
         <v>73</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:5">
@@ -3272,14 +3604,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="7">
         <v>74</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:5">
@@ -3287,14 +3619,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="7">
         <v>75</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:5">
@@ -3302,14 +3634,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="7">
         <v>76</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:5">
@@ -3317,14 +3649,14 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="7">
         <v>77</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:5">
@@ -3332,14 +3664,14 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="7">
         <v>78</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:5">
@@ -3347,14 +3679,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="7">
         <v>79</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:5">
@@ -3362,14 +3694,14 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="7">
         <v>80</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:5">
@@ -3377,14 +3709,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="7">
         <v>81</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:5">
@@ -3392,14 +3724,14 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="7">
         <v>82</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:5">
@@ -3407,14 +3739,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="7">
         <v>83</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:5">
@@ -3422,14 +3754,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="7">
         <v>84</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:5">
@@ -3437,111 +3769,127 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="7">
         <v>85</v>
       </c>
-      <c r="E37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:5">
       <c r="A38" s="7">
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="7">
         <v>86</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="11" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:5">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="7">
         <v>87</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="40" ht="14" customHeight="1" spans="1:5">
       <c r="A40" s="7">
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="7">
         <v>88</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="41" ht="14" customHeight="1" spans="1:5">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="7">
         <v>89</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="11" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="42" ht="14" customHeight="1" spans="1:5">
       <c r="A42" s="7">
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="7">
         <v>90</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="11" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="43" ht="14" customHeight="1" spans="1:5">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="7">
         <v>91</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="11" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="44" ht="14" customHeight="1" spans="1:5">
       <c r="A44" s="7">
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="7">
         <v>92</v>
       </c>
-      <c r="E44" s="11"/>
+      <c r="E44" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="45" ht="14" customHeight="1" spans="1:5">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="7">
@@ -3554,7 +3902,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="7">
@@ -3567,7 +3915,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="7">
@@ -3580,7 +3928,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="7">
@@ -3593,7 +3941,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="7">
@@ -3606,7 +3954,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="7">
@@ -3619,7 +3967,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="7">
@@ -3632,7 +3980,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="7">

--- a/Indice .xlsx
+++ b/Indice .xlsx
@@ -287,7 +287,7 @@
     <t xml:space="preserve">1 - REMOVER MUSICAS </t>
   </si>
   <si>
-    <t>Aqui eu vim para dizer - TENOR</t>
+    <t xml:space="preserve">Aqui eu vim para dizer - TENOR  </t>
   </si>
   <si>
     <t>Há um lugar - SOPRANO</t>
@@ -317,26 +317,35 @@
     <t>Glória e honra - CONTRALTO</t>
   </si>
   <si>
+    <t>Digno - ???</t>
+  </si>
+  <si>
+    <t>Não há um nome igual - TENOR</t>
+  </si>
+  <si>
     <r>
-      <t>Digno - ???</t>
+      <t>Invocamos - TENOR (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>REPASSAR</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="SimSun"/>
+        <rFont val="Georgia"/>
         <charset val="134"/>
       </rPr>
-      <t>♣</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t>Não há um nome igual - TENOR</t>
-  </si>
-  <si>
-    <t>Invocamos - TENOR</t>
-  </si>
-  <si>
     <t>Grande é o senhor - TENOR</t>
   </si>
   <si>
@@ -355,7 +364,27 @@
     <t>Tua palavra - ???</t>
   </si>
   <si>
-    <t>Ao erguermos as mãos - SOPRANO</t>
+    <r>
+      <t>Ao erguermos as mãos - SOPRANO (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>repassar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Primeira essência - SOPRANO</t>
@@ -385,7 +414,27 @@
     <t>Ele vem - TENOR E SOPRANO</t>
   </si>
   <si>
-    <t>Canção do apocalipse - SOPRANO</t>
+    <r>
+      <t>Canção do apocalipse - SOPRANO (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>repassar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Hosana - CONTRALTO</t>
@@ -406,13 +455,53 @@
     <t>Ousado amor - TENOR</t>
   </si>
   <si>
-    <t>Quando o vento soprar - TENOR</t>
+    <r>
+      <t>Quando o vento soprar - TENOR - (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>repassar pras meninas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Lugar secreto - LUGAR SECRETO</t>
   </si>
   <si>
-    <t>Em espirito, em verdade - TENOR</t>
+    <r>
+      <t>Em espirito, em verdade - TENOR -  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>repassar pras meninas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Mil graus - TODOS</t>
@@ -442,7 +531,27 @@
     <t>Eu me rendo - ???</t>
   </si>
   <si>
-    <t>Me faz te conhecer - TENOR</t>
+    <r>
+      <t>Me faz te conhecer - TENOR (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>repassar pras meninas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Vim para adorar-te - TENOR</t>
@@ -454,7 +563,27 @@
     <t>Só tu es santo - TENOR</t>
   </si>
   <si>
-    <t>Essência da adoração - TENOR E CONTRALTO</t>
+    <r>
+      <t>Essência da adoração - TENOR E CONTRALTO (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>repassar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Som do ceu - TENOR</t>
@@ -466,7 +595,27 @@
     <t>Queima de novo - TENOR</t>
   </si>
   <si>
-    <t>Vou deixar na cruz - TENOR</t>
+    <r>
+      <t>Vou deixar na cruz - TENOR (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>repassar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ser conhecido de Deus - </t>
@@ -514,7 +663,7 @@
     <t>Santidade - TENOR</t>
   </si>
   <si>
-    <t>Pra sempre - TENOR E ???</t>
+    <t>Pra sempre - TENOR E ??? (repassar)</t>
   </si>
   <si>
     <t>Volto os meus olhos - ???</t>
@@ -532,7 +681,7 @@
     <t>Eu vou me derreter - ???</t>
   </si>
   <si>
-    <t>Yeshua - ???</t>
+    <t>Yeshua - ??? (repassar)</t>
   </si>
   <si>
     <t>Meu salvador - CONTRALTO</t>
@@ -544,7 +693,7 @@
     <t>Tempo de festa - SOPRANO</t>
   </si>
   <si>
-    <t>Jesus em tua presença - TENOR</t>
+    <t>Jesus em tua presença - TENOR (repassar tirar quebra de tempo)</t>
   </si>
   <si>
     <t>Unico senhor - TENOR</t>
@@ -580,8 +729,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
@@ -642,21 +791,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,14 +813,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,15 +842,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,6 +859,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,7 +905,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,34 +941,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
+      <color rgb="FFFF0000"/>
+      <name val="Georgia"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,25 +962,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,49 +998,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,13 +1040,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,19 +1088,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,49 +1112,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,17 +1190,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,24 +1216,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,11 +1251,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,152 +1290,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1308,6 +1463,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1715,10 +1876,10 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="6"/>
@@ -2252,8 +2413,8 @@
         <v>71</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A38" s="7">
@@ -2263,8 +2424,8 @@
         <v>72</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A39" s="7">
@@ -2274,8 +2435,8 @@
         <v>73</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="40" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A40" s="7">
@@ -2285,8 +2446,8 @@
         <v>74</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="41" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A41" s="7">
@@ -2296,8 +2457,8 @@
         <v>75</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A42" s="7">
@@ -2307,8 +2468,8 @@
         <v>76</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A43" s="7">
@@ -2318,8 +2479,8 @@
         <v>77</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="44" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A44" s="7">
@@ -2329,8 +2490,8 @@
         <v>78</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
     </row>
     <row r="45" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A45" s="7">
@@ -2340,8 +2501,8 @@
         <v>79</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A46" s="7">
@@ -2351,8 +2512,8 @@
         <v>80</v>
       </c>
       <c r="C46" s="9"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A47" s="7">
@@ -2362,8 +2523,8 @@
         <v>81</v>
       </c>
       <c r="C47" s="9"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A48" s="7">
@@ -2373,8 +2534,8 @@
         <v>82</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
     </row>
     <row r="49" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A49" s="7">
@@ -2384,8 +2545,8 @@
         <v>83</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A50" s="7">
@@ -2395,8 +2556,8 @@
         <v>84</v>
       </c>
       <c r="C50" s="9"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A51" s="7">
@@ -2406,8 +2567,8 @@
         <v>85</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A52" s="7">
@@ -2417,777 +2578,777 @@
         <v>86</v>
       </c>
       <c r="C52" s="9"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
     </row>
     <row r="53" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C53" s="13"/>
+      <c r="C53" s="15"/>
       <c r="D53"/>
       <c r="E53"/>
     </row>
     <row r="54" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C54" s="13"/>
+      <c r="C54" s="15"/>
     </row>
     <row r="55" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C55" s="13"/>
+      <c r="C55" s="15"/>
     </row>
     <row r="56" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C56" s="13"/>
+      <c r="C56" s="15"/>
     </row>
     <row r="57" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C57" s="13"/>
+      <c r="C57" s="15"/>
     </row>
     <row r="58" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C58" s="13"/>
+      <c r="C58" s="15"/>
     </row>
     <row r="59" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C59" s="13"/>
+      <c r="C59" s="15"/>
     </row>
     <row r="60" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C60" s="13"/>
+      <c r="C60" s="15"/>
     </row>
     <row r="61" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C61" s="13"/>
+      <c r="C61" s="15"/>
     </row>
     <row r="62" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C62" s="13"/>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C63" s="14"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C64" s="14"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C65" s="14"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C66" s="14"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C67" s="14"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C68" s="14"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C69" s="14"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C70" s="14"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C71" s="14"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C72" s="14"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C73" s="14"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C74" s="14"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C75" s="14"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C76" s="14"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C77" s="14"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C78" s="14"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C79" s="14"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C80" s="14"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C81" s="14"/>
+      <c r="C81" s="16"/>
     </row>
     <row r="82" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C82" s="14"/>
+      <c r="C82" s="16"/>
     </row>
     <row r="83" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C83" s="14"/>
+      <c r="C83" s="16"/>
     </row>
     <row r="84" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C84" s="14"/>
+      <c r="C84" s="16"/>
     </row>
     <row r="85" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C85" s="14"/>
+      <c r="C85" s="16"/>
     </row>
     <row r="86" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C86" s="14"/>
+      <c r="C86" s="16"/>
     </row>
     <row r="87" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C87" s="14"/>
+      <c r="C87" s="16"/>
     </row>
     <row r="88" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C88" s="14"/>
+      <c r="C88" s="16"/>
     </row>
     <row r="89" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C89" s="14"/>
+      <c r="C89" s="16"/>
     </row>
     <row r="90" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="14"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="16"/>
     </row>
     <row r="91" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C91" s="14"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="14"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="16"/>
     </row>
     <row r="92" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C92" s="14"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="14"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="16"/>
     </row>
     <row r="93" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C93" s="14"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="14"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="16"/>
     </row>
     <row r="94" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C94" s="14"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="14"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="16"/>
     </row>
     <row r="95" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C95" s="14"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="14"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="16"/>
     </row>
     <row r="96" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C96" s="14"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="14"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="16"/>
     </row>
     <row r="97" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C97" s="14"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="14"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="16"/>
     </row>
     <row r="98" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C98" s="14"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="14"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="16"/>
     </row>
     <row r="99" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C99" s="14"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="14"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="16"/>
     </row>
     <row r="100" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C100" s="13"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="14"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="16"/>
     </row>
     <row r="101" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C101" s="13"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="14"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="16"/>
     </row>
     <row r="102" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C102" s="13"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="14"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="16"/>
     </row>
     <row r="103" ht="12" customHeight="1" spans="1:5">
-      <c r="A103" s="13"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="14"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="16"/>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:5">
-      <c r="A104" s="13"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="14"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="16"/>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:5">
-      <c r="A105" s="13"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:5">
-      <c r="A106" s="13"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:5">
-      <c r="A107" s="13"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:5">
-      <c r="A108" s="13"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
     </row>
     <row r="109" ht="12" customHeight="1" spans="1:5">
-      <c r="A109" s="13"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
     </row>
     <row r="110" ht="12" customHeight="1" spans="1:5">
-      <c r="A110" s="13"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:5">
-      <c r="A111" s="13"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
     </row>
     <row r="112" ht="12" customHeight="1" spans="1:5">
-      <c r="A112" s="13"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
     </row>
     <row r="113" ht="12" customHeight="1" spans="1:5">
-      <c r="A113" s="13"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
     </row>
     <row r="114" ht="12" customHeight="1" spans="1:5">
-      <c r="A114" s="13"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
     </row>
     <row r="115" ht="12" customHeight="1" spans="1:5">
-      <c r="A115" s="13"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
     </row>
     <row r="116" ht="12" customHeight="1" spans="1:5">
-      <c r="A116" s="13"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
     </row>
     <row r="117" ht="12" customHeight="1" spans="1:5">
-      <c r="A117" s="13"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
     </row>
     <row r="118" ht="12" customHeight="1" spans="1:5">
-      <c r="A118" s="13"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
     </row>
     <row r="119" ht="12" customHeight="1" spans="1:5">
-      <c r="A119" s="13"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
     </row>
     <row r="120" ht="12" customHeight="1" spans="1:5">
-      <c r="A120" s="13"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
     </row>
     <row r="121" ht="12" customHeight="1" spans="1:5">
-      <c r="A121" s="13"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
     </row>
     <row r="122" ht="12" customHeight="1" spans="1:5">
-      <c r="A122" s="13"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
     </row>
     <row r="123" ht="12" customHeight="1" spans="1:5">
-      <c r="A123" s="13"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
     </row>
     <row r="124" ht="12" customHeight="1" spans="1:5">
-      <c r="A124" s="13"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
     </row>
     <row r="125" ht="12" customHeight="1" spans="1:5">
-      <c r="A125" s="13"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
     </row>
     <row r="126" ht="12" customHeight="1" spans="1:5">
-      <c r="A126" s="13"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
     </row>
     <row r="127" ht="12" customHeight="1" spans="1:5">
-      <c r="A127" s="13"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
     </row>
     <row r="128" ht="12" customHeight="1" spans="1:5">
-      <c r="A128" s="13"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
     </row>
     <row r="129" ht="12" customHeight="1" spans="1:5">
-      <c r="A129" s="13"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
     </row>
     <row r="130" ht="12" customHeight="1" spans="1:5">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
     </row>
     <row r="131" ht="12" customHeight="1" spans="1:5">
-      <c r="A131" s="13"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
     </row>
     <row r="132" ht="12" customHeight="1" spans="1:5">
-      <c r="A132" s="15"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
+      <c r="A132" s="17"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
     </row>
     <row r="133" ht="12" customHeight="1" spans="1:5">
-      <c r="A133" s="15"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
+      <c r="A133" s="17"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
     </row>
     <row r="134" ht="12" customHeight="1" spans="1:5">
-      <c r="A134" s="15"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
+      <c r="A134" s="17"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
     </row>
     <row r="135" ht="12" customHeight="1" spans="1:5">
-      <c r="A135" s="15"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
+      <c r="A135" s="17"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
     </row>
     <row r="136" ht="12" customHeight="1" spans="1:5">
-      <c r="A136" s="15"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
     </row>
     <row r="137" ht="12" customHeight="1" spans="1:5">
-      <c r="A137" s="15"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
+      <c r="A137" s="17"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="15"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
+      <c r="A138" s="17"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="15"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
+      <c r="A139" s="17"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="15"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
+      <c r="A140" s="17"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="15"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="15"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="14"/>
+      <c r="A142" s="17"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="16"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="15"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="14"/>
+      <c r="A143" s="17"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="16"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="15"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="14"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="16"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="15"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="14"/>
+      <c r="A145" s="17"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="16"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="15"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="14"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="16"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="15"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="14"/>
+      <c r="A147" s="17"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="16"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="15"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="14"/>
+      <c r="A148" s="17"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="16"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="15"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="14"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="16"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="15"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="14"/>
+      <c r="A150" s="17"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="16"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="15"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="14"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="16"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="15"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="14"/>
+      <c r="A152" s="17"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="16"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="15"/>
-      <c r="B153" s="17"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="14"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="19"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="16"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="15"/>
-      <c r="B154" s="17"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="14"/>
+      <c r="A154" s="17"/>
+      <c r="B154" s="19"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="16"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="15"/>
-      <c r="B155" s="17"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="14"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="19"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="16"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="15"/>
-      <c r="B156" s="17"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="14"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="19"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="16"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="15"/>
-      <c r="B157" s="17"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="14"/>
+      <c r="A157" s="17"/>
+      <c r="B157" s="19"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="16"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="15"/>
-      <c r="B158" s="17"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="14"/>
+      <c r="A158" s="17"/>
+      <c r="B158" s="19"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="16"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="15"/>
-      <c r="B159" s="17"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="14"/>
+      <c r="A159" s="17"/>
+      <c r="B159" s="19"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="16"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="15"/>
-      <c r="B160" s="17"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="14"/>
+      <c r="A160" s="17"/>
+      <c r="B160" s="19"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="16"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="15"/>
-      <c r="B161" s="17"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="14"/>
+      <c r="A161" s="17"/>
+      <c r="B161" s="19"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="16"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="15"/>
-      <c r="B162" s="17"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="14"/>
+      <c r="A162" s="17"/>
+      <c r="B162" s="19"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="16"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="15"/>
-      <c r="B163" s="17"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="14"/>
+      <c r="A163" s="17"/>
+      <c r="B163" s="19"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="16"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="15"/>
-      <c r="B164" s="17"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="14"/>
+      <c r="A164" s="17"/>
+      <c r="B164" s="19"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="16"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="15"/>
-      <c r="B165" s="17"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="14"/>
+      <c r="A165" s="17"/>
+      <c r="B165" s="19"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="16"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="15"/>
-      <c r="B166" s="17"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="14"/>
+      <c r="A166" s="17"/>
+      <c r="B166" s="19"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="16"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="15"/>
-      <c r="B167" s="17"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="14"/>
+      <c r="A167" s="17"/>
+      <c r="B167" s="19"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="16"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="15"/>
-      <c r="B168" s="17"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="14"/>
+      <c r="A168" s="17"/>
+      <c r="B168" s="19"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="16"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="15"/>
-      <c r="B169" s="17"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="14"/>
+      <c r="A169" s="17"/>
+      <c r="B169" s="19"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="16"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="15"/>
-      <c r="B170" s="17"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="14"/>
+      <c r="A170" s="17"/>
+      <c r="B170" s="19"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="16"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="15"/>
-      <c r="B171" s="17"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="14"/>
+      <c r="A171" s="17"/>
+      <c r="B171" s="19"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="16"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="15"/>
-      <c r="B172" s="17"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="14"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="19"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="16"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="15"/>
-      <c r="B173" s="17"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="14"/>
+      <c r="A173" s="17"/>
+      <c r="B173" s="19"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="16"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="15"/>
-      <c r="B174" s="17"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="14"/>
+      <c r="A174" s="17"/>
+      <c r="B174" s="19"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="16"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="15"/>
-      <c r="B175" s="17"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="14"/>
+      <c r="A175" s="17"/>
+      <c r="B175" s="19"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="16"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="15"/>
-      <c r="B176" s="17"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="14"/>
+      <c r="A176" s="17"/>
+      <c r="B176" s="19"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="16"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="15"/>
-      <c r="B177" s="17"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="14"/>
+      <c r="A177" s="17"/>
+      <c r="B177" s="19"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="16"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="15"/>
-      <c r="B178" s="17"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="14"/>
+      <c r="A178" s="17"/>
+      <c r="B178" s="19"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="16"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="15"/>
-      <c r="B179" s="17"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="14"/>
+      <c r="A179" s="17"/>
+      <c r="B179" s="19"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="16"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="15"/>
-      <c r="B180" s="17"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="14"/>
+      <c r="A180" s="17"/>
+      <c r="B180" s="19"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="16"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="15"/>
-      <c r="B181" s="17"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="14"/>
+      <c r="A181" s="17"/>
+      <c r="B181" s="19"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="16"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="15"/>
-      <c r="B182" s="17"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="14"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="19"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="16"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="15"/>
-      <c r="B183" s="17"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="14"/>
+      <c r="A183" s="17"/>
+      <c r="B183" s="19"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="16"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="15"/>
-      <c r="B184" s="17"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="14"/>
+      <c r="A184" s="17"/>
+      <c r="B184" s="19"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="16"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="15"/>
-      <c r="B185" s="17"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="14"/>
+      <c r="A185" s="17"/>
+      <c r="B185" s="19"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="16"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="15"/>
-      <c r="B186" s="17"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="14"/>
+      <c r="A186" s="17"/>
+      <c r="B186" s="19"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="16"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="14"/>
+      <c r="A187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="16"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="15"/>
-      <c r="E188" s="14"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="16"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="15"/>
-      <c r="E189" s="14"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="16"/>
     </row>
     <row r="190" spans="4:5">
-      <c r="D190" s="15"/>
-      <c r="E190" s="14"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="16"/>
     </row>
     <row r="191" spans="4:5">
-      <c r="D191" s="15"/>
-      <c r="E191" s="14"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="16"/>
     </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="15"/>
-      <c r="E192" s="14"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="16"/>
     </row>
     <row r="193" spans="4:5">
-      <c r="D193" s="15"/>
-      <c r="E193" s="14"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="16"/>
     </row>
     <row r="194" spans="4:5">
-      <c r="D194" s="15"/>
-      <c r="E194" s="14"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="16"/>
     </row>
     <row r="195" spans="4:5">
-      <c r="D195" s="15"/>
-      <c r="E195" s="14"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="16"/>
     </row>
   </sheetData>
   <sortState ref="A3:B86">
@@ -3207,18 +3368,18 @@
   <sheetPr/>
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1428571428571" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.1714285714286" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.28571428571429" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.8571428571429" style="4" customWidth="1"/>
-    <col min="6" max="6" width="45.6" customWidth="1"/>
+    <col min="6" max="6" width="70.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:9">
@@ -3282,10 +3443,10 @@
       </c>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:6">
-      <c r="A5" s="7">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C5" s="9"/>
@@ -3307,10 +3468,10 @@
         <v>96</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <v>54</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3322,10 +3483,10 @@
         <v>98</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="7">
+      <c r="D7" s="10">
         <v>55</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3412,18 +3573,18 @@
         <v>110</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="7">
+      <c r="D13" s="10">
         <v>61</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="7">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="9"/>
@@ -3442,18 +3603,18 @@
         <v>114</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="7">
+      <c r="D15" s="10">
         <v>63</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="7">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="9"/>
@@ -3502,10 +3663,10 @@
         <v>122</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="7">
+      <c r="D19" s="10">
         <v>67</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3585,10 +3746,10 @@
       </c>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="7">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="9"/>
@@ -3600,10 +3761,10 @@
       </c>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="7">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="11" t="s">
         <v>136</v>
       </c>
       <c r="C26" s="9"/>
@@ -3660,10 +3821,10 @@
       </c>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="7">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C30" s="9"/>
@@ -3690,10 +3851,10 @@
       </c>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:5">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C32" s="9"/>
@@ -3720,10 +3881,10 @@
       </c>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="7">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="11" t="s">
         <v>152</v>
       </c>
       <c r="C34" s="9"/>
@@ -3750,10 +3911,10 @@
       </c>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="7">
+      <c r="A36" s="10">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="11" t="s">
         <v>156</v>
       </c>
       <c r="C36" s="9"/>
@@ -3765,17 +3926,17 @@
       </c>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="7">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="11" t="s">
         <v>158</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="7">
         <v>85</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="12" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3790,7 +3951,7 @@
       <c r="D38" s="7">
         <v>86</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="13" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3805,7 +3966,7 @@
       <c r="D39" s="7">
         <v>87</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="13" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3825,17 +3986,17 @@
       </c>
     </row>
     <row r="41" ht="14" customHeight="1" spans="1:5">
-      <c r="A41" s="7">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="7">
         <v>89</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3850,7 +4011,7 @@
       <c r="D42" s="7">
         <v>90</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="13" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3865,7 +4026,7 @@
       <c r="D43" s="7">
         <v>91</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="13" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3880,7 +4041,7 @@
       <c r="D44" s="7">
         <v>92</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3895,7 +4056,7 @@
       <c r="D45" s="7">
         <v>93</v>
       </c>
-      <c r="E45" s="11"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" ht="14" customHeight="1" spans="1:5">
       <c r="A46" s="7">
@@ -3908,26 +4069,26 @@
       <c r="D46" s="7">
         <v>94</v>
       </c>
-      <c r="E46" s="12"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" ht="14" customHeight="1" spans="1:5">
-      <c r="A47" s="7">
+      <c r="A47" s="10">
         <v>45</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="7">
         <v>95</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" ht="14" customHeight="1" spans="1:5">
-      <c r="A48" s="7">
+      <c r="A48" s="10">
         <v>46</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="11" t="s">
         <v>177</v>
       </c>
       <c r="C48" s="9"/>
@@ -3937,17 +4098,17 @@
       <c r="E48" s="8"/>
     </row>
     <row r="49" ht="14" customHeight="1" spans="1:5">
-      <c r="A49" s="7">
+      <c r="A49" s="10">
         <v>47</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="11" t="s">
         <v>178</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="7">
         <v>97</v>
       </c>
-      <c r="E49" s="10"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" ht="14" customHeight="1" spans="1:5">
       <c r="A50" s="7">
@@ -3960,7 +4121,7 @@
       <c r="D50" s="7">
         <v>98</v>
       </c>
-      <c r="E50" s="11"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" ht="14" customHeight="1" spans="1:5">
       <c r="A51" s="7">
@@ -3973,787 +4134,787 @@
       <c r="D51" s="7">
         <v>99</v>
       </c>
-      <c r="E51" s="11"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" ht="14" customHeight="1" spans="1:5">
-      <c r="A52" s="7">
+      <c r="A52" s="10">
         <v>50</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="7">
         <v>100</v>
       </c>
-      <c r="E52" s="11"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" ht="14" customHeight="1" spans="3:3">
-      <c r="C53" s="13"/>
+      <c r="C53" s="15"/>
     </row>
     <row r="54" ht="14" customHeight="1" spans="3:3">
-      <c r="C54" s="13"/>
+      <c r="C54" s="15"/>
     </row>
     <row r="55" ht="14" customHeight="1" spans="3:3">
-      <c r="C55" s="13"/>
+      <c r="C55" s="15"/>
     </row>
     <row r="56" ht="14" customHeight="1" spans="3:3">
-      <c r="C56" s="13"/>
+      <c r="C56" s="15"/>
     </row>
     <row r="57" ht="14" customHeight="1" spans="3:3">
-      <c r="C57" s="13"/>
+      <c r="C57" s="15"/>
     </row>
     <row r="58" ht="14" customHeight="1" spans="3:3">
-      <c r="C58" s="13"/>
+      <c r="C58" s="15"/>
     </row>
     <row r="59" ht="14" customHeight="1" spans="3:3">
-      <c r="C59" s="13"/>
+      <c r="C59" s="15"/>
     </row>
     <row r="60" ht="14" customHeight="1" spans="3:3">
-      <c r="C60" s="13"/>
+      <c r="C60" s="15"/>
     </row>
     <row r="61" ht="14" customHeight="1" spans="3:3">
-      <c r="C61" s="13"/>
+      <c r="C61" s="15"/>
     </row>
     <row r="62" ht="14" customHeight="1" spans="3:3">
-      <c r="C62" s="13"/>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" ht="14" customHeight="1" spans="3:3">
-      <c r="C63" s="14"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" ht="14" customHeight="1" spans="3:3">
-      <c r="C64" s="14"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" ht="14" customHeight="1" spans="3:3">
-      <c r="C65" s="14"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" ht="14" customHeight="1" spans="3:3">
-      <c r="C66" s="14"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" ht="14" customHeight="1" spans="3:3">
-      <c r="C67" s="14"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" ht="14" customHeight="1" spans="3:3">
-      <c r="C68" s="14"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" ht="14" customHeight="1" spans="3:3">
-      <c r="C69" s="14"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" ht="14" customHeight="1" spans="3:3">
-      <c r="C70" s="14"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" ht="14" customHeight="1" spans="3:3">
-      <c r="C71" s="14"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" ht="14" customHeight="1" spans="3:3">
-      <c r="C72" s="14"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" ht="14" customHeight="1" spans="3:3">
-      <c r="C73" s="14"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" ht="14" customHeight="1" spans="3:3">
-      <c r="C74" s="14"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" ht="14" customHeight="1" spans="3:3">
-      <c r="C75" s="14"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" ht="14" customHeight="1" spans="3:3">
-      <c r="C76" s="14"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" ht="14" customHeight="1" spans="3:3">
-      <c r="C77" s="14"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" ht="14" customHeight="1" spans="3:3">
-      <c r="C78" s="14"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" ht="14" customHeight="1" spans="3:3">
-      <c r="C79" s="14"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" ht="14" customHeight="1" spans="3:3">
-      <c r="C80" s="14"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" ht="14" customHeight="1" spans="3:3">
-      <c r="C81" s="14"/>
+      <c r="C81" s="16"/>
     </row>
     <row r="82" ht="14" customHeight="1" spans="3:3">
-      <c r="C82" s="14"/>
+      <c r="C82" s="16"/>
     </row>
     <row r="83" ht="14" customHeight="1" spans="3:3">
-      <c r="C83" s="14"/>
+      <c r="C83" s="16"/>
     </row>
     <row r="84" ht="14" customHeight="1" spans="3:3">
-      <c r="C84" s="14"/>
+      <c r="C84" s="16"/>
     </row>
     <row r="85" ht="14" customHeight="1" spans="3:3">
-      <c r="C85" s="14"/>
+      <c r="C85" s="16"/>
     </row>
     <row r="86" ht="14" customHeight="1" spans="3:3">
-      <c r="C86" s="14"/>
+      <c r="C86" s="16"/>
     </row>
     <row r="87" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C87" s="14"/>
+      <c r="C87" s="16"/>
     </row>
     <row r="88" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C88" s="14"/>
+      <c r="C88" s="16"/>
     </row>
     <row r="89" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C89" s="14"/>
+      <c r="C89" s="16"/>
     </row>
     <row r="90" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="14"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="16"/>
     </row>
     <row r="91" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C91" s="14"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="14"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="16"/>
     </row>
     <row r="92" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C92" s="14"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="14"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="16"/>
     </row>
     <row r="93" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C93" s="14"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="14"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="16"/>
     </row>
     <row r="94" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C94" s="14"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="14"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="16"/>
     </row>
     <row r="95" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C95" s="14"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="14"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="16"/>
     </row>
     <row r="96" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C96" s="14"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="14"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="16"/>
     </row>
     <row r="97" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C97" s="14"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="14"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="16"/>
     </row>
     <row r="98" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C98" s="14"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="14"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="16"/>
     </row>
     <row r="99" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C99" s="14"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="14"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="16"/>
     </row>
     <row r="100" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C100" s="13"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="14"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="16"/>
     </row>
     <row r="101" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C101" s="13"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="14"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="16"/>
     </row>
     <row r="102" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C102" s="13"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="14"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="16"/>
     </row>
     <row r="103" ht="12" customHeight="1" spans="1:5">
-      <c r="A103" s="13"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="14"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="16"/>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:5">
-      <c r="A104" s="13"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="14"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="16"/>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:5">
-      <c r="A105" s="13"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:5">
-      <c r="A106" s="13"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:5">
-      <c r="A107" s="13"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:5">
-      <c r="A108" s="13"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
     </row>
     <row r="109" ht="12" customHeight="1" spans="1:5">
-      <c r="A109" s="13"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
     </row>
     <row r="110" ht="12" customHeight="1" spans="1:5">
-      <c r="A110" s="13"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:5">
-      <c r="A111" s="13"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
     </row>
     <row r="112" ht="12" customHeight="1" spans="1:5">
-      <c r="A112" s="13"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
     </row>
     <row r="113" ht="12" customHeight="1" spans="1:5">
-      <c r="A113" s="13"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
     </row>
     <row r="114" ht="12" customHeight="1" spans="1:5">
-      <c r="A114" s="13"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
     </row>
     <row r="115" ht="12" customHeight="1" spans="1:5">
-      <c r="A115" s="13"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
     </row>
     <row r="116" ht="12" customHeight="1" spans="1:5">
-      <c r="A116" s="13"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
     </row>
     <row r="117" ht="12" customHeight="1" spans="1:5">
-      <c r="A117" s="13"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
     </row>
     <row r="118" ht="12" customHeight="1" spans="1:5">
-      <c r="A118" s="13"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
     </row>
     <row r="119" ht="12" customHeight="1" spans="1:5">
-      <c r="A119" s="13"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
     </row>
     <row r="120" ht="12" customHeight="1" spans="1:5">
-      <c r="A120" s="13"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
     </row>
     <row r="121" ht="12" customHeight="1" spans="1:5">
-      <c r="A121" s="13"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
     </row>
     <row r="122" ht="12" customHeight="1" spans="1:5">
-      <c r="A122" s="13"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
     </row>
     <row r="123" ht="12" customHeight="1" spans="1:5">
-      <c r="A123" s="13"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
     </row>
     <row r="124" ht="12" customHeight="1" spans="1:5">
-      <c r="A124" s="13"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
     </row>
     <row r="125" ht="12" customHeight="1" spans="1:5">
-      <c r="A125" s="13"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
     </row>
     <row r="126" ht="12" customHeight="1" spans="1:5">
-      <c r="A126" s="13"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
     </row>
     <row r="127" ht="12" customHeight="1" spans="1:5">
-      <c r="A127" s="13"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
     </row>
     <row r="128" ht="12" customHeight="1" spans="1:5">
-      <c r="A128" s="13"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
     </row>
     <row r="129" ht="12" customHeight="1" spans="1:5">
-      <c r="A129" s="13"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
     </row>
     <row r="130" ht="12" customHeight="1" spans="1:5">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
     </row>
     <row r="131" ht="12" customHeight="1" spans="1:5">
-      <c r="A131" s="13"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
     </row>
     <row r="132" ht="12" customHeight="1" spans="1:5">
-      <c r="A132" s="15"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
+      <c r="A132" s="17"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
     </row>
     <row r="133" ht="12" customHeight="1" spans="1:5">
-      <c r="A133" s="15"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
+      <c r="A133" s="17"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
     </row>
     <row r="134" ht="12" customHeight="1" spans="1:5">
-      <c r="A134" s="15"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
+      <c r="A134" s="17"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
     </row>
     <row r="135" ht="12" customHeight="1" spans="1:5">
-      <c r="A135" s="15"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
+      <c r="A135" s="17"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
     </row>
     <row r="136" ht="12" customHeight="1" spans="1:5">
-      <c r="A136" s="15"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
     </row>
     <row r="137" ht="12" customHeight="1" spans="1:5">
-      <c r="A137" s="15"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
+      <c r="A137" s="17"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="15"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
+      <c r="A138" s="17"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="15"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
+      <c r="A139" s="17"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="15"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
+      <c r="A140" s="17"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="15"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="15"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="14"/>
+      <c r="A142" s="17"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="16"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="15"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="14"/>
+      <c r="A143" s="17"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="16"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="15"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="14"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="16"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="15"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="14"/>
+      <c r="A145" s="17"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="16"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="15"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="14"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="16"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="15"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="14"/>
+      <c r="A147" s="17"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="16"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="15"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="14"/>
+      <c r="A148" s="17"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="16"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="15"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="14"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="16"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="15"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="14"/>
+      <c r="A150" s="17"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="16"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="15"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="14"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="16"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="15"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="14"/>
+      <c r="A152" s="17"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="16"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="15"/>
-      <c r="B153" s="17"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="14"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="19"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="16"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="15"/>
-      <c r="B154" s="17"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="14"/>
+      <c r="A154" s="17"/>
+      <c r="B154" s="19"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="16"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="15"/>
-      <c r="B155" s="17"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="14"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="19"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="16"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="15"/>
-      <c r="B156" s="17"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="14"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="19"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="16"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="15"/>
-      <c r="B157" s="17"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="14"/>
+      <c r="A157" s="17"/>
+      <c r="B157" s="19"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="16"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="15"/>
-      <c r="B158" s="17"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="14"/>
+      <c r="A158" s="17"/>
+      <c r="B158" s="19"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="16"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="15"/>
-      <c r="B159" s="17"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="14"/>
+      <c r="A159" s="17"/>
+      <c r="B159" s="19"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="16"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="15"/>
-      <c r="B160" s="17"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="14"/>
+      <c r="A160" s="17"/>
+      <c r="B160" s="19"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="16"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="15"/>
-      <c r="B161" s="17"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="14"/>
+      <c r="A161" s="17"/>
+      <c r="B161" s="19"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="16"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="15"/>
-      <c r="B162" s="17"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="14"/>
+      <c r="A162" s="17"/>
+      <c r="B162" s="19"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="16"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="15"/>
-      <c r="B163" s="17"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="14"/>
+      <c r="A163" s="17"/>
+      <c r="B163" s="19"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="16"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="15"/>
-      <c r="B164" s="17"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="14"/>
+      <c r="A164" s="17"/>
+      <c r="B164" s="19"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="16"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="15"/>
-      <c r="B165" s="17"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="14"/>
+      <c r="A165" s="17"/>
+      <c r="B165" s="19"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="16"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="15"/>
-      <c r="B166" s="17"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="14"/>
+      <c r="A166" s="17"/>
+      <c r="B166" s="19"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="16"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="15"/>
-      <c r="B167" s="17"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="14"/>
+      <c r="A167" s="17"/>
+      <c r="B167" s="19"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="16"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="15"/>
-      <c r="B168" s="17"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="14"/>
+      <c r="A168" s="17"/>
+      <c r="B168" s="19"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="16"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="15"/>
-      <c r="B169" s="17"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="14"/>
+      <c r="A169" s="17"/>
+      <c r="B169" s="19"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="16"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="15"/>
-      <c r="B170" s="17"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="14"/>
+      <c r="A170" s="17"/>
+      <c r="B170" s="19"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="16"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="15"/>
-      <c r="B171" s="17"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="14"/>
+      <c r="A171" s="17"/>
+      <c r="B171" s="19"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="16"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="15"/>
-      <c r="B172" s="17"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="14"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="19"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="16"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="15"/>
-      <c r="B173" s="17"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="14"/>
+      <c r="A173" s="17"/>
+      <c r="B173" s="19"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="16"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="15"/>
-      <c r="B174" s="17"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="14"/>
+      <c r="A174" s="17"/>
+      <c r="B174" s="19"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="16"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="15"/>
-      <c r="B175" s="17"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="14"/>
+      <c r="A175" s="17"/>
+      <c r="B175" s="19"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="16"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="15"/>
-      <c r="B176" s="17"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="14"/>
+      <c r="A176" s="17"/>
+      <c r="B176" s="19"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="16"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="15"/>
-      <c r="B177" s="17"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="14"/>
+      <c r="A177" s="17"/>
+      <c r="B177" s="19"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="16"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="15"/>
-      <c r="B178" s="17"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="14"/>
+      <c r="A178" s="17"/>
+      <c r="B178" s="19"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="16"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="15"/>
-      <c r="B179" s="17"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="14"/>
+      <c r="A179" s="17"/>
+      <c r="B179" s="19"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="16"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="15"/>
-      <c r="B180" s="17"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="14"/>
+      <c r="A180" s="17"/>
+      <c r="B180" s="19"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="16"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="15"/>
-      <c r="B181" s="17"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="14"/>
+      <c r="A181" s="17"/>
+      <c r="B181" s="19"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="16"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="15"/>
-      <c r="B182" s="17"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="14"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="19"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="16"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="15"/>
-      <c r="B183" s="17"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="14"/>
+      <c r="A183" s="17"/>
+      <c r="B183" s="19"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="16"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="15"/>
-      <c r="B184" s="17"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="14"/>
+      <c r="A184" s="17"/>
+      <c r="B184" s="19"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="16"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="15"/>
-      <c r="B185" s="17"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="14"/>
+      <c r="A185" s="17"/>
+      <c r="B185" s="19"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="16"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="15"/>
-      <c r="B186" s="17"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="14"/>
+      <c r="A186" s="17"/>
+      <c r="B186" s="19"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="16"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="14"/>
+      <c r="A187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="16"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="15"/>
-      <c r="E188" s="14"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="16"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="15"/>
-      <c r="E189" s="14"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="16"/>
     </row>
     <row r="190" spans="4:5">
-      <c r="D190" s="15"/>
-      <c r="E190" s="14"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="16"/>
     </row>
     <row r="191" spans="4:5">
-      <c r="D191" s="15"/>
-      <c r="E191" s="14"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="16"/>
     </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="15"/>
-      <c r="E192" s="14"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="16"/>
     </row>
     <row r="193" spans="4:5">
-      <c r="D193" s="15"/>
-      <c r="E193" s="14"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="16"/>
     </row>
     <row r="194" spans="4:5">
-      <c r="D194" s="15"/>
-      <c r="E194" s="14"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="16"/>
     </row>
     <row r="195" spans="4:5">
-      <c r="D195" s="15"/>
-      <c r="E195" s="14"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="16"/>
     </row>
   </sheetData>
   <sortState ref="A3:B83">

--- a/Indice .xlsx
+++ b/Indice .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19785" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ORDEM ALFABETICA" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
   <si>
     <t>Índice</t>
   </si>
@@ -284,25 +284,16 @@
     <t>Eu vou construir - TENOR</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - REMOVER MUSICAS </t>
-  </si>
-  <si>
     <t xml:space="preserve">Aqui eu vim para dizer - TENOR  </t>
   </si>
   <si>
     <t>Há um lugar - SOPRANO</t>
   </si>
   <si>
-    <t>2 - PASSAR ALGUMAS MUSICAS DE TENOR PARA SOPRANO/CONTRALTO</t>
-  </si>
-  <si>
     <t>Sou humano - SOPRANO</t>
   </si>
   <si>
     <t>Ambiente de glória -  TENOR E ???</t>
-  </si>
-  <si>
-    <t>3- DEFINIR MUSICAS COM ???</t>
   </si>
   <si>
     <t>Sonda-me ho Deus - ???</t>
@@ -328,7 +319,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -337,7 +328,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -369,7 +360,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -378,7 +369,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -419,7 +410,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -428,7 +419,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -460,7 +451,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -469,7 +460,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -478,7 +469,27 @@
     </r>
   </si>
   <si>
-    <t>Lugar secreto - LUGAR SECRETO</t>
+    <r>
+      <t>Lugar secreto - LUGAR SECRETO (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>repassar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -486,7 +497,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -495,7 +506,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -504,7 +515,7 @@
     </r>
   </si>
   <si>
-    <t>Mil graus - TODOS</t>
+    <t>Mil graus - ???</t>
   </si>
   <si>
     <t>Cria em mim - SOPRANO</t>
@@ -522,7 +533,27 @@
     <t>Digno de Gloria - CONTRALTO</t>
   </si>
   <si>
-    <t>Oceanos - ???</t>
+    <r>
+      <t>Oceanos - ??? (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>repassar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Porque dele por ele - TENOR</t>
@@ -536,7 +567,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -545,7 +576,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -568,7 +599,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -577,7 +608,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -600,7 +631,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -609,7 +640,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Georgia"/>
         <charset val="134"/>
@@ -728,12 +759,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +803,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Cooper Black"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Rounded MT Bold"/>
@@ -782,27 +825,6 @@
       <color theme="1"/>
       <name val="Georgia"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Cooper Black"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -820,14 +842,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +887,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,29 +957,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,13 +978,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Georgia"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -968,13 +1005,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1107,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,37 +1167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,85 +1179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,19 +1191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,6 +1233,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1207,20 +1265,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1259,21 +1317,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1290,152 +1333,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1458,23 +1501,23 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1492,8 +1535,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -1896,690 +1948,690 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="7">
+      <c r="A3" s="21">
         <v>46</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="7">
+      <c r="C3" s="23"/>
+      <c r="D3" s="21">
         <v>64</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="7">
+      <c r="A4" s="21">
         <v>39</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="7">
+      <c r="C4" s="23"/>
+      <c r="D4" s="21">
         <v>68</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="7">
+      <c r="A5" s="21">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7">
+      <c r="C5" s="23"/>
+      <c r="D5" s="21">
         <v>33</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="21">
         <v>53</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7">
+      <c r="C6" s="23"/>
+      <c r="D6" s="21">
         <v>32</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="21">
         <v>60</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7">
+      <c r="C7" s="23"/>
+      <c r="D7" s="21">
         <v>9</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="7">
+      <c r="A8" s="21">
         <v>12</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7">
+      <c r="C8" s="23"/>
+      <c r="D8" s="21">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="7">
+      <c r="A9" s="21">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7">
+      <c r="C9" s="23"/>
+      <c r="D9" s="21">
         <v>37</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="7">
+      <c r="A10" s="21">
         <v>84</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7">
+      <c r="C10" s="23"/>
+      <c r="D10" s="21">
         <v>11</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="7">
+      <c r="A11" s="21">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7">
+      <c r="C11" s="23"/>
+      <c r="D11" s="21">
         <v>19</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="7">
+      <c r="A12" s="21">
         <v>54</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7">
+      <c r="C12" s="23"/>
+      <c r="D12" s="21">
         <v>13</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="7">
+      <c r="A13" s="21">
         <v>65</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7">
+      <c r="C13" s="23"/>
+      <c r="D13" s="21">
         <v>34</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="7">
+      <c r="A14" s="21">
         <v>1</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7">
+      <c r="C14" s="23"/>
+      <c r="D14" s="21">
         <v>47</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="7">
+      <c r="A15" s="21">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7">
+      <c r="C15" s="23"/>
+      <c r="D15" s="21">
         <v>78</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="7">
+      <c r="A16" s="21">
         <v>35</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7">
+      <c r="C16" s="23"/>
+      <c r="D16" s="21">
         <v>31</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="7">
+      <c r="A17" s="21">
         <v>21</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="7">
+      <c r="C17" s="23"/>
+      <c r="D17" s="21">
         <v>48</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="7">
+      <c r="A18" s="21">
         <v>50</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="7">
+      <c r="C18" s="23"/>
+      <c r="D18" s="21">
         <v>79</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="7">
+      <c r="A19" s="21">
         <v>6</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="7">
+      <c r="C19" s="23"/>
+      <c r="D19" s="21">
         <v>43</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="7">
+      <c r="A20" s="21">
         <v>23</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="7">
+      <c r="C20" s="23"/>
+      <c r="D20" s="21">
         <v>83</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="7">
+      <c r="A21" s="21">
         <v>15</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7">
+      <c r="C21" s="23"/>
+      <c r="D21" s="21">
         <v>76</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="7">
+      <c r="A22" s="21">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7">
+      <c r="C22" s="23"/>
+      <c r="D22" s="21">
         <v>77</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="7">
+      <c r="A23" s="21">
         <v>5</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7">
+      <c r="C23" s="23"/>
+      <c r="D23" s="21">
         <v>4</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A24" s="7">
+      <c r="A24" s="21">
         <v>45</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7">
+      <c r="C24" s="23"/>
+      <c r="D24" s="21">
         <v>3</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="7">
+      <c r="A25" s="21">
         <v>63</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="7">
+      <c r="C25" s="23"/>
+      <c r="D25" s="21">
         <v>67</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="7">
+      <c r="A26" s="21">
         <v>27</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="7">
+      <c r="C26" s="23"/>
+      <c r="D26" s="21">
         <v>36</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A27" s="7">
+      <c r="A27" s="21">
         <v>74</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="7">
+      <c r="C27" s="23"/>
+      <c r="D27" s="21">
         <v>58</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A28" s="7">
+      <c r="A28" s="21">
         <v>14</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7">
+      <c r="C28" s="23"/>
+      <c r="D28" s="21">
         <v>72</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A29" s="7">
+      <c r="A29" s="21">
         <v>51</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="7">
+      <c r="C29" s="23"/>
+      <c r="D29" s="21">
         <v>80</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="7">
+      <c r="A30" s="21">
         <v>18</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7">
+      <c r="C30" s="23"/>
+      <c r="D30" s="21">
         <v>38</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A31" s="7">
+      <c r="A31" s="21">
         <v>55</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="7">
+      <c r="C31" s="23"/>
+      <c r="D31" s="21">
         <v>10</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A32" s="7">
+      <c r="A32" s="21">
         <v>57</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="7">
+      <c r="C32" s="23"/>
+      <c r="D32" s="21">
         <v>61</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A33" s="7">
+      <c r="A33" s="21">
         <v>52</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="7">
+      <c r="C33" s="23"/>
+      <c r="D33" s="21">
         <v>71</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="7">
+      <c r="A34" s="21">
         <v>16</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="7">
+      <c r="C34" s="23"/>
+      <c r="D34" s="21">
         <v>75</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A35" s="7">
+      <c r="A35" s="21">
         <v>17</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="7">
+      <c r="C35" s="23"/>
+      <c r="D35" s="21">
         <v>29</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="7">
+      <c r="A36" s="21">
         <v>7</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="7">
+      <c r="C36" s="23"/>
+      <c r="D36" s="21">
         <v>40</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="7">
+      <c r="A37" s="21">
         <v>62</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A38" s="7">
+      <c r="A38" s="21">
         <v>42</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A39" s="7">
+      <c r="A39" s="21">
         <v>81</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A40" s="7">
+      <c r="A40" s="21">
         <v>69</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A41" s="7">
+      <c r="A41" s="21">
         <v>44</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A42" s="7">
+      <c r="A42" s="21">
         <v>25</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A43" s="7">
+      <c r="A43" s="21">
         <v>8</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A44" s="7">
+      <c r="A44" s="21">
         <v>82</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
     </row>
     <row r="45" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A45" s="7">
+      <c r="A45" s="21">
         <v>41</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A46" s="7">
+      <c r="A46" s="21">
         <v>70</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
     </row>
     <row r="47" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A47" s="7">
+      <c r="A47" s="21">
         <v>66</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
     </row>
     <row r="48" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A48" s="7">
+      <c r="A48" s="21">
         <v>59</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A49" s="7">
+      <c r="A49" s="21">
         <v>30</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A50" s="7">
+      <c r="A50" s="21">
         <v>56</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A51" s="7">
+      <c r="A51" s="21">
         <v>49</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
     </row>
     <row r="52" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A52" s="7">
+      <c r="A52" s="21">
         <v>73</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" ht="14.1" customHeight="1" spans="3:5">
       <c r="C53" s="15"/>
@@ -3368,17 +3420,17 @@
   <sheetPr/>
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.1714285714286" style="2" customWidth="1"/>
+    <col min="2" max="2" width="70.5714285714286" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.28571428571429" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="6.28571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.8571428571429" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50" style="4" customWidth="1"/>
     <col min="6" max="6" width="70.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3406,7 +3458,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" ht="14" customHeight="1" spans="1:6">
+    <row r="3" ht="14" customHeight="1" spans="1:5">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3420,44 +3472,35 @@
       <c r="E3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" ht="14" customHeight="1" spans="1:6">
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:5">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="7">
         <v>52</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" ht="14" customHeight="1" spans="1:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" ht="14" customHeight="1" spans="1:5">
       <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7">
         <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
@@ -3465,14 +3508,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10">
         <v>54</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
@@ -3480,14 +3523,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10">
         <v>55</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
@@ -3495,14 +3538,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="7">
         <v>56</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
@@ -3510,14 +3553,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7">
         <v>57</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
@@ -3525,14 +3568,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="7">
         <v>58</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
@@ -3540,14 +3583,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="7">
         <v>59</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
@@ -3555,14 +3598,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="7">
         <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
@@ -3570,14 +3613,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10">
         <v>61</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
@@ -3585,14 +3628,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="7">
         <v>62</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
@@ -3600,14 +3643,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10">
         <v>63</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
@@ -3615,14 +3658,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="7">
         <v>64</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
@@ -3630,14 +3673,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="7">
         <v>65</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
@@ -3645,14 +3688,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="7">
         <v>66</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
@@ -3660,14 +3703,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10">
         <v>67</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
@@ -3675,14 +3718,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="7">
         <v>68</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
@@ -3690,14 +3733,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="7">
         <v>69</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
@@ -3705,14 +3748,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="7">
         <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
@@ -3720,14 +3763,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="7">
+      <c r="D23" s="12">
         <v>71</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>131</v>
+      <c r="E23" s="13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:5">
@@ -3735,14 +3778,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="7">
         <v>72</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
@@ -3750,14 +3793,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="7">
         <v>73</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:5">
@@ -3765,14 +3808,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="7">
         <v>74</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:5">
@@ -3780,14 +3823,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="7">
         <v>75</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:5">
@@ -3795,14 +3838,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="7">
         <v>76</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:5">
@@ -3810,14 +3853,14 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="7">
         <v>77</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:5">
@@ -3825,14 +3868,14 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="7">
         <v>78</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:5">
@@ -3840,14 +3883,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="7">
+      <c r="D31" s="12">
         <v>79</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>147</v>
+      <c r="E31" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:5">
@@ -3855,14 +3898,14 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="7">
+      <c r="D32" s="12">
         <v>80</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>149</v>
+      <c r="E32" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:5">
@@ -3870,14 +3913,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="7">
         <v>81</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:5">
@@ -3885,14 +3928,14 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="7">
         <v>82</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:5">
@@ -3900,14 +3943,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="7">
         <v>83</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:5">
@@ -3915,14 +3958,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="7">
         <v>84</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:5">
@@ -3930,14 +3973,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="7">
         <v>85</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>159</v>
+      <c r="E37" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:5">
@@ -3945,14 +3988,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="7">
         <v>86</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>161</v>
+      <c r="E38" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:5">
@@ -3960,14 +4003,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="7">
         <v>87</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>163</v>
+      <c r="E39" s="14" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1" spans="1:5">
@@ -3975,14 +4018,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="7">
         <v>88</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1" spans="1:5">
@@ -3990,14 +4033,14 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="7">
         <v>89</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>167</v>
+      <c r="E41" s="14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1" spans="1:5">
@@ -4005,14 +4048,14 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="7">
         <v>90</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>169</v>
+      <c r="E42" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1" spans="1:5">
@@ -4020,14 +4063,14 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="7">
         <v>91</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>171</v>
+      <c r="E43" s="14" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1" spans="1:5">
@@ -4035,14 +4078,14 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="7">
         <v>92</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>173</v>
+      <c r="E44" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1" spans="1:5">
@@ -4050,20 +4093,20 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="7">
         <v>93</v>
       </c>
-      <c r="E45" s="13"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" ht="14" customHeight="1" spans="1:5">
       <c r="A46" s="7">
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="7">
@@ -4076,20 +4119,20 @@
         <v>45</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="7">
         <v>95</v>
       </c>
-      <c r="E47" s="13"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" ht="14" customHeight="1" spans="1:5">
       <c r="A48" s="10">
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="7">
@@ -4102,52 +4145,52 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="7">
         <v>97</v>
       </c>
-      <c r="E49" s="12"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" ht="14" customHeight="1" spans="1:5">
       <c r="A50" s="7">
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="7">
         <v>98</v>
       </c>
-      <c r="E50" s="13"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" ht="14" customHeight="1" spans="1:5">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="7">
         <v>99</v>
       </c>
-      <c r="E51" s="13"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" ht="14" customHeight="1" spans="1:5">
       <c r="A52" s="10">
         <v>50</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="7">
         <v>100</v>
       </c>
-      <c r="E52" s="13"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" ht="14" customHeight="1" spans="3:3">
       <c r="C53" s="15"/>

--- a/Indice .xlsx
+++ b/Indice .xlsx
@@ -278,7 +278,7 @@
     <t>Oceanos</t>
   </si>
   <si>
-    <t>Ceu e terra - TENOR</t>
+    <t xml:space="preserve">Ceu e terra - </t>
   </si>
   <si>
     <t>Eu vou construir - TENOR</t>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Invocamos - TENOR (</t>
     </r>
     <r>
@@ -356,6 +362,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Ao erguermos as mãos - SOPRANO (</t>
     </r>
     <r>
@@ -406,6 +418,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Canção do apocalipse - SOPRANO (</t>
     </r>
     <r>
@@ -447,6 +465,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Quando o vento soprar - TENOR - (</t>
     </r>
     <r>
@@ -470,6 +494,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Lugar secreto - LUGAR SECRETO (</t>
     </r>
     <r>
@@ -493,6 +523,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Em espirito, em verdade - TENOR -  (</t>
     </r>
     <r>
@@ -534,6 +570,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Oceanos - ??? (</t>
     </r>
     <r>
@@ -563,6 +605,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Me faz te conhecer - TENOR (</t>
     </r>
     <r>
@@ -595,6 +643,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Essência da adoração - TENOR E CONTRALTO (</t>
     </r>
     <r>
@@ -627,6 +681,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Vou deixar na cruz - TENOR (</t>
     </r>
     <r>
@@ -727,7 +787,7 @@
     <t>Jesus em tua presença - TENOR (repassar tirar quebra de tempo)</t>
   </si>
   <si>
-    <t>Unico senhor - TENOR</t>
+    <t>Unico senhor - CONTRALTO (SUBIR 1 TOM)</t>
   </si>
   <si>
     <t>Seu sangue - TENOR</t>
@@ -759,10 +819,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -827,6 +887,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -841,8 +908,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,43 +941,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,6 +962,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -928,14 +982,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,6 +1003,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -964,15 +1018,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,7 +1077,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,19 +1119,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,43 +1185,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,19 +1203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,19 +1215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,7 +1227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,25 +1245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,6 +1293,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1263,26 +1332,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1294,6 +1343,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1333,148 +1393,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3420,8 +3480,8 @@
   <sheetPr/>
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>

--- a/Indice .xlsx
+++ b/Indice .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7965" activeTab="1"/>
+    <workbookView windowWidth="20025" windowHeight="8625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ORDEM ALFABETICA" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
   <si>
     <t>Índice</t>
   </si>
@@ -290,22 +290,13 @@
     <t>Há um lugar - SOPRANO</t>
   </si>
   <si>
-    <t>Sou humano - SOPRANO</t>
-  </si>
-  <si>
     <t>Ambiente de glória -  TENOR E ???</t>
   </si>
   <si>
     <t>Sonda-me ho Deus - ???</t>
   </si>
   <si>
-    <t>Caia fogo - TENOR E CONTRALTO</t>
-  </si>
-  <si>
     <t>Em teus braços - SOPRANO</t>
-  </si>
-  <si>
-    <t>Glória e honra - CONTRALTO</t>
   </si>
   <si>
     <t>Digno - ???</t>
@@ -393,57 +384,19 @@
     <t>Primeira essência - SOPRANO</t>
   </si>
   <si>
-    <t>Uma coisa peço ao Senhor - TENOR</t>
-  </si>
-  <si>
-    <t>Apenas um minuto - TENOR</t>
-  </si>
-  <si>
     <t>Jesus é o caminho - ???</t>
   </si>
   <si>
     <t>Quanto mais eu te buscar - TENOR</t>
   </si>
   <si>
-    <t>Entrego a ti - ???</t>
-  </si>
-  <si>
-    <t>Eu navegarei - ???</t>
-  </si>
-  <si>
     <t>Oh quão lindo esse nome é - CONTRALTO</t>
   </si>
   <si>
     <t>Ele vem - TENOR E SOPRANO</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Canção do apocalipse - SOPRANO (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>repassar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>Canção do apocalipse - SOPRANO</t>
   </si>
   <si>
     <t>Hosana - CONTRALTO</t>
@@ -453,9 +406,6 @@
   </si>
   <si>
     <t>Infinitamente mais - TENOR</t>
-  </si>
-  <si>
-    <t>Sou teu - ???</t>
   </si>
   <si>
     <t>Filho do Deus vivo - CONTRALTO</t>
@@ -493,33 +443,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Lugar secreto - LUGAR SECRETO (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>repassar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t xml:space="preserve">Lugar secreto -  CONTRALTO </t>
   </si>
   <si>
     <r>
@@ -551,57 +475,22 @@
     </r>
   </si>
   <si>
-    <t>Mil graus - ???</t>
+    <t>Mil graus - TODOS</t>
   </si>
   <si>
     <t>Cria em mim - SOPRANO</t>
   </si>
   <si>
-    <t>Venha o teu reino - TENOR</t>
-  </si>
-  <si>
     <t>Beija-me com tua glória - TENOR</t>
   </si>
   <si>
-    <t>Teu reino me chamou de seu - SOPRANO</t>
-  </si>
-  <si>
-    <t>Digno de Gloria - CONTRALTO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Oceanos - ??? (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>repassar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Porque dele por ele - TENOR</t>
-  </si>
-  <si>
-    <t>Eu me rendo - ???</t>
+    <t>Teu reino me chamou de seu - SOPRANO / TENOR</t>
+  </si>
+  <si>
+    <t>Oceanos - SOPRANO</t>
+  </si>
+  <si>
+    <t>Eu me rendo - CONTRALTO</t>
   </si>
   <si>
     <r>
@@ -674,10 +563,7 @@
     <t>Som do ceu - TENOR</t>
   </si>
   <si>
-    <t>Cobre-me - SOPRANO</t>
-  </si>
-  <si>
-    <t>Queima de novo - TENOR</t>
+    <t>Queima de novo - (TENOR)</t>
   </si>
   <si>
     <r>
@@ -709,24 +595,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ser conhecido de Deus - </t>
-  </si>
-  <si>
-    <t>Não há Deus maior - TENOR</t>
-  </si>
-  <si>
-    <t>Tua alegria - TENOR</t>
-  </si>
-  <si>
     <t>Ressuscitou - ???</t>
   </si>
   <si>
     <t>Lembra Senhor - TENOR</t>
   </si>
   <si>
-    <t>Perto quero estar - TENOR</t>
-  </si>
-  <si>
     <t>Melhor lugar - TENOR</t>
   </si>
   <si>
@@ -736,16 +610,10 @@
     <t>Sinto fluir - TENOR E SOPRANO</t>
   </si>
   <si>
-    <t>Quão formoso - TENOR</t>
-  </si>
-  <si>
     <t>Aquieta minh'alma - SOPRANO</t>
   </si>
   <si>
-    <t>Coração igual ao teu - ???</t>
-  </si>
-  <si>
-    <t>Santo - TENOR</t>
+    <t>Santo - CONTRALTO (SUBIR 1 TOM)</t>
   </si>
   <si>
     <t>Teu amor não falha - ???</t>
@@ -757,7 +625,7 @@
     <t>Pra sempre - TENOR E ??? (repassar)</t>
   </si>
   <si>
-    <t>Volto os meus olhos - ???</t>
+    <t>Volto os meus olhos - CONTRALTO</t>
   </si>
   <si>
     <t>Tua graça me basta - TENOR</t>
@@ -766,16 +634,13 @@
     <t>O nosso General é cristo - CONTRALTO</t>
   </si>
   <si>
-    <t>Algo novo - TENOR</t>
-  </si>
-  <si>
-    <t>Eu vou me derreter - ???</t>
+    <t>Eu vou me derreter - CONTRALTO (abaixar meio tom)</t>
   </si>
   <si>
     <t>Yeshua - ??? (repassar)</t>
   </si>
   <si>
-    <t>Meu salvador - CONTRALTO</t>
+    <t>Meu salvador - CONTRALTO (ok)</t>
   </si>
   <si>
     <t>Meu alvo - TENOR</t>
@@ -796,22 +661,10 @@
     <t>Lugar seguro - ???</t>
   </si>
   <si>
-    <t>Emaús - TENOR</t>
-  </si>
-  <si>
-    <t>A casa é sua - TENOR</t>
-  </si>
-  <si>
-    <t>Que amor é esse - SOPRANO</t>
-  </si>
-  <si>
     <t>Senhor te quero - TENOR</t>
   </si>
   <si>
     <t>No caminho do milagre - TENOR</t>
-  </si>
-  <si>
-    <t>Cristo vive em mim - TENOR</t>
   </si>
 </sst>
 </file>
@@ -887,6 +740,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -902,13 +764,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -917,30 +800,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,9 +822,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,8 +844,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1003,29 +870,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,7 +897,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,7 +918,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,7 +966,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,7 +1038,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,43 +1062,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,103 +1110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,11 +1152,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,17 +1182,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,26 +1211,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,155 +1238,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1573,10 +1432,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1988,10 +1853,10 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="6"/>
@@ -2008,1459 +1873,1459 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="21">
+      <c r="A3" s="23">
         <v>46</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21">
+      <c r="C3" s="25"/>
+      <c r="D3" s="23">
         <v>64</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="21">
+      <c r="A4" s="23">
         <v>39</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="21">
+      <c r="C4" s="25"/>
+      <c r="D4" s="23">
         <v>68</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="21">
+      <c r="A5" s="23">
         <v>26</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21">
+      <c r="C5" s="25"/>
+      <c r="D5" s="23">
         <v>33</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="21">
+      <c r="A6" s="23">
         <v>53</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="21">
+      <c r="C6" s="25"/>
+      <c r="D6" s="23">
         <v>32</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="21">
+      <c r="A7" s="23">
         <v>60</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="21">
+      <c r="C7" s="25"/>
+      <c r="D7" s="23">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="21">
+      <c r="A8" s="23">
         <v>12</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="21">
+      <c r="C8" s="25"/>
+      <c r="D8" s="23">
         <v>24</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="21">
+      <c r="A9" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="21">
+      <c r="C9" s="25"/>
+      <c r="D9" s="23">
         <v>37</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="21">
+      <c r="A10" s="23">
         <v>84</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="21">
+      <c r="C10" s="25"/>
+      <c r="D10" s="23">
         <v>11</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="21">
+      <c r="A11" s="23">
         <v>22</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="21">
+      <c r="C11" s="25"/>
+      <c r="D11" s="23">
         <v>19</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="21">
+      <c r="A12" s="23">
         <v>54</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="21">
+      <c r="C12" s="25"/>
+      <c r="D12" s="23">
         <v>13</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="21">
+      <c r="A13" s="23">
         <v>65</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="21">
+      <c r="C13" s="25"/>
+      <c r="D13" s="23">
         <v>34</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="21">
+      <c r="A14" s="23">
         <v>1</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="21">
+      <c r="C14" s="25"/>
+      <c r="D14" s="23">
         <v>47</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="21">
+      <c r="A15" s="23">
         <v>28</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="21">
+      <c r="C15" s="25"/>
+      <c r="D15" s="23">
         <v>78</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="21">
+      <c r="A16" s="23">
         <v>35</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="21">
+      <c r="C16" s="25"/>
+      <c r="D16" s="23">
         <v>31</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="21">
+      <c r="A17" s="23">
         <v>21</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="21">
+      <c r="C17" s="25"/>
+      <c r="D17" s="23">
         <v>48</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="21">
+      <c r="A18" s="23">
         <v>50</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="21">
+      <c r="C18" s="25"/>
+      <c r="D18" s="23">
         <v>79</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="21">
+      <c r="A19" s="23">
         <v>6</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="21">
+      <c r="C19" s="25"/>
+      <c r="D19" s="23">
         <v>43</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="21">
+      <c r="A20" s="23">
         <v>23</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="21">
+      <c r="C20" s="25"/>
+      <c r="D20" s="23">
         <v>83</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="21">
+      <c r="A21" s="23">
         <v>15</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="21">
+      <c r="C21" s="25"/>
+      <c r="D21" s="23">
         <v>76</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="21">
+      <c r="A22" s="23">
         <v>20</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="21">
+      <c r="C22" s="25"/>
+      <c r="D22" s="23">
         <v>77</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="21">
+      <c r="A23" s="23">
         <v>5</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="21">
+      <c r="C23" s="25"/>
+      <c r="D23" s="23">
         <v>4</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A24" s="21">
+      <c r="A24" s="23">
         <v>45</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="21">
+      <c r="C24" s="25"/>
+      <c r="D24" s="23">
         <v>3</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="21">
+      <c r="A25" s="23">
         <v>63</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="21">
+      <c r="C25" s="25"/>
+      <c r="D25" s="23">
         <v>67</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="21">
+      <c r="A26" s="23">
         <v>27</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="21">
+      <c r="C26" s="25"/>
+      <c r="D26" s="23">
         <v>36</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A27" s="21">
+      <c r="A27" s="23">
         <v>74</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="21">
+      <c r="C27" s="25"/>
+      <c r="D27" s="23">
         <v>58</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A28" s="21">
+      <c r="A28" s="23">
         <v>14</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="21">
+      <c r="C28" s="25"/>
+      <c r="D28" s="23">
         <v>72</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A29" s="21">
+      <c r="A29" s="23">
         <v>51</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="21">
+      <c r="C29" s="25"/>
+      <c r="D29" s="23">
         <v>80</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="21">
+      <c r="A30" s="23">
         <v>18</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="21">
+      <c r="C30" s="25"/>
+      <c r="D30" s="23">
         <v>38</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A31" s="21">
+      <c r="A31" s="23">
         <v>55</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="21">
+      <c r="C31" s="25"/>
+      <c r="D31" s="23">
         <v>10</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A32" s="21">
+      <c r="A32" s="23">
         <v>57</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="21">
+      <c r="C32" s="25"/>
+      <c r="D32" s="23">
         <v>61</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A33" s="21">
+      <c r="A33" s="23">
         <v>52</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="21">
+      <c r="C33" s="25"/>
+      <c r="D33" s="23">
         <v>71</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="21">
+      <c r="A34" s="23">
         <v>16</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="21">
+      <c r="C34" s="25"/>
+      <c r="D34" s="23">
         <v>75</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A35" s="21">
+      <c r="A35" s="23">
         <v>17</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="21">
+      <c r="C35" s="25"/>
+      <c r="D35" s="23">
         <v>29</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="21">
+      <c r="A36" s="23">
         <v>7</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="21">
+      <c r="C36" s="25"/>
+      <c r="D36" s="23">
         <v>40</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="21">
+      <c r="A37" s="23">
         <v>62</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
     </row>
     <row r="38" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A38" s="21">
+      <c r="A38" s="23">
         <v>42</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A39" s="21">
+      <c r="A39" s="23">
         <v>81</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
     </row>
     <row r="40" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A40" s="21">
+      <c r="A40" s="23">
         <v>69</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A41" s="21">
+      <c r="A41" s="23">
         <v>44</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
     </row>
     <row r="42" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A42" s="21">
+      <c r="A42" s="23">
         <v>25</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
     </row>
     <row r="43" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A43" s="21">
+      <c r="A43" s="23">
         <v>8</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
     </row>
     <row r="44" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A44" s="21">
+      <c r="A44" s="23">
         <v>82</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
     </row>
     <row r="45" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A45" s="21">
+      <c r="A45" s="23">
         <v>41</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
     </row>
     <row r="46" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A46" s="21">
+      <c r="A46" s="23">
         <v>70</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
     </row>
     <row r="47" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A47" s="21">
+      <c r="A47" s="23">
         <v>66</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A48" s="21">
+      <c r="A48" s="23">
         <v>59</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A49" s="21">
+      <c r="A49" s="23">
         <v>30</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
     </row>
     <row r="50" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A50" s="21">
+      <c r="A50" s="23">
         <v>56</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
     </row>
     <row r="51" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A51" s="21">
+      <c r="A51" s="23">
         <v>49</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A52" s="21">
+      <c r="A52" s="23">
         <v>73</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C53" s="15"/>
+      <c r="C53" s="17"/>
       <c r="D53"/>
       <c r="E53"/>
     </row>
     <row r="54" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C54" s="15"/>
+      <c r="C54" s="17"/>
     </row>
     <row r="55" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C55" s="15"/>
+      <c r="C55" s="17"/>
     </row>
     <row r="56" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C56" s="15"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C57" s="15"/>
+      <c r="C57" s="17"/>
     </row>
     <row r="58" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C58" s="15"/>
+      <c r="C58" s="17"/>
     </row>
     <row r="59" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C59" s="15"/>
+      <c r="C59" s="17"/>
     </row>
     <row r="60" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C60" s="15"/>
+      <c r="C60" s="17"/>
     </row>
     <row r="61" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C61" s="15"/>
+      <c r="C61" s="17"/>
     </row>
     <row r="62" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C62" s="15"/>
+      <c r="C62" s="17"/>
     </row>
     <row r="63" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C63" s="16"/>
+      <c r="C63" s="18"/>
     </row>
     <row r="64" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C64" s="16"/>
+      <c r="C64" s="18"/>
     </row>
     <row r="65" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C65" s="16"/>
+      <c r="C65" s="18"/>
     </row>
     <row r="66" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C66" s="16"/>
+      <c r="C66" s="18"/>
     </row>
     <row r="67" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C67" s="16"/>
+      <c r="C67" s="18"/>
     </row>
     <row r="68" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C68" s="16"/>
+      <c r="C68" s="18"/>
     </row>
     <row r="69" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C69" s="16"/>
+      <c r="C69" s="18"/>
     </row>
     <row r="70" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C70" s="16"/>
+      <c r="C70" s="18"/>
     </row>
     <row r="71" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C71" s="16"/>
+      <c r="C71" s="18"/>
     </row>
     <row r="72" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C72" s="16"/>
+      <c r="C72" s="18"/>
     </row>
     <row r="73" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C73" s="16"/>
+      <c r="C73" s="18"/>
     </row>
     <row r="74" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C74" s="16"/>
+      <c r="C74" s="18"/>
     </row>
     <row r="75" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C75" s="16"/>
+      <c r="C75" s="18"/>
     </row>
     <row r="76" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C76" s="16"/>
+      <c r="C76" s="18"/>
     </row>
     <row r="77" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C77" s="16"/>
+      <c r="C77" s="18"/>
     </row>
     <row r="78" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C78" s="16"/>
+      <c r="C78" s="18"/>
     </row>
     <row r="79" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C79" s="16"/>
+      <c r="C79" s="18"/>
     </row>
     <row r="80" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C80" s="16"/>
+      <c r="C80" s="18"/>
     </row>
     <row r="81" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C81" s="16"/>
+      <c r="C81" s="18"/>
     </row>
     <row r="82" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C82" s="16"/>
+      <c r="C82" s="18"/>
     </row>
     <row r="83" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C83" s="16"/>
+      <c r="C83" s="18"/>
     </row>
     <row r="84" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C84" s="16"/>
+      <c r="C84" s="18"/>
     </row>
     <row r="85" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C85" s="16"/>
+      <c r="C85" s="18"/>
     </row>
     <row r="86" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C86" s="16"/>
+      <c r="C86" s="18"/>
     </row>
     <row r="87" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C87" s="16"/>
+      <c r="C87" s="18"/>
     </row>
     <row r="88" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C88" s="16"/>
+      <c r="C88" s="18"/>
     </row>
     <row r="89" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C89" s="16"/>
+      <c r="C89" s="18"/>
     </row>
     <row r="90" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="16"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="18"/>
     </row>
     <row r="91" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C91" s="16"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="16"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="18"/>
     </row>
     <row r="92" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="16"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="18"/>
     </row>
     <row r="93" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C93" s="16"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="16"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="18"/>
     </row>
     <row r="94" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C94" s="16"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="16"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="18"/>
     </row>
     <row r="95" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C95" s="16"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="16"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="18"/>
     </row>
     <row r="96" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C96" s="16"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="16"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="18"/>
     </row>
     <row r="97" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C97" s="16"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="16"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="18"/>
     </row>
     <row r="98" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C98" s="16"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="16"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="18"/>
     </row>
     <row r="99" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C99" s="16"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="16"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="18"/>
     </row>
     <row r="100" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C100" s="15"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="16"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="18"/>
     </row>
     <row r="101" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C101" s="15"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="16"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="18"/>
     </row>
     <row r="102" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C102" s="15"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="16"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="18"/>
     </row>
     <row r="103" ht="12" customHeight="1" spans="1:5">
-      <c r="A103" s="15"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="16"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="18"/>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:5">
-      <c r="A104" s="15"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="16"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="18"/>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:5">
-      <c r="A105" s="15"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:5">
-      <c r="A106" s="15"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:5">
-      <c r="A107" s="15"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:5">
-      <c r="A108" s="15"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
     </row>
     <row r="109" ht="12" customHeight="1" spans="1:5">
-      <c r="A109" s="15"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
     </row>
     <row r="110" ht="12" customHeight="1" spans="1:5">
-      <c r="A110" s="15"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:5">
-      <c r="A111" s="15"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
     </row>
     <row r="112" ht="12" customHeight="1" spans="1:5">
-      <c r="A112" s="15"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
     </row>
     <row r="113" ht="12" customHeight="1" spans="1:5">
-      <c r="A113" s="15"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
     </row>
     <row r="114" ht="12" customHeight="1" spans="1:5">
-      <c r="A114" s="15"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
     </row>
     <row r="115" ht="12" customHeight="1" spans="1:5">
-      <c r="A115" s="15"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
     </row>
     <row r="116" ht="12" customHeight="1" spans="1:5">
-      <c r="A116" s="15"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
     </row>
     <row r="117" ht="12" customHeight="1" spans="1:5">
-      <c r="A117" s="15"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
     </row>
     <row r="118" ht="12" customHeight="1" spans="1:5">
-      <c r="A118" s="15"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
     </row>
     <row r="119" ht="12" customHeight="1" spans="1:5">
-      <c r="A119" s="15"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
     </row>
     <row r="120" ht="12" customHeight="1" spans="1:5">
-      <c r="A120" s="15"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
     </row>
     <row r="121" ht="12" customHeight="1" spans="1:5">
-      <c r="A121" s="15"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
     </row>
     <row r="122" ht="12" customHeight="1" spans="1:5">
-      <c r="A122" s="15"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
     </row>
     <row r="123" ht="12" customHeight="1" spans="1:5">
-      <c r="A123" s="15"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
+      <c r="A123" s="17"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
     </row>
     <row r="124" ht="12" customHeight="1" spans="1:5">
-      <c r="A124" s="15"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
     </row>
     <row r="125" ht="12" customHeight="1" spans="1:5">
-      <c r="A125" s="15"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
     </row>
     <row r="126" ht="12" customHeight="1" spans="1:5">
-      <c r="A126" s="15"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
     </row>
     <row r="127" ht="12" customHeight="1" spans="1:5">
-      <c r="A127" s="15"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
     </row>
     <row r="128" ht="12" customHeight="1" spans="1:5">
-      <c r="A128" s="15"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
     </row>
     <row r="129" ht="12" customHeight="1" spans="1:5">
-      <c r="A129" s="15"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
     </row>
     <row r="130" ht="12" customHeight="1" spans="1:5">
-      <c r="A130" s="15"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
     </row>
     <row r="131" ht="12" customHeight="1" spans="1:5">
-      <c r="A131" s="15"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
+      <c r="A131" s="17"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
     </row>
     <row r="132" ht="12" customHeight="1" spans="1:5">
-      <c r="A132" s="17"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
     </row>
     <row r="133" ht="12" customHeight="1" spans="1:5">
-      <c r="A133" s="17"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
     </row>
     <row r="134" ht="12" customHeight="1" spans="1:5">
-      <c r="A134" s="17"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
     </row>
     <row r="135" ht="12" customHeight="1" spans="1:5">
-      <c r="A135" s="17"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
     </row>
     <row r="136" ht="12" customHeight="1" spans="1:5">
-      <c r="A136" s="17"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
     </row>
     <row r="137" ht="12" customHeight="1" spans="1:5">
-      <c r="A137" s="17"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="17"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="17"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="17"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="17"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="17"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="16"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="18"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="17"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="16"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="18"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="17"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="16"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="18"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="17"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="16"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="18"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="17"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="16"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="18"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="17"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="16"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="18"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="17"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="16"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="18"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="17"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="16"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="18"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="17"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="16"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="18"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="17"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="16"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="18"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="17"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="16"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="18"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="17"/>
-      <c r="B153" s="19"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="16"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="21"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="18"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="17"/>
-      <c r="B154" s="19"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="16"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="21"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="18"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="17"/>
-      <c r="B155" s="19"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="16"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="21"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="18"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="17"/>
-      <c r="B156" s="19"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="16"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="21"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="18"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="17"/>
-      <c r="B157" s="19"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="16"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="21"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="18"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="17"/>
-      <c r="B158" s="19"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="16"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="21"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="18"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="17"/>
-      <c r="B159" s="19"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="16"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="21"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="18"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="17"/>
-      <c r="B160" s="19"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="16"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="21"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="18"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="17"/>
-      <c r="B161" s="19"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="16"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="21"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="18"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="17"/>
-      <c r="B162" s="19"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="16"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="21"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="18"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="17"/>
-      <c r="B163" s="19"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="16"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="21"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="18"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="17"/>
-      <c r="B164" s="19"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="16"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="21"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="18"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="17"/>
-      <c r="B165" s="19"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="16"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="21"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="18"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="17"/>
-      <c r="B166" s="19"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="16"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="21"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="18"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="17"/>
-      <c r="B167" s="19"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="16"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="21"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="18"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="17"/>
-      <c r="B168" s="19"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="16"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="21"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="18"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="17"/>
-      <c r="B169" s="19"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="16"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="21"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="18"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="17"/>
-      <c r="B170" s="19"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="16"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="21"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="18"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="17"/>
-      <c r="B171" s="19"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="16"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="21"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="18"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="17"/>
-      <c r="B172" s="19"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="16"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="21"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="18"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="17"/>
-      <c r="B173" s="19"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="16"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="21"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="18"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="17"/>
-      <c r="B174" s="19"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="16"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="21"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="18"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="17"/>
-      <c r="B175" s="19"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="16"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="21"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="18"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="17"/>
-      <c r="B176" s="19"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="16"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="21"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="18"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="17"/>
-      <c r="B177" s="19"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="16"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="21"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="18"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="17"/>
-      <c r="B178" s="19"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="16"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="21"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="18"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="17"/>
-      <c r="B179" s="19"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="16"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="21"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="18"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="17"/>
-      <c r="B180" s="19"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="16"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="21"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="18"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="17"/>
-      <c r="B181" s="19"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="16"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="21"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="18"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="17"/>
-      <c r="B182" s="19"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="16"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="21"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="18"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="17"/>
-      <c r="B183" s="19"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="16"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="21"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="18"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="17"/>
-      <c r="B184" s="19"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="16"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="21"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="18"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="17"/>
-      <c r="B185" s="19"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="16"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="21"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="18"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="17"/>
-      <c r="B186" s="19"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="16"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="21"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="18"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="17"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="16"/>
+      <c r="A187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="18"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="17"/>
-      <c r="E188" s="16"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="18"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="17"/>
-      <c r="E189" s="16"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="18"/>
     </row>
     <row r="190" spans="4:5">
-      <c r="D190" s="17"/>
-      <c r="E190" s="16"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="18"/>
     </row>
     <row r="191" spans="4:5">
-      <c r="D191" s="17"/>
-      <c r="E191" s="16"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="18"/>
     </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="17"/>
-      <c r="E192" s="16"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="18"/>
     </row>
     <row r="193" spans="4:5">
-      <c r="D193" s="17"/>
-      <c r="E193" s="16"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="18"/>
     </row>
     <row r="194" spans="4:5">
-      <c r="D194" s="17"/>
-      <c r="E194" s="16"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="18"/>
     </row>
     <row r="195" spans="4:5">
-      <c r="D195" s="17"/>
-      <c r="E195" s="16"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="18"/>
     </row>
   </sheetData>
   <sortState ref="A3:B86">
@@ -3480,8 +3345,8 @@
   <sheetPr/>
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3490,7 +3355,7 @@
     <col min="2" max="2" width="70.5714285714286" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.28571428571429" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="6.28571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50" style="4" customWidth="1"/>
+    <col min="5" max="5" width="60.1428571428571" style="4" customWidth="1"/>
     <col min="6" max="6" width="70.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3549,18 +3414,14 @@
       </c>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="9"/>
       <c r="D5" s="7">
         <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
@@ -3568,44 +3429,36 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="10">
-        <v>54</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="10">
-        <v>55</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>96</v>
-      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
       <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="7">
         <v>56</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
@@ -3613,14 +3466,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7">
         <v>57</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
@@ -3628,14 +3481,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="7">
         <v>58</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
@@ -3643,14 +3496,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="7">
         <v>59</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
@@ -3658,14 +3511,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="7">
         <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
@@ -3673,29 +3526,21 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="10">
-        <v>61</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>108</v>
-      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="9"/>
       <c r="D14" s="7">
         <v>62</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>110</v>
+      <c r="E14" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
@@ -3703,29 +3548,21 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="10">
-        <v>63</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>112</v>
-      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="9"/>
       <c r="D16" s="7">
         <v>64</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
@@ -3733,14 +3570,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="7">
         <v>65</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
@@ -3748,14 +3585,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="7">
         <v>66</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
@@ -3763,29 +3600,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10">
-        <v>67</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>120</v>
-      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="7">
         <v>68</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
@@ -3793,14 +3626,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="7">
         <v>69</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
@@ -3808,14 +3641,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="7">
         <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
@@ -3823,59 +3656,49 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="12">
+      <c r="D23" s="13">
         <v>71</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:5">
       <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="7">
         <v>72</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>130</v>
+      <c r="E24" s="15" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="10">
-        <v>23</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>131</v>
-      </c>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="7">
         <v>73</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>132</v>
+      <c r="E25" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>133</v>
-      </c>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="7">
         <v>74</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>134</v>
+      <c r="E26" s="15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:5">
@@ -3883,14 +3706,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="7">
         <v>75</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:5">
@@ -3898,14 +3721,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="7">
         <v>76</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:5">
@@ -3913,29 +3736,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="7">
         <v>77</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="10">
-        <v>28</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>141</v>
-      </c>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="9"/>
       <c r="D30" s="7">
         <v>78</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:5">
@@ -3943,59 +3762,47 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="12">
+      <c r="D31" s="13">
         <v>79</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>144</v>
-      </c>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:5">
-      <c r="A32" s="10">
-        <v>30</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>145</v>
-      </c>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="12">
+      <c r="D32" s="13">
         <v>80</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>146</v>
-      </c>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:5">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="7">
         <v>81</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="10">
-        <v>32</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>149</v>
-      </c>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="9"/>
       <c r="D34" s="7">
         <v>82</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:5">
@@ -4003,44 +3810,36 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="7">
         <v>83</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="10">
-        <v>34</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>153</v>
-      </c>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="9"/>
       <c r="D36" s="7">
         <v>84</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="10">
-        <v>35</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="9"/>
       <c r="D37" s="7">
         <v>85</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:5">
@@ -4048,14 +3847,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="7">
         <v>86</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>158</v>
+      <c r="E38" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:5">
@@ -4063,14 +3862,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="7">
         <v>87</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>160</v>
+      <c r="E39" s="16" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1" spans="1:5">
@@ -4078,29 +3877,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="7">
         <v>88</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1" spans="1:5">
-      <c r="A41" s="10">
-        <v>39</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>163</v>
-      </c>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="9"/>
       <c r="D41" s="7">
         <v>89</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>164</v>
+      <c r="E41" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1" spans="1:5">
@@ -4108,14 +3903,14 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="7">
         <v>90</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>166</v>
+      <c r="E42" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1" spans="1:5">
@@ -4123,14 +3918,14 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="7">
         <v>91</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>168</v>
+      <c r="E43" s="16" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1" spans="1:5">
@@ -4138,14 +3933,14 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="7">
         <v>92</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>170</v>
+      <c r="E44" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1" spans="1:5">
@@ -4153,47 +3948,39 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="7">
         <v>93</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" ht="14" customHeight="1" spans="1:5">
       <c r="A46" s="7">
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="7">
         <v>94</v>
       </c>
-      <c r="E46" s="14"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" ht="14" customHeight="1" spans="1:5">
-      <c r="A47" s="10">
-        <v>45</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="9"/>
       <c r="D47" s="7">
         <v>95</v>
       </c>
-      <c r="E47" s="14"/>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" ht="14" customHeight="1" spans="1:5">
-      <c r="A48" s="10">
-        <v>46</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>174</v>
-      </c>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="9"/>
       <c r="D48" s="7">
         <v>96</v>
@@ -4201,12 +3988,8 @@
       <c r="E48" s="8"/>
     </row>
     <row r="49" ht="14" customHeight="1" spans="1:5">
-      <c r="A49" s="10">
-        <v>47</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>175</v>
-      </c>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="9"/>
       <c r="D49" s="7">
         <v>97</v>
@@ -4218,806 +4001,802 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="7">
         <v>98</v>
       </c>
-      <c r="E50" s="14"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" ht="14" customHeight="1" spans="1:5">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="7">
         <v>99</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" ht="14" customHeight="1" spans="1:5">
-      <c r="A52" s="10">
-        <v>50</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>178</v>
-      </c>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="7">
         <v>100</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="16"/>
     </row>
     <row r="53" ht="14" customHeight="1" spans="3:3">
-      <c r="C53" s="15"/>
+      <c r="C53" s="17"/>
     </row>
     <row r="54" ht="14" customHeight="1" spans="3:3">
-      <c r="C54" s="15"/>
+      <c r="C54" s="17"/>
     </row>
     <row r="55" ht="14" customHeight="1" spans="3:3">
-      <c r="C55" s="15"/>
+      <c r="C55" s="17"/>
     </row>
     <row r="56" ht="14" customHeight="1" spans="3:3">
-      <c r="C56" s="15"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" ht="14" customHeight="1" spans="3:3">
-      <c r="C57" s="15"/>
+      <c r="C57" s="17"/>
     </row>
     <row r="58" ht="14" customHeight="1" spans="3:3">
-      <c r="C58" s="15"/>
+      <c r="C58" s="17"/>
     </row>
     <row r="59" ht="14" customHeight="1" spans="3:3">
-      <c r="C59" s="15"/>
+      <c r="C59" s="17"/>
     </row>
     <row r="60" ht="14" customHeight="1" spans="3:3">
-      <c r="C60" s="15"/>
+      <c r="C60" s="17"/>
     </row>
     <row r="61" ht="14" customHeight="1" spans="3:3">
-      <c r="C61" s="15"/>
+      <c r="C61" s="17"/>
     </row>
     <row r="62" ht="14" customHeight="1" spans="3:3">
-      <c r="C62" s="15"/>
+      <c r="C62" s="17"/>
     </row>
     <row r="63" ht="14" customHeight="1" spans="3:3">
-      <c r="C63" s="16"/>
+      <c r="C63" s="18"/>
     </row>
     <row r="64" ht="14" customHeight="1" spans="3:3">
-      <c r="C64" s="16"/>
+      <c r="C64" s="18"/>
     </row>
     <row r="65" ht="14" customHeight="1" spans="3:3">
-      <c r="C65" s="16"/>
+      <c r="C65" s="18"/>
     </row>
     <row r="66" ht="14" customHeight="1" spans="3:3">
-      <c r="C66" s="16"/>
+      <c r="C66" s="18"/>
     </row>
     <row r="67" ht="14" customHeight="1" spans="3:3">
-      <c r="C67" s="16"/>
+      <c r="C67" s="18"/>
     </row>
     <row r="68" ht="14" customHeight="1" spans="3:3">
-      <c r="C68" s="16"/>
+      <c r="C68" s="18"/>
     </row>
     <row r="69" ht="14" customHeight="1" spans="3:3">
-      <c r="C69" s="16"/>
+      <c r="C69" s="18"/>
     </row>
     <row r="70" ht="14" customHeight="1" spans="3:3">
-      <c r="C70" s="16"/>
+      <c r="C70" s="18"/>
     </row>
     <row r="71" ht="14" customHeight="1" spans="3:3">
-      <c r="C71" s="16"/>
+      <c r="C71" s="18"/>
     </row>
     <row r="72" ht="14" customHeight="1" spans="3:3">
-      <c r="C72" s="16"/>
+      <c r="C72" s="18"/>
     </row>
     <row r="73" ht="14" customHeight="1" spans="3:3">
-      <c r="C73" s="16"/>
+      <c r="C73" s="18"/>
     </row>
     <row r="74" ht="14" customHeight="1" spans="3:3">
-      <c r="C74" s="16"/>
+      <c r="C74" s="18"/>
     </row>
     <row r="75" ht="14" customHeight="1" spans="3:3">
-      <c r="C75" s="16"/>
+      <c r="C75" s="18"/>
     </row>
     <row r="76" ht="14" customHeight="1" spans="3:3">
-      <c r="C76" s="16"/>
+      <c r="C76" s="18"/>
     </row>
     <row r="77" ht="14" customHeight="1" spans="3:3">
-      <c r="C77" s="16"/>
+      <c r="C77" s="18"/>
     </row>
     <row r="78" ht="14" customHeight="1" spans="3:3">
-      <c r="C78" s="16"/>
+      <c r="C78" s="18"/>
     </row>
     <row r="79" ht="14" customHeight="1" spans="3:3">
-      <c r="C79" s="16"/>
+      <c r="C79" s="18"/>
     </row>
     <row r="80" ht="14" customHeight="1" spans="3:3">
-      <c r="C80" s="16"/>
+      <c r="C80" s="18"/>
     </row>
     <row r="81" ht="14" customHeight="1" spans="3:3">
-      <c r="C81" s="16"/>
+      <c r="C81" s="18"/>
     </row>
     <row r="82" ht="14" customHeight="1" spans="3:3">
-      <c r="C82" s="16"/>
+      <c r="C82" s="18"/>
     </row>
     <row r="83" ht="14" customHeight="1" spans="3:3">
-      <c r="C83" s="16"/>
+      <c r="C83" s="18"/>
     </row>
     <row r="84" ht="14" customHeight="1" spans="3:3">
-      <c r="C84" s="16"/>
+      <c r="C84" s="18"/>
     </row>
     <row r="85" ht="14" customHeight="1" spans="3:3">
-      <c r="C85" s="16"/>
+      <c r="C85" s="18"/>
     </row>
     <row r="86" ht="14" customHeight="1" spans="3:3">
-      <c r="C86" s="16"/>
+      <c r="C86" s="18"/>
     </row>
     <row r="87" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C87" s="16"/>
+      <c r="C87" s="18"/>
     </row>
     <row r="88" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C88" s="16"/>
+      <c r="C88" s="18"/>
     </row>
     <row r="89" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C89" s="16"/>
+      <c r="C89" s="18"/>
     </row>
     <row r="90" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="16"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="18"/>
     </row>
     <row r="91" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C91" s="16"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="16"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="18"/>
     </row>
     <row r="92" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="16"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="18"/>
     </row>
     <row r="93" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C93" s="16"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="16"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="18"/>
     </row>
     <row r="94" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C94" s="16"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="16"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="18"/>
     </row>
     <row r="95" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C95" s="16"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="16"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="18"/>
     </row>
     <row r="96" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C96" s="16"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="16"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="18"/>
     </row>
     <row r="97" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C97" s="16"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="16"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="18"/>
     </row>
     <row r="98" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C98" s="16"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="16"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="18"/>
     </row>
     <row r="99" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C99" s="16"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="16"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="18"/>
     </row>
     <row r="100" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C100" s="15"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="16"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="18"/>
     </row>
     <row r="101" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C101" s="15"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="16"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="18"/>
     </row>
     <row r="102" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C102" s="15"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="16"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="18"/>
     </row>
     <row r="103" ht="12" customHeight="1" spans="1:5">
-      <c r="A103" s="15"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="16"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="18"/>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:5">
-      <c r="A104" s="15"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="16"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="18"/>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:5">
-      <c r="A105" s="15"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:5">
-      <c r="A106" s="15"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:5">
-      <c r="A107" s="15"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:5">
-      <c r="A108" s="15"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
     </row>
     <row r="109" ht="12" customHeight="1" spans="1:5">
-      <c r="A109" s="15"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
     </row>
     <row r="110" ht="12" customHeight="1" spans="1:5">
-      <c r="A110" s="15"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:5">
-      <c r="A111" s="15"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
     </row>
     <row r="112" ht="12" customHeight="1" spans="1:5">
-      <c r="A112" s="15"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
     </row>
     <row r="113" ht="12" customHeight="1" spans="1:5">
-      <c r="A113" s="15"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
     </row>
     <row r="114" ht="12" customHeight="1" spans="1:5">
-      <c r="A114" s="15"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
     </row>
     <row r="115" ht="12" customHeight="1" spans="1:5">
-      <c r="A115" s="15"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
     </row>
     <row r="116" ht="12" customHeight="1" spans="1:5">
-      <c r="A116" s="15"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
     </row>
     <row r="117" ht="12" customHeight="1" spans="1:5">
-      <c r="A117" s="15"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
     </row>
     <row r="118" ht="12" customHeight="1" spans="1:5">
-      <c r="A118" s="15"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
     </row>
     <row r="119" ht="12" customHeight="1" spans="1:5">
-      <c r="A119" s="15"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
     </row>
     <row r="120" ht="12" customHeight="1" spans="1:5">
-      <c r="A120" s="15"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
     </row>
     <row r="121" ht="12" customHeight="1" spans="1:5">
-      <c r="A121" s="15"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
     </row>
     <row r="122" ht="12" customHeight="1" spans="1:5">
-      <c r="A122" s="15"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
     </row>
     <row r="123" ht="12" customHeight="1" spans="1:5">
-      <c r="A123" s="15"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
+      <c r="A123" s="17"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
     </row>
     <row r="124" ht="12" customHeight="1" spans="1:5">
-      <c r="A124" s="15"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
     </row>
     <row r="125" ht="12" customHeight="1" spans="1:5">
-      <c r="A125" s="15"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
     </row>
     <row r="126" ht="12" customHeight="1" spans="1:5">
-      <c r="A126" s="15"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
     </row>
     <row r="127" ht="12" customHeight="1" spans="1:5">
-      <c r="A127" s="15"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
     </row>
     <row r="128" ht="12" customHeight="1" spans="1:5">
-      <c r="A128" s="15"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
     </row>
     <row r="129" ht="12" customHeight="1" spans="1:5">
-      <c r="A129" s="15"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
     </row>
     <row r="130" ht="12" customHeight="1" spans="1:5">
-      <c r="A130" s="15"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
     </row>
     <row r="131" ht="12" customHeight="1" spans="1:5">
-      <c r="A131" s="15"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
+      <c r="A131" s="17"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
     </row>
     <row r="132" ht="12" customHeight="1" spans="1:5">
-      <c r="A132" s="17"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
     </row>
     <row r="133" ht="12" customHeight="1" spans="1:5">
-      <c r="A133" s="17"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
     </row>
     <row r="134" ht="12" customHeight="1" spans="1:5">
-      <c r="A134" s="17"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
     </row>
     <row r="135" ht="12" customHeight="1" spans="1:5">
-      <c r="A135" s="17"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
     </row>
     <row r="136" ht="12" customHeight="1" spans="1:5">
-      <c r="A136" s="17"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
     </row>
     <row r="137" ht="12" customHeight="1" spans="1:5">
-      <c r="A137" s="17"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="17"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="17"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="17"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="17"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="17"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="16"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="18"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="17"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="16"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="18"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="17"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="16"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="18"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="17"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="16"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="18"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="17"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="16"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="18"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="17"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="16"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="18"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="17"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="16"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="18"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="17"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="16"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="18"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="17"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="16"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="18"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="17"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="16"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="18"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="17"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="16"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="18"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="17"/>
-      <c r="B153" s="19"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="16"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="21"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="18"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="17"/>
-      <c r="B154" s="19"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="16"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="21"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="18"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="17"/>
-      <c r="B155" s="19"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="16"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="21"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="18"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="17"/>
-      <c r="B156" s="19"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="16"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="21"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="18"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="17"/>
-      <c r="B157" s="19"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="16"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="21"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="18"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="17"/>
-      <c r="B158" s="19"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="16"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="21"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="18"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="17"/>
-      <c r="B159" s="19"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="16"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="21"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="18"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="17"/>
-      <c r="B160" s="19"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="16"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="21"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="18"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="17"/>
-      <c r="B161" s="19"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="16"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="21"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="18"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="17"/>
-      <c r="B162" s="19"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="16"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="21"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="18"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="17"/>
-      <c r="B163" s="19"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="16"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="21"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="18"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="17"/>
-      <c r="B164" s="19"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="16"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="21"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="18"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="17"/>
-      <c r="B165" s="19"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="16"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="21"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="18"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="17"/>
-      <c r="B166" s="19"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="16"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="21"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="18"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="17"/>
-      <c r="B167" s="19"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="16"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="21"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="18"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="17"/>
-      <c r="B168" s="19"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="16"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="21"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="18"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="17"/>
-      <c r="B169" s="19"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="16"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="21"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="18"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="17"/>
-      <c r="B170" s="19"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="16"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="21"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="18"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="17"/>
-      <c r="B171" s="19"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="16"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="21"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="18"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="17"/>
-      <c r="B172" s="19"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="16"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="21"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="18"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="17"/>
-      <c r="B173" s="19"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="16"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="21"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="18"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="17"/>
-      <c r="B174" s="19"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="16"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="21"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="18"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="17"/>
-      <c r="B175" s="19"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="16"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="21"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="18"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="17"/>
-      <c r="B176" s="19"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="16"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="21"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="18"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="17"/>
-      <c r="B177" s="19"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="16"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="21"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="18"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="17"/>
-      <c r="B178" s="19"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="16"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="21"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="18"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="17"/>
-      <c r="B179" s="19"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="16"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="21"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="18"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="17"/>
-      <c r="B180" s="19"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="16"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="21"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="18"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="17"/>
-      <c r="B181" s="19"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="16"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="21"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="18"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="17"/>
-      <c r="B182" s="19"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="16"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="21"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="18"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="17"/>
-      <c r="B183" s="19"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="16"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="21"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="18"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="17"/>
-      <c r="B184" s="19"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="16"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="21"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="18"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="17"/>
-      <c r="B185" s="19"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="16"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="21"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="18"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="17"/>
-      <c r="B186" s="19"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="16"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="21"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="18"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="17"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="16"/>
+      <c r="A187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="18"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="17"/>
-      <c r="E188" s="16"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="18"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="17"/>
-      <c r="E189" s="16"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="18"/>
     </row>
     <row r="190" spans="4:5">
-      <c r="D190" s="17"/>
-      <c r="E190" s="16"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="18"/>
     </row>
     <row r="191" spans="4:5">
-      <c r="D191" s="17"/>
-      <c r="E191" s="16"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="18"/>
     </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="17"/>
-      <c r="E192" s="16"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="18"/>
     </row>
     <row r="193" spans="4:5">
-      <c r="D193" s="17"/>
-      <c r="E193" s="16"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="18"/>
     </row>
     <row r="194" spans="4:5">
-      <c r="D194" s="17"/>
-      <c r="E194" s="16"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="18"/>
     </row>
     <row r="195" spans="4:5">
-      <c r="D195" s="17"/>
-      <c r="E195" s="16"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="18"/>
     </row>
   </sheetData>
   <sortState ref="A3:B83">

--- a/Indice .xlsx
+++ b/Indice .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20025" windowHeight="8625" activeTab="1"/>
+    <workbookView windowWidth="20460" windowHeight="8475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ORDEM ALFABETICA" sheetId="1" r:id="rId1"/>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">Ceu e terra - </t>
   </si>
   <si>
-    <t>Eu vou construir - TENOR</t>
+    <t>Eu vou construir - TENOR ??</t>
   </si>
   <si>
     <t xml:space="preserve">Aqui eu vim para dizer - TENOR  </t>
@@ -290,7 +290,7 @@
     <t>Há um lugar - SOPRANO</t>
   </si>
   <si>
-    <t>Ambiente de glória -  TENOR E ???</t>
+    <t>Ambiente de glória -  TENOR E SOPRANO</t>
   </si>
   <si>
     <t>Sonda-me ho Deus - ???</t>
@@ -346,45 +346,19 @@
     <t>Poderoso Deus - TENOR</t>
   </si>
   <si>
-    <t>Nada alem do sangue - ???</t>
+    <t>Nada alem do sangue - CONTRALTO</t>
   </si>
   <si>
     <t>Tua palavra - ???</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ao erguermos as mãos - SOPRANO (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>repassar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>Ao erguermos as mãos - SOPRANO (PASSAGENS)</t>
   </si>
   <si>
     <t>Primeira essência - SOPRANO</t>
   </si>
   <si>
-    <t>Jesus é o caminho - ???</t>
+    <t>Jesus é o caminho - CONTRALTO</t>
   </si>
   <si>
     <t>Quanto mais eu te buscar - TENOR</t>
@@ -494,12 +468,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
       <t>Me faz te conhecer - TENOR (</t>
     </r>
     <r>
@@ -567,12 +535,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
       <t>Vou deixar na cruz - TENOR (</t>
     </r>
     <r>
@@ -582,7 +544,7 @@
         <rFont val="Georgia"/>
         <charset val="134"/>
       </rPr>
-      <t>repassar</t>
+      <t>repassar GUITARRA</t>
     </r>
     <r>
       <rPr>
@@ -595,7 +557,7 @@
     </r>
   </si>
   <si>
-    <t>Ressuscitou - ???</t>
+    <t>Ressuscitou - TODOS</t>
   </si>
   <si>
     <t>Lembra Senhor - TENOR</t>
@@ -616,7 +578,7 @@
     <t>Santo - CONTRALTO (SUBIR 1 TOM)</t>
   </si>
   <si>
-    <t>Teu amor não falha - ???</t>
+    <t xml:space="preserve">Teu amor não falha - </t>
   </si>
   <si>
     <t>Santidade - TENOR</t>
@@ -637,28 +599,39 @@
     <t>Eu vou me derreter - CONTRALTO (abaixar meio tom)</t>
   </si>
   <si>
-    <t>Yeshua - ??? (repassar)</t>
+    <t>Yeshua - SOPRANO (repassar COM AS MENINAS)</t>
   </si>
   <si>
     <t>Meu salvador - CONTRALTO (ok)</t>
   </si>
   <si>
-    <t>Meu alvo - TENOR</t>
+    <r>
+      <t xml:space="preserve">Meu alvo - TENOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(repassar pras meninas)</t>
+    </r>
   </si>
   <si>
     <t>Tempo de festa - SOPRANO</t>
   </si>
   <si>
-    <t>Jesus em tua presença - TENOR (repassar tirar quebra de tempo)</t>
+    <t>Jesus em tua presença - TENOR</t>
   </si>
   <si>
     <t>Unico senhor - CONTRALTO (SUBIR 1 TOM)</t>
   </si>
   <si>
-    <t>Seu sangue - TENOR</t>
-  </si>
-  <si>
-    <t>Lugar seguro - ???</t>
+    <t xml:space="preserve">Seu sangue - ??? </t>
+  </si>
+  <si>
+    <t>Lugar seguro - SOPRANO</t>
   </si>
   <si>
     <t>Senhor te quero - TENOR</t>
@@ -672,8 +645,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -740,9 +713,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,74 +772,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,6 +804,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -860,11 +827,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -879,6 +845,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,13 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,13 +903,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,7 +951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +969,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +1059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,79 +1071,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,43 +1083,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,6 +1125,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1182,24 +1164,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1211,6 +1175,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,31 +1225,46 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,115 +1273,100 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1426,11 +1399,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3345,8 +3318,8 @@
   <sheetPr/>
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3394,7 +3367,7 @@
       <c r="D3" s="7">
         <v>51</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3414,8 +3387,8 @@
       </c>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="9"/>
       <c r="D5" s="7">
         <v>53</v>
@@ -3432,8 +3405,8 @@
         <v>92</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
       <c r="A7" s="7">
@@ -3443,8 +3416,8 @@
         <v>93</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
       <c r="A8" s="7">
@@ -3517,7 +3490,7 @@
       <c r="D12" s="7">
         <v>60</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3529,17 +3502,17 @@
         <v>104</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="9"/>
       <c r="D14" s="7">
         <v>62</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3551,12 +3524,12 @@
         <v>106</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="9"/>
       <c r="D16" s="7">
         <v>64</v>
@@ -3603,8 +3576,8 @@
         <v>112</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
       <c r="A20" s="7">
@@ -3680,8 +3653,8 @@
       </c>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="9"/>
       <c r="D25" s="7">
         <v>73</v>
@@ -3691,8 +3664,8 @@
       </c>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="9"/>
       <c r="D26" s="7">
         <v>74</v>
@@ -3705,7 +3678,7 @@
       <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C27" s="9"/>
@@ -3735,7 +3708,7 @@
       <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C29" s="9"/>
@@ -3747,8 +3720,8 @@
       </c>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="9"/>
       <c r="D30" s="7">
         <v>78</v>
@@ -3771,8 +3744,8 @@
       <c r="E31" s="14"/>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:5">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="9"/>
       <c r="D32" s="13">
         <v>80</v>
@@ -3795,8 +3768,8 @@
       </c>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="9"/>
       <c r="D34" s="7">
         <v>82</v>
@@ -3821,8 +3794,8 @@
       </c>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="9"/>
       <c r="D36" s="7">
         <v>84</v>
@@ -3832,8 +3805,8 @@
       </c>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="9"/>
       <c r="D37" s="7">
         <v>85</v>
@@ -3846,7 +3819,7 @@
       <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C38" s="9"/>
@@ -3861,7 +3834,7 @@
       <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C39" s="9"/>
@@ -3888,8 +3861,8 @@
       </c>
     </row>
     <row r="41" ht="14" customHeight="1" spans="1:5">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="9"/>
       <c r="D41" s="7">
         <v>89</v>
@@ -3902,7 +3875,7 @@
       <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C42" s="9"/>
@@ -3917,7 +3890,7 @@
       <c r="A43" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C43" s="9"/>
@@ -3947,7 +3920,7 @@
       <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C45" s="9"/>
@@ -3970,8 +3943,8 @@
       <c r="E46" s="16"/>
     </row>
     <row r="47" ht="14" customHeight="1" spans="1:5">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="9"/>
       <c r="D47" s="7">
         <v>95</v>
@@ -3979,8 +3952,8 @@
       <c r="E47" s="16"/>
     </row>
     <row r="48" ht="14" customHeight="1" spans="1:5">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="9"/>
       <c r="D48" s="7">
         <v>96</v>
@@ -3988,8 +3961,8 @@
       <c r="E48" s="8"/>
     </row>
     <row r="49" ht="14" customHeight="1" spans="1:5">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="9"/>
       <c r="D49" s="7">
         <v>97</v>

--- a/Indice .xlsx
+++ b/Indice .xlsx
@@ -278,10 +278,10 @@
     <t>Oceanos</t>
   </si>
   <si>
-    <t xml:space="preserve">Ceu e terra - </t>
-  </si>
-  <si>
-    <t>Eu vou construir - TENOR ??</t>
+    <t>Ceu e terra - TENOR</t>
+  </si>
+  <si>
+    <t>Eu vou construir - CONTRALTO (SUBIR 1 TOM E MEIO)</t>
   </si>
   <si>
     <t xml:space="preserve">Aqui eu vim para dizer - TENOR  </t>
@@ -293,13 +293,13 @@
     <t>Ambiente de glória -  TENOR E SOPRANO</t>
   </si>
   <si>
-    <t>Sonda-me ho Deus - ???</t>
+    <t>Sonda-me ho Deus - CONTRALTO</t>
   </si>
   <si>
     <t>Em teus braços - SOPRANO</t>
   </si>
   <si>
-    <t>Digno - ???</t>
+    <t>Digno - CONTRALTO</t>
   </si>
   <si>
     <t>Não há um nome igual - TENOR</t>
@@ -349,10 +349,10 @@
     <t>Nada alem do sangue - CONTRALTO</t>
   </si>
   <si>
-    <t>Tua palavra - ???</t>
-  </si>
-  <si>
-    <t>Ao erguermos as mãos - SOPRANO (PASSAGENS)</t>
+    <t>Tua palavra - SOPRANO</t>
+  </si>
+  <si>
+    <t>Ao erguermos as mãos - SOPRANO</t>
   </si>
   <si>
     <t>Primeira essência - SOPRANO</t>
@@ -386,6 +386,54 @@
   </si>
   <si>
     <t>Ousado amor - TENOR</t>
+  </si>
+  <si>
+    <t>Quando o vento soprar - CONTRALTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugar secreto -  CONTRALTO </t>
+  </si>
+  <si>
+    <t>Em espirito, em verdade - TENOR</t>
+  </si>
+  <si>
+    <t>Mil graus - TODOS</t>
+  </si>
+  <si>
+    <t>Cria em mim - SOPRANO</t>
+  </si>
+  <si>
+    <t>Beija-me com tua glória - TENOR</t>
+  </si>
+  <si>
+    <t>Teu reino me chamou de seu - SOPRANO / TENOR</t>
+  </si>
+  <si>
+    <t>Oceanos - SOPRANO</t>
+  </si>
+  <si>
+    <t>Eu me rendo - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Me faz te conhecer - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Vim para adorar-te - TENOR</t>
+  </si>
+  <si>
+    <t>Aliança de sangue - TENOR E CONTRALTO</t>
+  </si>
+  <si>
+    <t>Só tu es santo - TENOR</t>
+  </si>
+  <si>
+    <t>Essência da adoração - TENOR E SOPRANO</t>
+  </si>
+  <si>
+    <t>Som do ceu - TENOR</t>
+  </si>
+  <si>
+    <t>Queima de novo - (TENOR)</t>
   </si>
   <si>
     <r>
@@ -395,146 +443,6 @@
         <rFont val="Georgia"/>
         <charset val="134"/>
       </rPr>
-      <t>Quando o vento soprar - TENOR - (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>repassar pras meninas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Lugar secreto -  CONTRALTO </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Em espirito, em verdade - TENOR -  (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>repassar pras meninas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Mil graus - TODOS</t>
-  </si>
-  <si>
-    <t>Cria em mim - SOPRANO</t>
-  </si>
-  <si>
-    <t>Beija-me com tua glória - TENOR</t>
-  </si>
-  <si>
-    <t>Teu reino me chamou de seu - SOPRANO / TENOR</t>
-  </si>
-  <si>
-    <t>Oceanos - SOPRANO</t>
-  </si>
-  <si>
-    <t>Eu me rendo - CONTRALTO</t>
-  </si>
-  <si>
-    <r>
-      <t>Me faz te conhecer - TENOR (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>repassar pras meninas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Vim para adorar-te - TENOR</t>
-  </si>
-  <si>
-    <t>Aliança de sangue - TENOR E CONTRALTO</t>
-  </si>
-  <si>
-    <t>Só tu es santo - TENOR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Essência da adoração - TENOR E CONTRALTO (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>repassar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Som do ceu - TENOR</t>
-  </si>
-  <si>
-    <t>Queima de novo - (TENOR)</t>
-  </si>
-  <si>
-    <r>
       <t>Vou deixar na cruz - TENOR (</t>
     </r>
     <r>
@@ -578,13 +486,13 @@
     <t>Santo - CONTRALTO (SUBIR 1 TOM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Teu amor não falha - </t>
+    <t>Teu amor não falha - SOPRANO</t>
   </si>
   <si>
     <t>Santidade - TENOR</t>
   </si>
   <si>
-    <t>Pra sempre - TENOR E ??? (repassar)</t>
+    <t>Pra sempre - SOPRANO</t>
   </si>
   <si>
     <t>Volto os meus olhos - CONTRALTO</t>
@@ -599,24 +507,13 @@
     <t>Eu vou me derreter - CONTRALTO (abaixar meio tom)</t>
   </si>
   <si>
-    <t>Yeshua - SOPRANO (repassar COM AS MENINAS)</t>
+    <t>Yeshua - SOPRANO / TENOR</t>
   </si>
   <si>
     <t>Meu salvador - CONTRALTO (ok)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Meu alvo - TENOR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(repassar pras meninas)</t>
-    </r>
+    <t>Meu alvo - CONTRALTO</t>
   </si>
   <si>
     <t>Tempo de festa - SOPRANO</t>
@@ -628,7 +525,7 @@
     <t>Unico senhor - CONTRALTO (SUBIR 1 TOM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Seu sangue - ??? </t>
+    <t>Seu sangue - CONTRALTO</t>
   </si>
   <si>
     <t>Lugar seguro - SOPRANO</t>
@@ -647,8 +544,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -714,7 +611,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,8 +624,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,16 +647,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -765,18 +693,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,24 +731,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,21 +755,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,7 +767,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,13 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,145 +800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,7 +818,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,19 +980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,6 +1037,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1149,17 +1061,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,11 +1096,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,60 +1125,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1273,104 +1161,119 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1399,12 +1302,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1415,6 +1318,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1826,10 +1732,10 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="6"/>
@@ -1846,1459 +1752,1459 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="23">
+      <c r="A3" s="24">
         <v>46</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="23">
+      <c r="C3" s="26"/>
+      <c r="D3" s="24">
         <v>64</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="23">
+      <c r="A4" s="24">
         <v>39</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="23">
+      <c r="C4" s="26"/>
+      <c r="D4" s="24">
         <v>68</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="23">
+      <c r="A5" s="24">
         <v>26</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="23">
+      <c r="C5" s="26"/>
+      <c r="D5" s="24">
         <v>33</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="23">
+      <c r="A6" s="24">
         <v>53</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="23">
+      <c r="C6" s="26"/>
+      <c r="D6" s="24">
         <v>32</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="23">
+      <c r="A7" s="24">
         <v>60</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="23">
+      <c r="C7" s="26"/>
+      <c r="D7" s="24">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="23">
+      <c r="A8" s="24">
         <v>12</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="23">
+      <c r="C8" s="26"/>
+      <c r="D8" s="24">
         <v>24</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="23">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="23">
+      <c r="C9" s="26"/>
+      <c r="D9" s="24">
         <v>37</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="23">
+      <c r="A10" s="24">
         <v>84</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="23">
+      <c r="C10" s="26"/>
+      <c r="D10" s="24">
         <v>11</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="23">
+      <c r="A11" s="24">
         <v>22</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="23">
+      <c r="C11" s="26"/>
+      <c r="D11" s="24">
         <v>19</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="23">
+      <c r="A12" s="24">
         <v>54</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="23">
+      <c r="C12" s="26"/>
+      <c r="D12" s="24">
         <v>13</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="23">
+      <c r="A13" s="24">
         <v>65</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="23">
+      <c r="C13" s="26"/>
+      <c r="D13" s="24">
         <v>34</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="23">
+      <c r="A14" s="24">
         <v>1</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="23">
+      <c r="C14" s="26"/>
+      <c r="D14" s="24">
         <v>47</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="23">
+      <c r="A15" s="24">
         <v>28</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="23">
+      <c r="C15" s="26"/>
+      <c r="D15" s="24">
         <v>78</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="23">
+      <c r="A16" s="24">
         <v>35</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="23">
+      <c r="C16" s="26"/>
+      <c r="D16" s="24">
         <v>31</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="23">
+      <c r="A17" s="24">
         <v>21</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="23">
+      <c r="C17" s="26"/>
+      <c r="D17" s="24">
         <v>48</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="23">
+      <c r="A18" s="24">
         <v>50</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="23">
+      <c r="C18" s="26"/>
+      <c r="D18" s="24">
         <v>79</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="23">
+      <c r="A19" s="24">
         <v>6</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="23">
+      <c r="C19" s="26"/>
+      <c r="D19" s="24">
         <v>43</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="23">
+      <c r="A20" s="24">
         <v>23</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="23">
+      <c r="C20" s="26"/>
+      <c r="D20" s="24">
         <v>83</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="23">
+      <c r="A21" s="24">
         <v>15</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="23">
+      <c r="C21" s="26"/>
+      <c r="D21" s="24">
         <v>76</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="23">
+      <c r="A22" s="24">
         <v>20</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="23">
+      <c r="C22" s="26"/>
+      <c r="D22" s="24">
         <v>77</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="23">
+      <c r="A23" s="24">
         <v>5</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="23">
+      <c r="C23" s="26"/>
+      <c r="D23" s="24">
         <v>4</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A24" s="23">
+      <c r="A24" s="24">
         <v>45</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="23">
+      <c r="C24" s="26"/>
+      <c r="D24" s="24">
         <v>3</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="23">
+      <c r="A25" s="24">
         <v>63</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="23">
+      <c r="C25" s="26"/>
+      <c r="D25" s="24">
         <v>67</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="23">
+      <c r="A26" s="24">
         <v>27</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="23">
+      <c r="C26" s="26"/>
+      <c r="D26" s="24">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A27" s="23">
+      <c r="A27" s="24">
         <v>74</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="23">
+      <c r="C27" s="26"/>
+      <c r="D27" s="24">
         <v>58</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A28" s="23">
+      <c r="A28" s="24">
         <v>14</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="23">
+      <c r="C28" s="26"/>
+      <c r="D28" s="24">
         <v>72</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A29" s="23">
+      <c r="A29" s="24">
         <v>51</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="23">
+      <c r="C29" s="26"/>
+      <c r="D29" s="24">
         <v>80</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="23">
+      <c r="A30" s="24">
         <v>18</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="23">
+      <c r="C30" s="26"/>
+      <c r="D30" s="24">
         <v>38</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A31" s="23">
+      <c r="A31" s="24">
         <v>55</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="23">
+      <c r="C31" s="26"/>
+      <c r="D31" s="24">
         <v>10</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A32" s="23">
+      <c r="A32" s="24">
         <v>57</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="23">
+      <c r="C32" s="26"/>
+      <c r="D32" s="24">
         <v>61</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A33" s="23">
+      <c r="A33" s="24">
         <v>52</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="23">
+      <c r="C33" s="26"/>
+      <c r="D33" s="24">
         <v>71</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="23">
+      <c r="A34" s="24">
         <v>16</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="23">
+      <c r="C34" s="26"/>
+      <c r="D34" s="24">
         <v>75</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A35" s="23">
+      <c r="A35" s="24">
         <v>17</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="23">
+      <c r="C35" s="26"/>
+      <c r="D35" s="24">
         <v>29</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="23">
+      <c r="A36" s="24">
         <v>7</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="23">
+      <c r="C36" s="26"/>
+      <c r="D36" s="24">
         <v>40</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="23">
+      <c r="A37" s="24">
         <v>62</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A38" s="23">
+      <c r="A38" s="24">
         <v>42</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A39" s="23">
+      <c r="A39" s="24">
         <v>81</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A40" s="23">
+      <c r="A40" s="24">
         <v>69</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A41" s="23">
+      <c r="A41" s="24">
         <v>44</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A42" s="23">
+      <c r="A42" s="24">
         <v>25</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A43" s="23">
+      <c r="A43" s="24">
         <v>8</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A44" s="23">
+      <c r="A44" s="24">
         <v>82</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
     </row>
     <row r="45" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A45" s="23">
+      <c r="A45" s="24">
         <v>41</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
     </row>
     <row r="46" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A46" s="23">
+      <c r="A46" s="24">
         <v>70</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A47" s="23">
+      <c r="A47" s="24">
         <v>66</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A48" s="23">
+      <c r="A48" s="24">
         <v>59</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A49" s="23">
+      <c r="A49" s="24">
         <v>30</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A50" s="23">
+      <c r="A50" s="24">
         <v>56</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A51" s="23">
+      <c r="A51" s="24">
         <v>49</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A52" s="23">
+      <c r="A52" s="24">
         <v>73</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
     </row>
     <row r="53" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C53" s="17"/>
+      <c r="C53" s="18"/>
       <c r="D53"/>
       <c r="E53"/>
     </row>
     <row r="54" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C54" s="17"/>
+      <c r="C54" s="18"/>
     </row>
     <row r="55" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C55" s="17"/>
+      <c r="C55" s="18"/>
     </row>
     <row r="56" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C56" s="17"/>
+      <c r="C56" s="18"/>
     </row>
     <row r="57" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C57" s="17"/>
+      <c r="C57" s="18"/>
     </row>
     <row r="58" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C58" s="17"/>
+      <c r="C58" s="18"/>
     </row>
     <row r="59" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C59" s="17"/>
+      <c r="C59" s="18"/>
     </row>
     <row r="60" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C60" s="17"/>
+      <c r="C60" s="18"/>
     </row>
     <row r="61" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C61" s="17"/>
+      <c r="C61" s="18"/>
     </row>
     <row r="62" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C62" s="17"/>
+      <c r="C62" s="18"/>
     </row>
     <row r="63" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C63" s="18"/>
+      <c r="C63" s="19"/>
     </row>
     <row r="64" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C64" s="18"/>
+      <c r="C64" s="19"/>
     </row>
     <row r="65" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C65" s="18"/>
+      <c r="C65" s="19"/>
     </row>
     <row r="66" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C66" s="18"/>
+      <c r="C66" s="19"/>
     </row>
     <row r="67" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C67" s="18"/>
+      <c r="C67" s="19"/>
     </row>
     <row r="68" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C68" s="18"/>
+      <c r="C68" s="19"/>
     </row>
     <row r="69" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C69" s="18"/>
+      <c r="C69" s="19"/>
     </row>
     <row r="70" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C70" s="18"/>
+      <c r="C70" s="19"/>
     </row>
     <row r="71" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C71" s="18"/>
+      <c r="C71" s="19"/>
     </row>
     <row r="72" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C72" s="18"/>
+      <c r="C72" s="19"/>
     </row>
     <row r="73" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C73" s="18"/>
+      <c r="C73" s="19"/>
     </row>
     <row r="74" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C74" s="18"/>
+      <c r="C74" s="19"/>
     </row>
     <row r="75" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C75" s="18"/>
+      <c r="C75" s="19"/>
     </row>
     <row r="76" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C76" s="18"/>
+      <c r="C76" s="19"/>
     </row>
     <row r="77" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C77" s="18"/>
+      <c r="C77" s="19"/>
     </row>
     <row r="78" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C78" s="18"/>
+      <c r="C78" s="19"/>
     </row>
     <row r="79" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C79" s="18"/>
+      <c r="C79" s="19"/>
     </row>
     <row r="80" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C80" s="18"/>
+      <c r="C80" s="19"/>
     </row>
     <row r="81" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C81" s="18"/>
+      <c r="C81" s="19"/>
     </row>
     <row r="82" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C82" s="18"/>
+      <c r="C82" s="19"/>
     </row>
     <row r="83" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C83" s="18"/>
+      <c r="C83" s="19"/>
     </row>
     <row r="84" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C84" s="18"/>
+      <c r="C84" s="19"/>
     </row>
     <row r="85" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C85" s="18"/>
+      <c r="C85" s="19"/>
     </row>
     <row r="86" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C86" s="18"/>
+      <c r="C86" s="19"/>
     </row>
     <row r="87" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C87" s="18"/>
+      <c r="C87" s="19"/>
     </row>
     <row r="88" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C88" s="18"/>
+      <c r="C88" s="19"/>
     </row>
     <row r="89" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C89" s="18"/>
+      <c r="C89" s="19"/>
     </row>
     <row r="90" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="18"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="19"/>
     </row>
     <row r="91" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C91" s="18"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="18"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="19"/>
     </row>
     <row r="92" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C92" s="18"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="18"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="19"/>
     </row>
     <row r="93" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C93" s="18"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="18"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="19"/>
     </row>
     <row r="94" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="18"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="19"/>
     </row>
     <row r="95" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C95" s="18"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="18"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="19"/>
     </row>
     <row r="96" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C96" s="18"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="18"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="19"/>
     </row>
     <row r="97" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C97" s="18"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="19"/>
     </row>
     <row r="98" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C98" s="18"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="18"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="19"/>
     </row>
     <row r="99" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C99" s="18"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="18"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="19"/>
     </row>
     <row r="100" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C100" s="17"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="19"/>
     </row>
     <row r="101" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C101" s="17"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="19"/>
     </row>
     <row r="102" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C102" s="17"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="19"/>
     </row>
     <row r="103" ht="12" customHeight="1" spans="1:5">
-      <c r="A103" s="17"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="18"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="19"/>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:5">
-      <c r="A104" s="17"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="18"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="19"/>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:5">
-      <c r="A105" s="17"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:5">
-      <c r="A106" s="17"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:5">
-      <c r="A107" s="17"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:5">
-      <c r="A108" s="17"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
     </row>
     <row r="109" ht="12" customHeight="1" spans="1:5">
-      <c r="A109" s="17"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
     </row>
     <row r="110" ht="12" customHeight="1" spans="1:5">
-      <c r="A110" s="17"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:5">
-      <c r="A111" s="17"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
     </row>
     <row r="112" ht="12" customHeight="1" spans="1:5">
-      <c r="A112" s="17"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
     </row>
     <row r="113" ht="12" customHeight="1" spans="1:5">
-      <c r="A113" s="17"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
     </row>
     <row r="114" ht="12" customHeight="1" spans="1:5">
-      <c r="A114" s="17"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
     </row>
     <row r="115" ht="12" customHeight="1" spans="1:5">
-      <c r="A115" s="17"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
     </row>
     <row r="116" ht="12" customHeight="1" spans="1:5">
-      <c r="A116" s="17"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
     </row>
     <row r="117" ht="12" customHeight="1" spans="1:5">
-      <c r="A117" s="17"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
     </row>
     <row r="118" ht="12" customHeight="1" spans="1:5">
-      <c r="A118" s="17"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
     </row>
     <row r="119" ht="12" customHeight="1" spans="1:5">
-      <c r="A119" s="17"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
     </row>
     <row r="120" ht="12" customHeight="1" spans="1:5">
-      <c r="A120" s="17"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
     </row>
     <row r="121" ht="12" customHeight="1" spans="1:5">
-      <c r="A121" s="17"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
     </row>
     <row r="122" ht="12" customHeight="1" spans="1:5">
-      <c r="A122" s="17"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
     </row>
     <row r="123" ht="12" customHeight="1" spans="1:5">
-      <c r="A123" s="17"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
     </row>
     <row r="124" ht="12" customHeight="1" spans="1:5">
-      <c r="A124" s="17"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
     </row>
     <row r="125" ht="12" customHeight="1" spans="1:5">
-      <c r="A125" s="17"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
     </row>
     <row r="126" ht="12" customHeight="1" spans="1:5">
-      <c r="A126" s="17"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
     </row>
     <row r="127" ht="12" customHeight="1" spans="1:5">
-      <c r="A127" s="17"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
     </row>
     <row r="128" ht="12" customHeight="1" spans="1:5">
-      <c r="A128" s="17"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
+      <c r="A128" s="18"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
     </row>
     <row r="129" ht="12" customHeight="1" spans="1:5">
-      <c r="A129" s="17"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
     </row>
     <row r="130" ht="12" customHeight="1" spans="1:5">
-      <c r="A130" s="17"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
+      <c r="A130" s="18"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
     </row>
     <row r="131" ht="12" customHeight="1" spans="1:5">
-      <c r="A131" s="17"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
     </row>
     <row r="132" ht="12" customHeight="1" spans="1:5">
-      <c r="A132" s="19"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
     </row>
     <row r="133" ht="12" customHeight="1" spans="1:5">
-      <c r="A133" s="19"/>
-      <c r="B133" s="21"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
     </row>
     <row r="134" ht="12" customHeight="1" spans="1:5">
-      <c r="A134" s="19"/>
-      <c r="B134" s="21"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
     </row>
     <row r="135" ht="12" customHeight="1" spans="1:5">
-      <c r="A135" s="19"/>
-      <c r="B135" s="21"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
     </row>
     <row r="136" ht="12" customHeight="1" spans="1:5">
-      <c r="A136" s="19"/>
-      <c r="B136" s="21"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
     </row>
     <row r="137" ht="12" customHeight="1" spans="1:5">
-      <c r="A137" s="19"/>
-      <c r="B137" s="21"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="19"/>
-      <c r="B138" s="21"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="19"/>
-      <c r="B139" s="21"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="19"/>
-      <c r="B140" s="21"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="19"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="19"/>
-      <c r="B142" s="21"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="18"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="19"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="19"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="18"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="19"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="19"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="18"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="19"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="19"/>
-      <c r="B145" s="21"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="18"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="19"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="19"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="18"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="19"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="19"/>
-      <c r="B147" s="21"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="18"/>
+      <c r="A147" s="20"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="19"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="19"/>
-      <c r="B148" s="21"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="18"/>
+      <c r="A148" s="20"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="19"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="19"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="18"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="19"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="19"/>
-      <c r="B150" s="21"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="18"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="19"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="19"/>
-      <c r="B151" s="21"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="18"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="19"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="19"/>
-      <c r="B152" s="21"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="18"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="19"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="19"/>
-      <c r="B153" s="21"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="18"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="22"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="19"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="19"/>
-      <c r="B154" s="21"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="18"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="22"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="19"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="19"/>
-      <c r="B155" s="21"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="18"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="22"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="19"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="19"/>
-      <c r="B156" s="21"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="18"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="22"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="19"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="19"/>
-      <c r="B157" s="21"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="18"/>
+      <c r="A157" s="20"/>
+      <c r="B157" s="22"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="19"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="19"/>
-      <c r="B158" s="21"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="18"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="22"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="19"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="19"/>
-      <c r="B159" s="21"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="18"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="22"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="19"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="19"/>
-      <c r="B160" s="21"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="18"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="22"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="19"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="19"/>
-      <c r="B161" s="21"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="18"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="22"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="19"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="19"/>
-      <c r="B162" s="21"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="18"/>
+      <c r="A162" s="20"/>
+      <c r="B162" s="22"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="19"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="19"/>
-      <c r="B163" s="21"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="18"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="22"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="19"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="19"/>
-      <c r="B164" s="21"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="18"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="22"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="19"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="19"/>
-      <c r="B165" s="21"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="18"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="22"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="19"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="19"/>
-      <c r="B166" s="21"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="18"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="22"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="19"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="19"/>
-      <c r="B167" s="21"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="18"/>
+      <c r="A167" s="20"/>
+      <c r="B167" s="22"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="19"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="19"/>
-      <c r="B168" s="21"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="18"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="22"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="19"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="19"/>
-      <c r="B169" s="21"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="18"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="22"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="19"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="19"/>
-      <c r="B170" s="21"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="18"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="22"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="19"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="19"/>
-      <c r="B171" s="21"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="18"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="22"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="19"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="19"/>
-      <c r="B172" s="21"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="18"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="22"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="19"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="19"/>
-      <c r="B173" s="21"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="18"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="22"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="19"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="19"/>
-      <c r="B174" s="21"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="18"/>
+      <c r="A174" s="20"/>
+      <c r="B174" s="22"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="19"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="19"/>
-      <c r="B175" s="21"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="18"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="22"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="19"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="19"/>
-      <c r="B176" s="21"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="18"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="22"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="19"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="19"/>
-      <c r="B177" s="21"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="18"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="22"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="19"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="19"/>
-      <c r="B178" s="21"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="18"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="22"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="19"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="19"/>
-      <c r="B179" s="21"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="18"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="22"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="19"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="19"/>
-      <c r="B180" s="21"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="18"/>
+      <c r="A180" s="20"/>
+      <c r="B180" s="22"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="19"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="19"/>
-      <c r="B181" s="21"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="18"/>
+      <c r="A181" s="20"/>
+      <c r="B181" s="22"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="19"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="19"/>
-      <c r="B182" s="21"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="18"/>
+      <c r="A182" s="20"/>
+      <c r="B182" s="22"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="19"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="19"/>
-      <c r="B183" s="21"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="18"/>
+      <c r="A183" s="20"/>
+      <c r="B183" s="22"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="19"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="19"/>
-      <c r="B184" s="21"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="18"/>
+      <c r="A184" s="20"/>
+      <c r="B184" s="22"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="19"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="19"/>
-      <c r="B185" s="21"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="18"/>
+      <c r="A185" s="20"/>
+      <c r="B185" s="22"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="19"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="19"/>
-      <c r="B186" s="21"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="18"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="22"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="19"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="19"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="18"/>
+      <c r="A187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="19"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="19"/>
-      <c r="E188" s="18"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="19"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="19"/>
-      <c r="E189" s="18"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="19"/>
     </row>
     <row r="190" spans="4:5">
-      <c r="D190" s="19"/>
-      <c r="E190" s="18"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="19"/>
     </row>
     <row r="191" spans="4:5">
-      <c r="D191" s="19"/>
-      <c r="E191" s="18"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="19"/>
     </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="19"/>
-      <c r="E192" s="18"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="19"/>
     </row>
     <row r="193" spans="4:5">
-      <c r="D193" s="19"/>
-      <c r="E193" s="18"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="19"/>
     </row>
     <row r="194" spans="4:5">
-      <c r="D194" s="19"/>
-      <c r="E194" s="18"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="19"/>
     </row>
     <row r="195" spans="4:5">
-      <c r="D195" s="19"/>
-      <c r="E195" s="18"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="19"/>
     </row>
   </sheetData>
   <sortState ref="A3:B86">
@@ -3318,8 +3224,8 @@
   <sheetPr/>
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3367,7 +3273,7 @@
       <c r="D3" s="7">
         <v>51</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3387,8 +3293,8 @@
       </c>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="9"/>
       <c r="D5" s="7">
         <v>53</v>
@@ -3405,8 +3311,8 @@
         <v>92</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
       <c r="A7" s="7">
@@ -3416,8 +3322,8 @@
         <v>93</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
       <c r="A8" s="7">
@@ -3438,7 +3344,7 @@
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="9"/>
@@ -3490,7 +3396,7 @@
       <c r="D12" s="7">
         <v>60</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3502,12 +3408,12 @@
         <v>104</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="9"/>
       <c r="D14" s="7">
         <v>62</v>
@@ -3524,12 +3430,12 @@
         <v>106</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="9"/>
       <c r="D16" s="7">
         <v>64</v>
@@ -3576,8 +3482,8 @@
         <v>112</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
       <c r="A20" s="7">
@@ -3653,8 +3559,8 @@
       </c>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="7">
         <v>73</v>
@@ -3664,8 +3570,8 @@
       </c>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="7">
         <v>74</v>
@@ -3678,7 +3584,7 @@
       <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C27" s="9"/>
@@ -3708,7 +3614,7 @@
       <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C29" s="9"/>
@@ -3720,8 +3626,8 @@
       </c>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="9"/>
       <c r="D30" s="7">
         <v>78</v>
@@ -3734,7 +3640,7 @@
       <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C31" s="9"/>
@@ -3744,8 +3650,8 @@
       <c r="E31" s="14"/>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="9"/>
       <c r="D32" s="13">
         <v>80</v>
@@ -3768,8 +3674,8 @@
       </c>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="9"/>
       <c r="D34" s="7">
         <v>82</v>
@@ -3794,8 +3700,8 @@
       </c>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="9"/>
       <c r="D36" s="7">
         <v>84</v>
@@ -3805,8 +3711,8 @@
       </c>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="9"/>
       <c r="D37" s="7">
         <v>85</v>
@@ -3819,14 +3725,14 @@
       <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="7">
         <v>86</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="17" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3834,14 +3740,14 @@
       <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="7">
         <v>87</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="17" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3861,13 +3767,13 @@
       </c>
     </row>
     <row r="41" ht="14" customHeight="1" spans="1:5">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="9"/>
       <c r="D41" s="7">
         <v>89</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3875,14 +3781,14 @@
       <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="7">
         <v>90</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="17" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3890,14 +3796,14 @@
       <c r="A43" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="7">
         <v>91</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="17" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3912,7 +3818,7 @@
       <c r="D44" s="7">
         <v>92</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="17" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3920,14 +3826,14 @@
       <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="7">
         <v>93</v>
       </c>
-      <c r="E45" s="16"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" ht="14" customHeight="1" spans="1:5">
       <c r="A46" s="7">
@@ -3940,20 +3846,20 @@
       <c r="D46" s="7">
         <v>94</v>
       </c>
-      <c r="E46" s="16"/>
+      <c r="E46" s="17"/>
     </row>
     <row r="47" ht="14" customHeight="1" spans="1:5">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="9"/>
       <c r="D47" s="7">
         <v>95</v>
       </c>
-      <c r="E47" s="16"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" ht="14" customHeight="1" spans="1:5">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="9"/>
       <c r="D48" s="7">
         <v>96</v>
@@ -3961,8 +3867,8 @@
       <c r="E48" s="8"/>
     </row>
     <row r="49" ht="14" customHeight="1" spans="1:5">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="9"/>
       <c r="D49" s="7">
         <v>97</v>
@@ -3980,7 +3886,7 @@
       <c r="D50" s="7">
         <v>98</v>
       </c>
-      <c r="E50" s="16"/>
+      <c r="E50" s="17"/>
     </row>
     <row r="51" ht="14" customHeight="1" spans="1:5">
       <c r="A51" s="7">
@@ -3993,7 +3899,7 @@
       <c r="D51" s="7">
         <v>99</v>
       </c>
-      <c r="E51" s="16"/>
+      <c r="E51" s="17"/>
     </row>
     <row r="52" ht="14" customHeight="1" spans="1:5">
       <c r="A52" s="7"/>
@@ -4002,774 +3908,774 @@
       <c r="D52" s="7">
         <v>100</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="17"/>
     </row>
     <row r="53" ht="14" customHeight="1" spans="3:3">
-      <c r="C53" s="17"/>
+      <c r="C53" s="18"/>
     </row>
     <row r="54" ht="14" customHeight="1" spans="3:3">
-      <c r="C54" s="17"/>
+      <c r="C54" s="18"/>
     </row>
     <row r="55" ht="14" customHeight="1" spans="3:3">
-      <c r="C55" s="17"/>
+      <c r="C55" s="18"/>
     </row>
     <row r="56" ht="14" customHeight="1" spans="3:3">
-      <c r="C56" s="17"/>
+      <c r="C56" s="18"/>
     </row>
     <row r="57" ht="14" customHeight="1" spans="3:3">
-      <c r="C57" s="17"/>
+      <c r="C57" s="18"/>
     </row>
     <row r="58" ht="14" customHeight="1" spans="3:3">
-      <c r="C58" s="17"/>
+      <c r="C58" s="18"/>
     </row>
     <row r="59" ht="14" customHeight="1" spans="3:3">
-      <c r="C59" s="17"/>
+      <c r="C59" s="18"/>
     </row>
     <row r="60" ht="14" customHeight="1" spans="3:3">
-      <c r="C60" s="17"/>
+      <c r="C60" s="18"/>
     </row>
     <row r="61" ht="14" customHeight="1" spans="3:3">
-      <c r="C61" s="17"/>
+      <c r="C61" s="18"/>
     </row>
     <row r="62" ht="14" customHeight="1" spans="3:3">
-      <c r="C62" s="17"/>
+      <c r="C62" s="18"/>
     </row>
     <row r="63" ht="14" customHeight="1" spans="3:3">
-      <c r="C63" s="18"/>
+      <c r="C63" s="19"/>
     </row>
     <row r="64" ht="14" customHeight="1" spans="3:3">
-      <c r="C64" s="18"/>
+      <c r="C64" s="19"/>
     </row>
     <row r="65" ht="14" customHeight="1" spans="3:3">
-      <c r="C65" s="18"/>
+      <c r="C65" s="19"/>
     </row>
     <row r="66" ht="14" customHeight="1" spans="3:3">
-      <c r="C66" s="18"/>
+      <c r="C66" s="19"/>
     </row>
     <row r="67" ht="14" customHeight="1" spans="3:3">
-      <c r="C67" s="18"/>
+      <c r="C67" s="19"/>
     </row>
     <row r="68" ht="14" customHeight="1" spans="3:3">
-      <c r="C68" s="18"/>
+      <c r="C68" s="19"/>
     </row>
     <row r="69" ht="14" customHeight="1" spans="3:3">
-      <c r="C69" s="18"/>
+      <c r="C69" s="19"/>
     </row>
     <row r="70" ht="14" customHeight="1" spans="3:3">
-      <c r="C70" s="18"/>
+      <c r="C70" s="19"/>
     </row>
     <row r="71" ht="14" customHeight="1" spans="3:3">
-      <c r="C71" s="18"/>
+      <c r="C71" s="19"/>
     </row>
     <row r="72" ht="14" customHeight="1" spans="3:3">
-      <c r="C72" s="18"/>
+      <c r="C72" s="19"/>
     </row>
     <row r="73" ht="14" customHeight="1" spans="3:3">
-      <c r="C73" s="18"/>
+      <c r="C73" s="19"/>
     </row>
     <row r="74" ht="14" customHeight="1" spans="3:3">
-      <c r="C74" s="18"/>
+      <c r="C74" s="19"/>
     </row>
     <row r="75" ht="14" customHeight="1" spans="3:3">
-      <c r="C75" s="18"/>
+      <c r="C75" s="19"/>
     </row>
     <row r="76" ht="14" customHeight="1" spans="3:3">
-      <c r="C76" s="18"/>
+      <c r="C76" s="19"/>
     </row>
     <row r="77" ht="14" customHeight="1" spans="3:3">
-      <c r="C77" s="18"/>
+      <c r="C77" s="19"/>
     </row>
     <row r="78" ht="14" customHeight="1" spans="3:3">
-      <c r="C78" s="18"/>
+      <c r="C78" s="19"/>
     </row>
     <row r="79" ht="14" customHeight="1" spans="3:3">
-      <c r="C79" s="18"/>
+      <c r="C79" s="19"/>
     </row>
     <row r="80" ht="14" customHeight="1" spans="3:3">
-      <c r="C80" s="18"/>
+      <c r="C80" s="19"/>
     </row>
     <row r="81" ht="14" customHeight="1" spans="3:3">
-      <c r="C81" s="18"/>
+      <c r="C81" s="19"/>
     </row>
     <row r="82" ht="14" customHeight="1" spans="3:3">
-      <c r="C82" s="18"/>
+      <c r="C82" s="19"/>
     </row>
     <row r="83" ht="14" customHeight="1" spans="3:3">
-      <c r="C83" s="18"/>
+      <c r="C83" s="19"/>
     </row>
     <row r="84" ht="14" customHeight="1" spans="3:3">
-      <c r="C84" s="18"/>
+      <c r="C84" s="19"/>
     </row>
     <row r="85" ht="14" customHeight="1" spans="3:3">
-      <c r="C85" s="18"/>
+      <c r="C85" s="19"/>
     </row>
     <row r="86" ht="14" customHeight="1" spans="3:3">
-      <c r="C86" s="18"/>
+      <c r="C86" s="19"/>
     </row>
     <row r="87" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C87" s="18"/>
+      <c r="C87" s="19"/>
     </row>
     <row r="88" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C88" s="18"/>
+      <c r="C88" s="19"/>
     </row>
     <row r="89" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C89" s="18"/>
+      <c r="C89" s="19"/>
     </row>
     <row r="90" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="18"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="19"/>
     </row>
     <row r="91" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C91" s="18"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="18"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="19"/>
     </row>
     <row r="92" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C92" s="18"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="18"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="19"/>
     </row>
     <row r="93" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C93" s="18"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="18"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="19"/>
     </row>
     <row r="94" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="18"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="19"/>
     </row>
     <row r="95" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C95" s="18"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="18"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="19"/>
     </row>
     <row r="96" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C96" s="18"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="18"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="19"/>
     </row>
     <row r="97" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C97" s="18"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="19"/>
     </row>
     <row r="98" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C98" s="18"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="18"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="19"/>
     </row>
     <row r="99" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C99" s="18"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="18"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="19"/>
     </row>
     <row r="100" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C100" s="17"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="19"/>
     </row>
     <row r="101" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C101" s="17"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="19"/>
     </row>
     <row r="102" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C102" s="17"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="19"/>
     </row>
     <row r="103" ht="12" customHeight="1" spans="1:5">
-      <c r="A103" s="17"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="18"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="19"/>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:5">
-      <c r="A104" s="17"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="18"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="19"/>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:5">
-      <c r="A105" s="17"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:5">
-      <c r="A106" s="17"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:5">
-      <c r="A107" s="17"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:5">
-      <c r="A108" s="17"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
     </row>
     <row r="109" ht="12" customHeight="1" spans="1:5">
-      <c r="A109" s="17"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
     </row>
     <row r="110" ht="12" customHeight="1" spans="1:5">
-      <c r="A110" s="17"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:5">
-      <c r="A111" s="17"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
     </row>
     <row r="112" ht="12" customHeight="1" spans="1:5">
-      <c r="A112" s="17"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
     </row>
     <row r="113" ht="12" customHeight="1" spans="1:5">
-      <c r="A113" s="17"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
     </row>
     <row r="114" ht="12" customHeight="1" spans="1:5">
-      <c r="A114" s="17"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
     </row>
     <row r="115" ht="12" customHeight="1" spans="1:5">
-      <c r="A115" s="17"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
     </row>
     <row r="116" ht="12" customHeight="1" spans="1:5">
-      <c r="A116" s="17"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
     </row>
     <row r="117" ht="12" customHeight="1" spans="1:5">
-      <c r="A117" s="17"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
     </row>
     <row r="118" ht="12" customHeight="1" spans="1:5">
-      <c r="A118" s="17"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
     </row>
     <row r="119" ht="12" customHeight="1" spans="1:5">
-      <c r="A119" s="17"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
     </row>
     <row r="120" ht="12" customHeight="1" spans="1:5">
-      <c r="A120" s="17"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
     </row>
     <row r="121" ht="12" customHeight="1" spans="1:5">
-      <c r="A121" s="17"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
     </row>
     <row r="122" ht="12" customHeight="1" spans="1:5">
-      <c r="A122" s="17"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
     </row>
     <row r="123" ht="12" customHeight="1" spans="1:5">
-      <c r="A123" s="17"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
     </row>
     <row r="124" ht="12" customHeight="1" spans="1:5">
-      <c r="A124" s="17"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
     </row>
     <row r="125" ht="12" customHeight="1" spans="1:5">
-      <c r="A125" s="17"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
     </row>
     <row r="126" ht="12" customHeight="1" spans="1:5">
-      <c r="A126" s="17"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
     </row>
     <row r="127" ht="12" customHeight="1" spans="1:5">
-      <c r="A127" s="17"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
     </row>
     <row r="128" ht="12" customHeight="1" spans="1:5">
-      <c r="A128" s="17"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
+      <c r="A128" s="18"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
     </row>
     <row r="129" ht="12" customHeight="1" spans="1:5">
-      <c r="A129" s="17"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
     </row>
     <row r="130" ht="12" customHeight="1" spans="1:5">
-      <c r="A130" s="17"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
+      <c r="A130" s="18"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
     </row>
     <row r="131" ht="12" customHeight="1" spans="1:5">
-      <c r="A131" s="17"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
     </row>
     <row r="132" ht="12" customHeight="1" spans="1:5">
-      <c r="A132" s="19"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
     </row>
     <row r="133" ht="12" customHeight="1" spans="1:5">
-      <c r="A133" s="19"/>
-      <c r="B133" s="21"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
     </row>
     <row r="134" ht="12" customHeight="1" spans="1:5">
-      <c r="A134" s="19"/>
-      <c r="B134" s="21"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
     </row>
     <row r="135" ht="12" customHeight="1" spans="1:5">
-      <c r="A135" s="19"/>
-      <c r="B135" s="21"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
     </row>
     <row r="136" ht="12" customHeight="1" spans="1:5">
-      <c r="A136" s="19"/>
-      <c r="B136" s="21"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
     </row>
     <row r="137" ht="12" customHeight="1" spans="1:5">
-      <c r="A137" s="19"/>
-      <c r="B137" s="21"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="19"/>
-      <c r="B138" s="21"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="19"/>
-      <c r="B139" s="21"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="19"/>
-      <c r="B140" s="21"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="19"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="19"/>
-      <c r="B142" s="21"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="18"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="19"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="19"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="18"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="19"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="19"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="18"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="19"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="19"/>
-      <c r="B145" s="21"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="18"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="19"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="19"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="18"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="19"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="19"/>
-      <c r="B147" s="21"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="18"/>
+      <c r="A147" s="20"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="19"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="19"/>
-      <c r="B148" s="21"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="18"/>
+      <c r="A148" s="20"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="19"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="19"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="18"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="19"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="19"/>
-      <c r="B150" s="21"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="18"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="19"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="19"/>
-      <c r="B151" s="21"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="18"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="19"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="19"/>
-      <c r="B152" s="21"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="18"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="19"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="19"/>
-      <c r="B153" s="21"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="18"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="22"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="19"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="19"/>
-      <c r="B154" s="21"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="18"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="22"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="19"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="19"/>
-      <c r="B155" s="21"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="18"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="22"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="19"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="19"/>
-      <c r="B156" s="21"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="18"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="22"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="19"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="19"/>
-      <c r="B157" s="21"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="18"/>
+      <c r="A157" s="20"/>
+      <c r="B157" s="22"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="19"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="19"/>
-      <c r="B158" s="21"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="18"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="22"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="19"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="19"/>
-      <c r="B159" s="21"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="18"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="22"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="19"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="19"/>
-      <c r="B160" s="21"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="18"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="22"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="19"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="19"/>
-      <c r="B161" s="21"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="18"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="22"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="19"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="19"/>
-      <c r="B162" s="21"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="18"/>
+      <c r="A162" s="20"/>
+      <c r="B162" s="22"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="19"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="19"/>
-      <c r="B163" s="21"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="18"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="22"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="19"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="19"/>
-      <c r="B164" s="21"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="18"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="22"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="19"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="19"/>
-      <c r="B165" s="21"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="18"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="22"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="19"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="19"/>
-      <c r="B166" s="21"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="18"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="22"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="19"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="19"/>
-      <c r="B167" s="21"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="18"/>
+      <c r="A167" s="20"/>
+      <c r="B167" s="22"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="19"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="19"/>
-      <c r="B168" s="21"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="18"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="22"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="19"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="19"/>
-      <c r="B169" s="21"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="18"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="22"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="19"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="19"/>
-      <c r="B170" s="21"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="18"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="22"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="19"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="19"/>
-      <c r="B171" s="21"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="18"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="22"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="19"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="19"/>
-      <c r="B172" s="21"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="18"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="22"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="19"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="19"/>
-      <c r="B173" s="21"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="18"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="22"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="19"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="19"/>
-      <c r="B174" s="21"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="18"/>
+      <c r="A174" s="20"/>
+      <c r="B174" s="22"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="19"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="19"/>
-      <c r="B175" s="21"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="18"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="22"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="19"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="19"/>
-      <c r="B176" s="21"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="18"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="22"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="19"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="19"/>
-      <c r="B177" s="21"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="18"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="22"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="19"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="19"/>
-      <c r="B178" s="21"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="18"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="22"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="19"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="19"/>
-      <c r="B179" s="21"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="18"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="22"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="19"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="19"/>
-      <c r="B180" s="21"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="18"/>
+      <c r="A180" s="20"/>
+      <c r="B180" s="22"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="19"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="19"/>
-      <c r="B181" s="21"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="18"/>
+      <c r="A181" s="20"/>
+      <c r="B181" s="22"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="19"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="19"/>
-      <c r="B182" s="21"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="18"/>
+      <c r="A182" s="20"/>
+      <c r="B182" s="22"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="19"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="19"/>
-      <c r="B183" s="21"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="18"/>
+      <c r="A183" s="20"/>
+      <c r="B183" s="22"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="19"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="19"/>
-      <c r="B184" s="21"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="18"/>
+      <c r="A184" s="20"/>
+      <c r="B184" s="22"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="19"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="19"/>
-      <c r="B185" s="21"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="18"/>
+      <c r="A185" s="20"/>
+      <c r="B185" s="22"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="19"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="19"/>
-      <c r="B186" s="21"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="18"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="22"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="19"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="19"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="18"/>
+      <c r="A187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="19"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="19"/>
-      <c r="E188" s="18"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="19"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="19"/>
-      <c r="E189" s="18"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="19"/>
     </row>
     <row r="190" spans="4:5">
-      <c r="D190" s="19"/>
-      <c r="E190" s="18"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="19"/>
     </row>
     <row r="191" spans="4:5">
-      <c r="D191" s="19"/>
-      <c r="E191" s="18"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="19"/>
     </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="19"/>
-      <c r="E192" s="18"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="19"/>
     </row>
     <row r="193" spans="4:5">
-      <c r="D193" s="19"/>
-      <c r="E193" s="18"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="19"/>
     </row>
     <row r="194" spans="4:5">
-      <c r="D194" s="19"/>
-      <c r="E194" s="18"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="19"/>
     </row>
     <row r="195" spans="4:5">
-      <c r="D195" s="19"/>
-      <c r="E195" s="18"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="19"/>
     </row>
   </sheetData>
   <sortState ref="A3:B83">

--- a/Indice .xlsx
+++ b/Indice .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="8475" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="8625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ORDEM ALFABETICA" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
   <si>
     <t>Índice</t>
   </si>
@@ -281,7 +281,7 @@
     <t>Ceu e terra - TENOR</t>
   </si>
   <si>
-    <t>Eu vou construir - CONTRALTO (SUBIR 1 TOM E MEIO)</t>
+    <t xml:space="preserve">Eu vou construir - CONTRALTO </t>
   </si>
   <si>
     <t xml:space="preserve">Aqui eu vim para dizer - TENOR  </t>
@@ -290,48 +290,31 @@
     <t>Há um lugar - SOPRANO</t>
   </si>
   <si>
+    <t>Unico senhor - CONTRALTO (SUBIR 1 TOM)</t>
+  </si>
+  <si>
     <t>Ambiente de glória -  TENOR E SOPRANO</t>
   </si>
   <si>
     <t>Sonda-me ho Deus - CONTRALTO</t>
   </si>
   <si>
+    <t>Teu reino me chamou de seu - SOPRANO / TENOR</t>
+  </si>
+  <si>
     <t>Em teus braços - SOPRANO</t>
   </si>
   <si>
+    <t>Mil graus - TODOS</t>
+  </si>
+  <si>
     <t>Digno - CONTRALTO</t>
   </si>
   <si>
     <t>Não há um nome igual - TENOR</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Invocamos - TENOR (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>REPASSAR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>Invocamos - TENOR</t>
   </si>
   <si>
     <t>Grande é o senhor - TENOR</t>
@@ -358,12 +341,24 @@
     <t>Primeira essência - SOPRANO</t>
   </si>
   <si>
+    <t xml:space="preserve">Lugar secreto -  CONTRALTO </t>
+  </si>
+  <si>
+    <t>Meu salvador - CONTRALTO</t>
+  </si>
+  <si>
     <t>Jesus é o caminho - CONTRALTO</t>
   </si>
   <si>
     <t>Quanto mais eu te buscar - TENOR</t>
   </si>
   <si>
+    <t>Ousado amor - TENOR</t>
+  </si>
+  <si>
+    <t>O nosso General é cristo - CONTRALTO</t>
+  </si>
+  <si>
     <t>Oh quão lindo esse nome é - CONTRALTO</t>
   </si>
   <si>
@@ -385,156 +380,103 @@
     <t>Filho do Deus vivo - CONTRALTO</t>
   </si>
   <si>
-    <t>Ousado amor - TENOR</t>
+    <t>Aquieta minh'alma - SOPRANO</t>
   </si>
   <si>
     <t>Quando o vento soprar - CONTRALTO</t>
   </si>
   <si>
-    <t xml:space="preserve">Lugar secreto -  CONTRALTO </t>
-  </si>
-  <si>
     <t>Em espirito, em verdade - TENOR</t>
   </si>
   <si>
-    <t>Mil graus - TODOS</t>
-  </si>
-  <si>
     <t>Cria em mim - SOPRANO</t>
   </si>
   <si>
     <t>Beija-me com tua glória - TENOR</t>
   </si>
   <si>
-    <t>Teu reino me chamou de seu - SOPRANO / TENOR</t>
+    <t>Volto os meus olhos - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Santidade - TENOR</t>
+  </si>
+  <si>
+    <t>Me faz te conhecer - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Aliança de sangue - TENOR E CONTRALTO</t>
+  </si>
+  <si>
+    <t>Essência da adoração - TENOR E SOPRANO</t>
+  </si>
+  <si>
+    <t>Santo - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Vou deixar na cruz - TENOR</t>
+  </si>
+  <si>
+    <t>Sinto fluir - TENOR E SOPRANO</t>
+  </si>
+  <si>
+    <t>Ressuscitou - TODOS</t>
+  </si>
+  <si>
+    <t>Melhor lugar - TENOR</t>
+  </si>
+  <si>
+    <t>Pedra preciosa - TENOR</t>
+  </si>
+  <si>
+    <t>Lembra Senhor - TENOR</t>
+  </si>
+  <si>
+    <t>Queima de novo - TENOR</t>
+  </si>
+  <si>
+    <t>Teu amor não falha - SOPRANO</t>
+  </si>
+  <si>
+    <t>Pra sempre - SOPRANO</t>
+  </si>
+  <si>
+    <t>Tua graça me basta - TENOR</t>
+  </si>
+  <si>
+    <t>Som do ceu - TENOR</t>
+  </si>
+  <si>
+    <t>Yeshua - SOPRANO / TENOR</t>
+  </si>
+  <si>
+    <t>Meu alvo - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Jesus em tua presença - TENOR</t>
+  </si>
+  <si>
+    <t>Seu sangue - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Lugar seguro - SOPRANO</t>
+  </si>
+  <si>
+    <t>Só tu es santo - TENOR</t>
+  </si>
+  <si>
+    <t>Vim para adorar-te - TENOR</t>
+  </si>
+  <si>
+    <t>Eu me rendo - CONTRALTO</t>
+  </si>
+  <si>
+    <t>Senhor te quero - TENOR</t>
+  </si>
+  <si>
+    <t>No caminho do milagre - TENOR</t>
   </si>
   <si>
     <t>Oceanos - SOPRANO</t>
-  </si>
-  <si>
-    <t>Eu me rendo - CONTRALTO</t>
-  </si>
-  <si>
-    <t>Me faz te conhecer - CONTRALTO</t>
-  </si>
-  <si>
-    <t>Vim para adorar-te - TENOR</t>
-  </si>
-  <si>
-    <t>Aliança de sangue - TENOR E CONTRALTO</t>
-  </si>
-  <si>
-    <t>Só tu es santo - TENOR</t>
-  </si>
-  <si>
-    <t>Essência da adoração - TENOR E SOPRANO</t>
-  </si>
-  <si>
-    <t>Som do ceu - TENOR</t>
-  </si>
-  <si>
-    <t>Queima de novo - (TENOR)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Vou deixar na cruz - TENOR (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>repassar GUITARRA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Ressuscitou - TODOS</t>
-  </si>
-  <si>
-    <t>Lembra Senhor - TENOR</t>
-  </si>
-  <si>
-    <t>Melhor lugar - TENOR</t>
-  </si>
-  <si>
-    <t>Pedra preciosa - TENOR</t>
-  </si>
-  <si>
-    <t>Sinto fluir - TENOR E SOPRANO</t>
-  </si>
-  <si>
-    <t>Aquieta minh'alma - SOPRANO</t>
-  </si>
-  <si>
-    <t>Santo - CONTRALTO (SUBIR 1 TOM)</t>
-  </si>
-  <si>
-    <t>Teu amor não falha - SOPRANO</t>
-  </si>
-  <si>
-    <t>Santidade - TENOR</t>
-  </si>
-  <si>
-    <t>Pra sempre - SOPRANO</t>
-  </si>
-  <si>
-    <t>Volto os meus olhos - CONTRALTO</t>
-  </si>
-  <si>
-    <t>Tua graça me basta - TENOR</t>
-  </si>
-  <si>
-    <t>O nosso General é cristo - CONTRALTO</t>
-  </si>
-  <si>
-    <t>Eu vou me derreter - CONTRALTO (abaixar meio tom)</t>
-  </si>
-  <si>
-    <t>Yeshua - SOPRANO / TENOR</t>
-  </si>
-  <si>
-    <t>Meu salvador - CONTRALTO (ok)</t>
-  </si>
-  <si>
-    <t>Meu alvo - CONTRALTO</t>
-  </si>
-  <si>
-    <t>Tempo de festa - SOPRANO</t>
-  </si>
-  <si>
-    <t>Jesus em tua presença - TENOR</t>
-  </si>
-  <si>
-    <t>Unico senhor - CONTRALTO (SUBIR 1 TOM)</t>
-  </si>
-  <si>
-    <t>Seu sangue - CONTRALTO</t>
-  </si>
-  <si>
-    <t>Lugar seguro - SOPRANO</t>
-  </si>
-  <si>
-    <t>Senhor te quero - TENOR</t>
-  </si>
-  <si>
-    <t>No caminho do milagre - TENOR</t>
   </si>
 </sst>
 </file>
@@ -542,12 +484,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,7 +560,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,6 +570,52 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,31 +634,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,62 +657,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,19 +674,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Georgia"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,31 +718,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,91 +784,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +832,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,55 +862,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,24 +946,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1073,16 +973,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,17 +996,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,155 +1034,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1302,29 +1220,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1732,10 +1638,10 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="6"/>
@@ -1752,1459 +1658,1459 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="24">
+      <c r="A3" s="20">
         <v>46</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="24">
+      <c r="C3" s="22"/>
+      <c r="D3" s="20">
         <v>64</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="24">
+      <c r="A4" s="20">
         <v>39</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="24">
+      <c r="C4" s="22"/>
+      <c r="D4" s="20">
         <v>68</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="24">
+      <c r="A5" s="20">
         <v>26</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="24">
+      <c r="C5" s="22"/>
+      <c r="D5" s="20">
         <v>33</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="24">
+      <c r="A6" s="20">
         <v>53</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="24">
+      <c r="C6" s="22"/>
+      <c r="D6" s="20">
         <v>32</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="24">
+      <c r="A7" s="20">
         <v>60</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="24">
+      <c r="C7" s="22"/>
+      <c r="D7" s="20">
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="24">
+      <c r="A8" s="20">
         <v>12</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="24">
+      <c r="C8" s="22"/>
+      <c r="D8" s="20">
         <v>24</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="24">
+      <c r="A9" s="20">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="24">
+      <c r="C9" s="22"/>
+      <c r="D9" s="20">
         <v>37</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="24">
+      <c r="A10" s="20">
         <v>84</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="24">
+      <c r="C10" s="22"/>
+      <c r="D10" s="20">
         <v>11</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="24">
+      <c r="A11" s="20">
         <v>22</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="24">
+      <c r="C11" s="22"/>
+      <c r="D11" s="20">
         <v>19</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="24">
+      <c r="A12" s="20">
         <v>54</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="24">
+      <c r="C12" s="22"/>
+      <c r="D12" s="20">
         <v>13</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="24">
+      <c r="A13" s="20">
         <v>65</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="24">
+      <c r="C13" s="22"/>
+      <c r="D13" s="20">
         <v>34</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="24">
+      <c r="A14" s="20">
         <v>1</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="24">
+      <c r="C14" s="22"/>
+      <c r="D14" s="20">
         <v>47</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="24">
+      <c r="A15" s="20">
         <v>28</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="24">
+      <c r="C15" s="22"/>
+      <c r="D15" s="20">
         <v>78</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="24">
+      <c r="A16" s="20">
         <v>35</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="24">
+      <c r="C16" s="22"/>
+      <c r="D16" s="20">
         <v>31</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="24">
+      <c r="A17" s="20">
         <v>21</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="24">
+      <c r="C17" s="22"/>
+      <c r="D17" s="20">
         <v>48</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="24">
+      <c r="A18" s="20">
         <v>50</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="24">
+      <c r="C18" s="22"/>
+      <c r="D18" s="20">
         <v>79</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="24">
+      <c r="A19" s="20">
         <v>6</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="24">
+      <c r="C19" s="22"/>
+      <c r="D19" s="20">
         <v>43</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="24">
+      <c r="A20" s="20">
         <v>23</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="24">
+      <c r="C20" s="22"/>
+      <c r="D20" s="20">
         <v>83</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="24">
+      <c r="A21" s="20">
         <v>15</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="24">
+      <c r="C21" s="22"/>
+      <c r="D21" s="20">
         <v>76</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="24">
+      <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="24">
+      <c r="C22" s="22"/>
+      <c r="D22" s="20">
         <v>77</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="24">
+      <c r="A23" s="20">
         <v>5</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="24">
+      <c r="C23" s="22"/>
+      <c r="D23" s="20">
         <v>4</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A24" s="24">
+      <c r="A24" s="20">
         <v>45</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="24">
+      <c r="C24" s="22"/>
+      <c r="D24" s="20">
         <v>3</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="24">
+      <c r="A25" s="20">
         <v>63</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="24">
+      <c r="C25" s="22"/>
+      <c r="D25" s="20">
         <v>67</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="24">
+      <c r="A26" s="20">
         <v>27</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="24">
+      <c r="C26" s="22"/>
+      <c r="D26" s="20">
         <v>36</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A27" s="24">
+      <c r="A27" s="20">
         <v>74</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="24">
+      <c r="C27" s="22"/>
+      <c r="D27" s="20">
         <v>58</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A28" s="24">
+      <c r="A28" s="20">
         <v>14</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="24">
+      <c r="C28" s="22"/>
+      <c r="D28" s="20">
         <v>72</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A29" s="24">
+      <c r="A29" s="20">
         <v>51</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="24">
+      <c r="C29" s="22"/>
+      <c r="D29" s="20">
         <v>80</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="24">
+      <c r="A30" s="20">
         <v>18</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="24">
+      <c r="C30" s="22"/>
+      <c r="D30" s="20">
         <v>38</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A31" s="24">
+      <c r="A31" s="20">
         <v>55</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="24">
+      <c r="C31" s="22"/>
+      <c r="D31" s="20">
         <v>10</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A32" s="24">
+      <c r="A32" s="20">
         <v>57</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="24">
+      <c r="C32" s="22"/>
+      <c r="D32" s="20">
         <v>61</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A33" s="24">
+      <c r="A33" s="20">
         <v>52</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="24">
+      <c r="C33" s="22"/>
+      <c r="D33" s="20">
         <v>71</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="24">
+      <c r="A34" s="20">
         <v>16</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="24">
+      <c r="C34" s="22"/>
+      <c r="D34" s="20">
         <v>75</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A35" s="24">
+      <c r="A35" s="20">
         <v>17</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="24">
+      <c r="C35" s="22"/>
+      <c r="D35" s="20">
         <v>29</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="24">
+      <c r="A36" s="20">
         <v>7</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="24">
+      <c r="C36" s="22"/>
+      <c r="D36" s="20">
         <v>40</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="24">
+      <c r="A37" s="20">
         <v>62</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A38" s="24">
+      <c r="A38" s="20">
         <v>42</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A39" s="24">
+      <c r="A39" s="20">
         <v>81</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A40" s="24">
+      <c r="A40" s="20">
         <v>69</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A41" s="24">
+      <c r="A41" s="20">
         <v>44</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A42" s="24">
+      <c r="A42" s="20">
         <v>25</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A43" s="24">
+      <c r="A43" s="20">
         <v>8</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A44" s="24">
+      <c r="A44" s="20">
         <v>82</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A45" s="24">
+      <c r="A45" s="20">
         <v>41</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A46" s="24">
+      <c r="A46" s="20">
         <v>70</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A47" s="24">
+      <c r="A47" s="20">
         <v>66</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A48" s="24">
+      <c r="A48" s="20">
         <v>59</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A49" s="24">
+      <c r="A49" s="20">
         <v>30</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A50" s="24">
+      <c r="A50" s="20">
         <v>56</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
     </row>
     <row r="51" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A51" s="24">
+      <c r="A51" s="20">
         <v>49</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A52" s="24">
+      <c r="A52" s="20">
         <v>73</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C53" s="18"/>
+      <c r="C53" s="14"/>
       <c r="D53"/>
       <c r="E53"/>
     </row>
     <row r="54" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C54" s="18"/>
+      <c r="C54" s="14"/>
     </row>
     <row r="55" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C55" s="18"/>
+      <c r="C55" s="14"/>
     </row>
     <row r="56" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C56" s="18"/>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C57" s="18"/>
+      <c r="C57" s="14"/>
     </row>
     <row r="58" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C58" s="18"/>
+      <c r="C58" s="14"/>
     </row>
     <row r="59" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C59" s="18"/>
+      <c r="C59" s="14"/>
     </row>
     <row r="60" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C60" s="18"/>
+      <c r="C60" s="14"/>
     </row>
     <row r="61" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C61" s="18"/>
+      <c r="C61" s="14"/>
     </row>
     <row r="62" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C62" s="18"/>
+      <c r="C62" s="14"/>
     </row>
     <row r="63" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C63" s="19"/>
+      <c r="C63" s="15"/>
     </row>
     <row r="64" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C64" s="19"/>
+      <c r="C64" s="15"/>
     </row>
     <row r="65" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C65" s="19"/>
+      <c r="C65" s="15"/>
     </row>
     <row r="66" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C66" s="19"/>
+      <c r="C66" s="15"/>
     </row>
     <row r="67" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C67" s="19"/>
+      <c r="C67" s="15"/>
     </row>
     <row r="68" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C68" s="19"/>
+      <c r="C68" s="15"/>
     </row>
     <row r="69" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C69" s="19"/>
+      <c r="C69" s="15"/>
     </row>
     <row r="70" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C70" s="19"/>
+      <c r="C70" s="15"/>
     </row>
     <row r="71" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C71" s="19"/>
+      <c r="C71" s="15"/>
     </row>
     <row r="72" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C72" s="19"/>
+      <c r="C72" s="15"/>
     </row>
     <row r="73" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C73" s="19"/>
+      <c r="C73" s="15"/>
     </row>
     <row r="74" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C74" s="19"/>
+      <c r="C74" s="15"/>
     </row>
     <row r="75" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C75" s="19"/>
+      <c r="C75" s="15"/>
     </row>
     <row r="76" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C76" s="19"/>
+      <c r="C76" s="15"/>
     </row>
     <row r="77" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C77" s="19"/>
+      <c r="C77" s="15"/>
     </row>
     <row r="78" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C78" s="19"/>
+      <c r="C78" s="15"/>
     </row>
     <row r="79" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C79" s="19"/>
+      <c r="C79" s="15"/>
     </row>
     <row r="80" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C80" s="19"/>
+      <c r="C80" s="15"/>
     </row>
     <row r="81" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C81" s="19"/>
+      <c r="C81" s="15"/>
     </row>
     <row r="82" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C82" s="19"/>
+      <c r="C82" s="15"/>
     </row>
     <row r="83" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C83" s="19"/>
+      <c r="C83" s="15"/>
     </row>
     <row r="84" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C84" s="19"/>
+      <c r="C84" s="15"/>
     </row>
     <row r="85" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C85" s="19"/>
+      <c r="C85" s="15"/>
     </row>
     <row r="86" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C86" s="19"/>
+      <c r="C86" s="15"/>
     </row>
     <row r="87" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C87" s="19"/>
+      <c r="C87" s="15"/>
     </row>
     <row r="88" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C88" s="19"/>
+      <c r="C88" s="15"/>
     </row>
     <row r="89" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C89" s="19"/>
+      <c r="C89" s="15"/>
     </row>
     <row r="90" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="15"/>
     </row>
     <row r="91" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="19"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="15"/>
     </row>
     <row r="92" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C92" s="19"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="19"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="15"/>
     </row>
     <row r="93" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C93" s="19"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="19"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="15"/>
     </row>
     <row r="94" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C94" s="19"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="19"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="15"/>
     </row>
     <row r="95" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C95" s="19"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="19"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="15"/>
     </row>
     <row r="96" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C96" s="19"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="19"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="15"/>
     </row>
     <row r="97" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C97" s="19"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="19"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="15"/>
     </row>
     <row r="98" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C98" s="19"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="19"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="15"/>
     </row>
     <row r="99" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C99" s="19"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="19"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="15"/>
     </row>
     <row r="100" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C100" s="18"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="19"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="15"/>
     </row>
     <row r="101" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C101" s="18"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="19"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="15"/>
     </row>
     <row r="102" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C102" s="18"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="19"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="15"/>
     </row>
     <row r="103" ht="12" customHeight="1" spans="1:5">
-      <c r="A103" s="18"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="19"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="15"/>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:5">
-      <c r="A104" s="18"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="19"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="15"/>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:5">
-      <c r="A105" s="18"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:5">
-      <c r="A106" s="18"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:5">
-      <c r="A107" s="18"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:5">
-      <c r="A108" s="18"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
     </row>
     <row r="109" ht="12" customHeight="1" spans="1:5">
-      <c r="A109" s="18"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
     </row>
     <row r="110" ht="12" customHeight="1" spans="1:5">
-      <c r="A110" s="18"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:5">
-      <c r="A111" s="18"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
     </row>
     <row r="112" ht="12" customHeight="1" spans="1:5">
-      <c r="A112" s="18"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
     </row>
     <row r="113" ht="12" customHeight="1" spans="1:5">
-      <c r="A113" s="18"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
     </row>
     <row r="114" ht="12" customHeight="1" spans="1:5">
-      <c r="A114" s="18"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
     </row>
     <row r="115" ht="12" customHeight="1" spans="1:5">
-      <c r="A115" s="18"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
+      <c r="A115" s="14"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
     </row>
     <row r="116" ht="12" customHeight="1" spans="1:5">
-      <c r="A116" s="18"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="21"/>
+      <c r="A116" s="14"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
     </row>
     <row r="117" ht="12" customHeight="1" spans="1:5">
-      <c r="A117" s="18"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
+      <c r="A117" s="14"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
     </row>
     <row r="118" ht="12" customHeight="1" spans="1:5">
-      <c r="A118" s="18"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
     </row>
     <row r="119" ht="12" customHeight="1" spans="1:5">
-      <c r="A119" s="18"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
+      <c r="A119" s="14"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
     </row>
     <row r="120" ht="12" customHeight="1" spans="1:5">
-      <c r="A120" s="18"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
     </row>
     <row r="121" ht="12" customHeight="1" spans="1:5">
-      <c r="A121" s="18"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
+      <c r="A121" s="14"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
     </row>
     <row r="122" ht="12" customHeight="1" spans="1:5">
-      <c r="A122" s="18"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
+      <c r="A122" s="14"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
     </row>
     <row r="123" ht="12" customHeight="1" spans="1:5">
-      <c r="A123" s="18"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
     </row>
     <row r="124" ht="12" customHeight="1" spans="1:5">
-      <c r="A124" s="18"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
     </row>
     <row r="125" ht="12" customHeight="1" spans="1:5">
-      <c r="A125" s="18"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
+      <c r="A125" s="14"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
     </row>
     <row r="126" ht="12" customHeight="1" spans="1:5">
-      <c r="A126" s="18"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
     </row>
     <row r="127" ht="12" customHeight="1" spans="1:5">
-      <c r="A127" s="18"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
+      <c r="A127" s="14"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
     </row>
     <row r="128" ht="12" customHeight="1" spans="1:5">
-      <c r="A128" s="18"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
     </row>
     <row r="129" ht="12" customHeight="1" spans="1:5">
-      <c r="A129" s="18"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
+      <c r="A129" s="14"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
     </row>
     <row r="130" ht="12" customHeight="1" spans="1:5">
-      <c r="A130" s="18"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
     </row>
     <row r="131" ht="12" customHeight="1" spans="1:5">
-      <c r="A131" s="18"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
+      <c r="A131" s="14"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
     </row>
     <row r="132" ht="12" customHeight="1" spans="1:5">
-      <c r="A132" s="20"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
     </row>
     <row r="133" ht="12" customHeight="1" spans="1:5">
-      <c r="A133" s="20"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
     </row>
     <row r="134" ht="12" customHeight="1" spans="1:5">
-      <c r="A134" s="20"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
     </row>
     <row r="135" ht="12" customHeight="1" spans="1:5">
-      <c r="A135" s="20"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="21"/>
-      <c r="E135" s="21"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
     </row>
     <row r="136" ht="12" customHeight="1" spans="1:5">
-      <c r="A136" s="20"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
+      <c r="A136" s="16"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
     </row>
     <row r="137" ht="12" customHeight="1" spans="1:5">
-      <c r="A137" s="20"/>
-      <c r="B137" s="22"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="20"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="20"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="20"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="21"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="20"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="20"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="19"/>
+      <c r="A142" s="16"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="15"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="20"/>
-      <c r="B143" s="22"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="19"/>
+      <c r="A143" s="16"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="15"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="20"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="19"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="15"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="20"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="19"/>
+      <c r="A145" s="16"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="15"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="20"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="19"/>
+      <c r="A146" s="16"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="15"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="20"/>
-      <c r="B147" s="22"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="19"/>
+      <c r="A147" s="16"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="15"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="20"/>
-      <c r="B148" s="22"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="19"/>
+      <c r="A148" s="16"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="15"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="20"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="19"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="15"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="20"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="19"/>
+      <c r="A150" s="16"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="15"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="20"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="20"/>
-      <c r="E151" s="19"/>
+      <c r="A151" s="16"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="15"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="20"/>
-      <c r="B152" s="22"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="19"/>
+      <c r="A152" s="16"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="15"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="20"/>
-      <c r="B153" s="22"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="19"/>
+      <c r="A153" s="16"/>
+      <c r="B153" s="18"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="15"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="20"/>
-      <c r="B154" s="22"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="19"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="18"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="15"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="20"/>
-      <c r="B155" s="22"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="19"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="18"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="15"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="20"/>
-      <c r="B156" s="22"/>
-      <c r="D156" s="20"/>
-      <c r="E156" s="19"/>
+      <c r="A156" s="16"/>
+      <c r="B156" s="18"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="15"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="20"/>
-      <c r="B157" s="22"/>
-      <c r="D157" s="20"/>
-      <c r="E157" s="19"/>
+      <c r="A157" s="16"/>
+      <c r="B157" s="18"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="15"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="20"/>
-      <c r="B158" s="22"/>
-      <c r="D158" s="20"/>
-      <c r="E158" s="19"/>
+      <c r="A158" s="16"/>
+      <c r="B158" s="18"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="15"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="20"/>
-      <c r="B159" s="22"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="19"/>
+      <c r="A159" s="16"/>
+      <c r="B159" s="18"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="15"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="20"/>
-      <c r="B160" s="22"/>
-      <c r="D160" s="20"/>
-      <c r="E160" s="19"/>
+      <c r="A160" s="16"/>
+      <c r="B160" s="18"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="15"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="20"/>
-      <c r="B161" s="22"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="19"/>
+      <c r="A161" s="16"/>
+      <c r="B161" s="18"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="15"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="20"/>
-      <c r="B162" s="22"/>
-      <c r="D162" s="20"/>
-      <c r="E162" s="19"/>
+      <c r="A162" s="16"/>
+      <c r="B162" s="18"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="15"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="20"/>
-      <c r="B163" s="22"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="19"/>
+      <c r="A163" s="16"/>
+      <c r="B163" s="18"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="15"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="20"/>
-      <c r="B164" s="22"/>
-      <c r="D164" s="20"/>
-      <c r="E164" s="19"/>
+      <c r="A164" s="16"/>
+      <c r="B164" s="18"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="15"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="20"/>
-      <c r="B165" s="22"/>
-      <c r="D165" s="20"/>
-      <c r="E165" s="19"/>
+      <c r="A165" s="16"/>
+      <c r="B165" s="18"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="15"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="20"/>
-      <c r="B166" s="22"/>
-      <c r="D166" s="20"/>
-      <c r="E166" s="19"/>
+      <c r="A166" s="16"/>
+      <c r="B166" s="18"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="15"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="20"/>
-      <c r="B167" s="22"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="19"/>
+      <c r="A167" s="16"/>
+      <c r="B167" s="18"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="15"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="20"/>
-      <c r="B168" s="22"/>
-      <c r="D168" s="20"/>
-      <c r="E168" s="19"/>
+      <c r="A168" s="16"/>
+      <c r="B168" s="18"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="15"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="20"/>
-      <c r="B169" s="22"/>
-      <c r="D169" s="20"/>
-      <c r="E169" s="19"/>
+      <c r="A169" s="16"/>
+      <c r="B169" s="18"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="15"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="20"/>
-      <c r="B170" s="22"/>
-      <c r="D170" s="20"/>
-      <c r="E170" s="19"/>
+      <c r="A170" s="16"/>
+      <c r="B170" s="18"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="15"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="20"/>
-      <c r="B171" s="22"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="19"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="18"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="15"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="20"/>
-      <c r="B172" s="22"/>
-      <c r="D172" s="20"/>
-      <c r="E172" s="19"/>
+      <c r="A172" s="16"/>
+      <c r="B172" s="18"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="15"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="20"/>
-      <c r="B173" s="22"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="19"/>
+      <c r="A173" s="16"/>
+      <c r="B173" s="18"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="15"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="20"/>
-      <c r="B174" s="22"/>
-      <c r="D174" s="20"/>
-      <c r="E174" s="19"/>
+      <c r="A174" s="16"/>
+      <c r="B174" s="18"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="15"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="20"/>
-      <c r="B175" s="22"/>
-      <c r="D175" s="20"/>
-      <c r="E175" s="19"/>
+      <c r="A175" s="16"/>
+      <c r="B175" s="18"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="15"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="20"/>
-      <c r="B176" s="22"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="19"/>
+      <c r="A176" s="16"/>
+      <c r="B176" s="18"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="15"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="20"/>
-      <c r="B177" s="22"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="19"/>
+      <c r="A177" s="16"/>
+      <c r="B177" s="18"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="15"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="20"/>
-      <c r="B178" s="22"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="19"/>
+      <c r="A178" s="16"/>
+      <c r="B178" s="18"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="15"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="20"/>
-      <c r="B179" s="22"/>
-      <c r="D179" s="20"/>
-      <c r="E179" s="19"/>
+      <c r="A179" s="16"/>
+      <c r="B179" s="18"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="15"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="20"/>
-      <c r="B180" s="22"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="19"/>
+      <c r="A180" s="16"/>
+      <c r="B180" s="18"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="15"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="20"/>
-      <c r="B181" s="22"/>
-      <c r="D181" s="20"/>
-      <c r="E181" s="19"/>
+      <c r="A181" s="16"/>
+      <c r="B181" s="18"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="15"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="20"/>
-      <c r="B182" s="22"/>
-      <c r="D182" s="20"/>
-      <c r="E182" s="19"/>
+      <c r="A182" s="16"/>
+      <c r="B182" s="18"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="15"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="20"/>
-      <c r="B183" s="22"/>
-      <c r="D183" s="20"/>
-      <c r="E183" s="19"/>
+      <c r="A183" s="16"/>
+      <c r="B183" s="18"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="15"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="20"/>
-      <c r="B184" s="22"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="19"/>
+      <c r="A184" s="16"/>
+      <c r="B184" s="18"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="15"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="20"/>
-      <c r="B185" s="22"/>
-      <c r="D185" s="20"/>
-      <c r="E185" s="19"/>
+      <c r="A185" s="16"/>
+      <c r="B185" s="18"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="15"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="20"/>
-      <c r="B186" s="22"/>
-      <c r="D186" s="20"/>
-      <c r="E186" s="19"/>
+      <c r="A186" s="16"/>
+      <c r="B186" s="18"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="15"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="20"/>
-      <c r="D187" s="20"/>
-      <c r="E187" s="19"/>
+      <c r="A187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="15"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="20"/>
-      <c r="E188" s="19"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="15"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="20"/>
-      <c r="E189" s="19"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="15"/>
     </row>
     <row r="190" spans="4:5">
-      <c r="D190" s="20"/>
-      <c r="E190" s="19"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="15"/>
     </row>
     <row r="191" spans="4:5">
-      <c r="D191" s="20"/>
-      <c r="E191" s="19"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="15"/>
     </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="20"/>
-      <c r="E192" s="19"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="15"/>
     </row>
     <row r="193" spans="4:5">
-      <c r="D193" s="20"/>
-      <c r="E193" s="19"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="15"/>
     </row>
     <row r="194" spans="4:5">
-      <c r="D194" s="20"/>
-      <c r="E194" s="19"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="15"/>
     </row>
     <row r="195" spans="4:5">
-      <c r="D195" s="20"/>
-      <c r="E195" s="19"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A3:B86">
@@ -3225,7 +3131,7 @@
   <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3293,14 +3199,18 @@
       </c>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7">
         <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
@@ -3308,51 +3218,59 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="7">
+        <v>54</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="7">
+        <v>55</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
       <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="7">
         <v>56</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>96</v>
+      <c r="B9" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7">
         <v>57</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
@@ -3360,14 +3278,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="7">
         <v>58</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
@@ -3375,14 +3293,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="7">
         <v>59</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
@@ -3390,14 +3308,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="7">
         <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
@@ -3405,21 +3323,29 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="7">
+        <v>61</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="7">
         <v>62</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
@@ -3427,21 +3353,29 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="7">
+        <v>63</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="C16" s="9"/>
       <c r="D16" s="7">
         <v>64</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
@@ -3449,14 +3383,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="7">
         <v>65</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
@@ -3464,14 +3398,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="7">
         <v>66</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
@@ -3479,247 +3413,244 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="7">
+        <v>67</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="7">
         <v>68</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" ht="14" customHeight="1" spans="1:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" ht="14" customHeight="1" spans="1:4">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="7">
         <v>69</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" ht="14" customHeight="1" spans="1:5">
+    </row>
+    <row r="22" ht="14" customHeight="1" spans="1:4">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="7">
         <v>70</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="13">
+      <c r="D23" s="7">
         <v>71</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:5">
       <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="7">
         <v>72</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>121</v>
-      </c>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="C25" s="9"/>
       <c r="D25" s="7">
         <v>73</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>122</v>
-      </c>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="C26" s="9"/>
       <c r="D26" s="7">
         <v>74</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>123</v>
-      </c>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:5">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="7">
         <v>75</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:5">
       <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="7">
         <v>76</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:5">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="7">
         <v>77</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>129</v>
-      </c>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C30" s="9"/>
       <c r="D30" s="7">
         <v>78</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>130</v>
-      </c>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:5">
       <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>131</v>
+      <c r="B31" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="13">
+      <c r="D31" s="7">
         <v>79</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:5">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="13">
+      <c r="D32" s="7">
         <v>80</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:5">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="7">
         <v>81</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" ht="14" customHeight="1" spans="1:4">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="C34" s="9"/>
       <c r="D34" s="7">
         <v>82</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" ht="14" customHeight="1" spans="1:5">
+    </row>
+    <row r="35" ht="14" customHeight="1" spans="1:4">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="7">
         <v>83</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
+    </row>
+    <row r="36" ht="14" customHeight="1" spans="1:4">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="C36" s="9"/>
       <c r="D36" s="7">
         <v>84</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="C37" s="9"/>
       <c r="D37" s="7">
         <v>85</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:5">
       <c r="A38" s="7">
@@ -3732,134 +3663,132 @@
       <c r="D38" s="7">
         <v>86</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>140</v>
-      </c>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:5">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="7">
         <v>87</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>142</v>
-      </c>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" ht="14" customHeight="1" spans="1:5">
       <c r="A40" s="7">
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="7">
         <v>88</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>144</v>
-      </c>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" ht="14" customHeight="1" spans="1:5">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="C41" s="9"/>
       <c r="D41" s="7">
         <v>89</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>145</v>
-      </c>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" ht="14" customHeight="1" spans="1:5">
       <c r="A42" s="7">
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="7">
         <v>90</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>147</v>
-      </c>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" ht="14" customHeight="1" spans="1:5">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="7">
         <v>91</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>149</v>
-      </c>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" ht="14" customHeight="1" spans="1:5">
       <c r="A44" s="7">
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="7">
         <v>92</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>151</v>
-      </c>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" ht="14" customHeight="1" spans="1:5">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="7">
         <v>93</v>
       </c>
-      <c r="E45" s="17"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" ht="14" customHeight="1" spans="1:5">
       <c r="A46" s="7">
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="7">
         <v>94</v>
       </c>
-      <c r="E46" s="17"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" ht="14" customHeight="1" spans="1:5">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="C47" s="9"/>
       <c r="D47" s="7">
         <v>95</v>
       </c>
-      <c r="E47" s="17"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" ht="14" customHeight="1" spans="1:5">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="C48" s="9"/>
       <c r="D48" s="7">
         <v>96</v>
@@ -3867,8 +3796,12 @@
       <c r="E48" s="8"/>
     </row>
     <row r="49" ht="14" customHeight="1" spans="1:5">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="C49" s="9"/>
       <c r="D49" s="7">
         <v>97</v>
@@ -3880,802 +3813,806 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="7">
         <v>98</v>
       </c>
-      <c r="E50" s="17"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" ht="14" customHeight="1" spans="1:5">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="7">
         <v>99</v>
       </c>
-      <c r="E51" s="17"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" ht="14" customHeight="1" spans="1:5">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="C52" s="9"/>
       <c r="D52" s="7">
         <v>100</v>
       </c>
-      <c r="E52" s="17"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" ht="14" customHeight="1" spans="3:3">
-      <c r="C53" s="18"/>
+      <c r="C53" s="14"/>
     </row>
     <row r="54" ht="14" customHeight="1" spans="3:3">
-      <c r="C54" s="18"/>
+      <c r="C54" s="14"/>
     </row>
     <row r="55" ht="14" customHeight="1" spans="3:3">
-      <c r="C55" s="18"/>
+      <c r="C55" s="14"/>
     </row>
     <row r="56" ht="14" customHeight="1" spans="3:3">
-      <c r="C56" s="18"/>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" ht="14" customHeight="1" spans="3:3">
-      <c r="C57" s="18"/>
+      <c r="C57" s="14"/>
     </row>
     <row r="58" ht="14" customHeight="1" spans="3:3">
-      <c r="C58" s="18"/>
+      <c r="C58" s="14"/>
     </row>
     <row r="59" ht="14" customHeight="1" spans="3:3">
-      <c r="C59" s="18"/>
+      <c r="C59" s="14"/>
     </row>
     <row r="60" ht="14" customHeight="1" spans="3:3">
-      <c r="C60" s="18"/>
+      <c r="C60" s="14"/>
     </row>
     <row r="61" ht="14" customHeight="1" spans="3:3">
-      <c r="C61" s="18"/>
+      <c r="C61" s="14"/>
     </row>
     <row r="62" ht="14" customHeight="1" spans="3:3">
-      <c r="C62" s="18"/>
+      <c r="C62" s="14"/>
     </row>
     <row r="63" ht="14" customHeight="1" spans="3:3">
-      <c r="C63" s="19"/>
+      <c r="C63" s="15"/>
     </row>
     <row r="64" ht="14" customHeight="1" spans="3:3">
-      <c r="C64" s="19"/>
+      <c r="C64" s="15"/>
     </row>
     <row r="65" ht="14" customHeight="1" spans="3:3">
-      <c r="C65" s="19"/>
+      <c r="C65" s="15"/>
     </row>
     <row r="66" ht="14" customHeight="1" spans="3:3">
-      <c r="C66" s="19"/>
+      <c r="C66" s="15"/>
     </row>
     <row r="67" ht="14" customHeight="1" spans="3:3">
-      <c r="C67" s="19"/>
+      <c r="C67" s="15"/>
     </row>
     <row r="68" ht="14" customHeight="1" spans="3:3">
-      <c r="C68" s="19"/>
+      <c r="C68" s="15"/>
     </row>
     <row r="69" ht="14" customHeight="1" spans="3:3">
-      <c r="C69" s="19"/>
+      <c r="C69" s="15"/>
     </row>
     <row r="70" ht="14" customHeight="1" spans="3:3">
-      <c r="C70" s="19"/>
+      <c r="C70" s="15"/>
     </row>
     <row r="71" ht="14" customHeight="1" spans="3:3">
-      <c r="C71" s="19"/>
+      <c r="C71" s="15"/>
     </row>
     <row r="72" ht="14" customHeight="1" spans="3:3">
-      <c r="C72" s="19"/>
+      <c r="C72" s="15"/>
     </row>
     <row r="73" ht="14" customHeight="1" spans="3:3">
-      <c r="C73" s="19"/>
+      <c r="C73" s="15"/>
     </row>
     <row r="74" ht="14" customHeight="1" spans="3:3">
-      <c r="C74" s="19"/>
+      <c r="C74" s="15"/>
     </row>
     <row r="75" ht="14" customHeight="1" spans="3:3">
-      <c r="C75" s="19"/>
+      <c r="C75" s="15"/>
     </row>
     <row r="76" ht="14" customHeight="1" spans="3:3">
-      <c r="C76" s="19"/>
+      <c r="C76" s="15"/>
     </row>
     <row r="77" ht="14" customHeight="1" spans="3:3">
-      <c r="C77" s="19"/>
+      <c r="C77" s="15"/>
     </row>
     <row r="78" ht="14" customHeight="1" spans="3:3">
-      <c r="C78" s="19"/>
+      <c r="C78" s="15"/>
     </row>
     <row r="79" ht="14" customHeight="1" spans="3:3">
-      <c r="C79" s="19"/>
+      <c r="C79" s="15"/>
     </row>
     <row r="80" ht="14" customHeight="1" spans="3:3">
-      <c r="C80" s="19"/>
+      <c r="C80" s="15"/>
     </row>
     <row r="81" ht="14" customHeight="1" spans="3:3">
-      <c r="C81" s="19"/>
+      <c r="C81" s="15"/>
     </row>
     <row r="82" ht="14" customHeight="1" spans="3:3">
-      <c r="C82" s="19"/>
+      <c r="C82" s="15"/>
     </row>
     <row r="83" ht="14" customHeight="1" spans="3:3">
-      <c r="C83" s="19"/>
+      <c r="C83" s="15"/>
     </row>
     <row r="84" ht="14" customHeight="1" spans="3:3">
-      <c r="C84" s="19"/>
+      <c r="C84" s="15"/>
     </row>
     <row r="85" ht="14" customHeight="1" spans="3:3">
-      <c r="C85" s="19"/>
+      <c r="C85" s="15"/>
     </row>
     <row r="86" ht="14" customHeight="1" spans="3:3">
-      <c r="C86" s="19"/>
+      <c r="C86" s="15"/>
     </row>
     <row r="87" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C87" s="19"/>
+      <c r="C87" s="15"/>
     </row>
     <row r="88" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C88" s="19"/>
+      <c r="C88" s="15"/>
     </row>
     <row r="89" ht="14.1" customHeight="1" spans="3:3">
-      <c r="C89" s="19"/>
+      <c r="C89" s="15"/>
     </row>
     <row r="90" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="15"/>
     </row>
     <row r="91" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="19"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="15"/>
     </row>
     <row r="92" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C92" s="19"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="19"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="15"/>
     </row>
     <row r="93" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C93" s="19"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="19"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="15"/>
     </row>
     <row r="94" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C94" s="19"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="19"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="15"/>
     </row>
     <row r="95" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C95" s="19"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="19"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="15"/>
     </row>
     <row r="96" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C96" s="19"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="19"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="15"/>
     </row>
     <row r="97" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C97" s="19"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="19"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="15"/>
     </row>
     <row r="98" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C98" s="19"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="19"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="15"/>
     </row>
     <row r="99" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C99" s="19"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="19"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="15"/>
     </row>
     <row r="100" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C100" s="18"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="19"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="15"/>
     </row>
     <row r="101" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C101" s="18"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="19"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="15"/>
     </row>
     <row r="102" ht="14.1" customHeight="1" spans="3:5">
-      <c r="C102" s="18"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="19"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="15"/>
     </row>
     <row r="103" ht="12" customHeight="1" spans="1:5">
-      <c r="A103" s="18"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="19"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="15"/>
     </row>
     <row r="104" ht="12" customHeight="1" spans="1:5">
-      <c r="A104" s="18"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="19"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="15"/>
     </row>
     <row r="105" ht="12" customHeight="1" spans="1:5">
-      <c r="A105" s="18"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
     </row>
     <row r="106" ht="12" customHeight="1" spans="1:5">
-      <c r="A106" s="18"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
     </row>
     <row r="107" ht="12" customHeight="1" spans="1:5">
-      <c r="A107" s="18"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
     </row>
     <row r="108" ht="12" customHeight="1" spans="1:5">
-      <c r="A108" s="18"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
     </row>
     <row r="109" ht="12" customHeight="1" spans="1:5">
-      <c r="A109" s="18"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
     </row>
     <row r="110" ht="12" customHeight="1" spans="1:5">
-      <c r="A110" s="18"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
     </row>
     <row r="111" ht="12" customHeight="1" spans="1:5">
-      <c r="A111" s="18"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
     </row>
     <row r="112" ht="12" customHeight="1" spans="1:5">
-      <c r="A112" s="18"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
     </row>
     <row r="113" ht="12" customHeight="1" spans="1:5">
-      <c r="A113" s="18"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
     </row>
     <row r="114" ht="12" customHeight="1" spans="1:5">
-      <c r="A114" s="18"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
     </row>
     <row r="115" ht="12" customHeight="1" spans="1:5">
-      <c r="A115" s="18"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
+      <c r="A115" s="14"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
     </row>
     <row r="116" ht="12" customHeight="1" spans="1:5">
-      <c r="A116" s="18"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="21"/>
+      <c r="A116" s="14"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
     </row>
     <row r="117" ht="12" customHeight="1" spans="1:5">
-      <c r="A117" s="18"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
+      <c r="A117" s="14"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
     </row>
     <row r="118" ht="12" customHeight="1" spans="1:5">
-      <c r="A118" s="18"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
     </row>
     <row r="119" ht="12" customHeight="1" spans="1:5">
-      <c r="A119" s="18"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
+      <c r="A119" s="14"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
     </row>
     <row r="120" ht="12" customHeight="1" spans="1:5">
-      <c r="A120" s="18"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
     </row>
     <row r="121" ht="12" customHeight="1" spans="1:5">
-      <c r="A121" s="18"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
+      <c r="A121" s="14"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
     </row>
     <row r="122" ht="12" customHeight="1" spans="1:5">
-      <c r="A122" s="18"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
+      <c r="A122" s="14"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
     </row>
     <row r="123" ht="12" customHeight="1" spans="1:5">
-      <c r="A123" s="18"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
     </row>
     <row r="124" ht="12" customHeight="1" spans="1:5">
-      <c r="A124" s="18"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
     </row>
     <row r="125" ht="12" customHeight="1" spans="1:5">
-      <c r="A125" s="18"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
+      <c r="A125" s="14"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
     </row>
     <row r="126" ht="12" customHeight="1" spans="1:5">
-      <c r="A126" s="18"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
     </row>
     <row r="127" ht="12" customHeight="1" spans="1:5">
-      <c r="A127" s="18"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
+      <c r="A127" s="14"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
     </row>
     <row r="128" ht="12" customHeight="1" spans="1:5">
-      <c r="A128" s="18"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
     </row>
     <row r="129" ht="12" customHeight="1" spans="1:5">
-      <c r="A129" s="18"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
+      <c r="A129" s="14"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
     </row>
     <row r="130" ht="12" customHeight="1" spans="1:5">
-      <c r="A130" s="18"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
     </row>
     <row r="131" ht="12" customHeight="1" spans="1:5">
-      <c r="A131" s="18"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
+      <c r="A131" s="14"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
     </row>
     <row r="132" ht="12" customHeight="1" spans="1:5">
-      <c r="A132" s="20"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
     </row>
     <row r="133" ht="12" customHeight="1" spans="1:5">
-      <c r="A133" s="20"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
     </row>
     <row r="134" ht="12" customHeight="1" spans="1:5">
-      <c r="A134" s="20"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
     </row>
     <row r="135" ht="12" customHeight="1" spans="1:5">
-      <c r="A135" s="20"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="21"/>
-      <c r="E135" s="21"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
     </row>
     <row r="136" ht="12" customHeight="1" spans="1:5">
-      <c r="A136" s="20"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
+      <c r="A136" s="16"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
     </row>
     <row r="137" ht="12" customHeight="1" spans="1:5">
-      <c r="A137" s="20"/>
-      <c r="B137" s="22"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="20"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="20"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="20"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="21"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="20"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="20"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="19"/>
+      <c r="A142" s="16"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="15"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="20"/>
-      <c r="B143" s="22"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="19"/>
+      <c r="A143" s="16"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="15"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="20"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="19"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="15"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="20"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="19"/>
+      <c r="A145" s="16"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="15"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="20"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="19"/>
+      <c r="A146" s="16"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="15"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="20"/>
-      <c r="B147" s="22"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="19"/>
+      <c r="A147" s="16"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="15"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="20"/>
-      <c r="B148" s="22"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="19"/>
+      <c r="A148" s="16"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="15"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="20"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="19"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="15"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="20"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="19"/>
+      <c r="A150" s="16"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="15"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="20"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="20"/>
-      <c r="E151" s="19"/>
+      <c r="A151" s="16"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="15"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="20"/>
-      <c r="B152" s="22"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="19"/>
+      <c r="A152" s="16"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="15"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="20"/>
-      <c r="B153" s="22"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="19"/>
+      <c r="A153" s="16"/>
+      <c r="B153" s="18"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="15"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="20"/>
-      <c r="B154" s="22"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="19"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="18"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="15"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="20"/>
-      <c r="B155" s="22"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="19"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="18"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="15"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="20"/>
-      <c r="B156" s="22"/>
-      <c r="D156" s="20"/>
-      <c r="E156" s="19"/>
+      <c r="A156" s="16"/>
+      <c r="B156" s="18"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="15"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="20"/>
-      <c r="B157" s="22"/>
-      <c r="D157" s="20"/>
-      <c r="E157" s="19"/>
+      <c r="A157" s="16"/>
+      <c r="B157" s="18"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="15"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="20"/>
-      <c r="B158" s="22"/>
-      <c r="D158" s="20"/>
-      <c r="E158" s="19"/>
+      <c r="A158" s="16"/>
+      <c r="B158" s="18"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="15"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="20"/>
-      <c r="B159" s="22"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="19"/>
+      <c r="A159" s="16"/>
+      <c r="B159" s="18"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="15"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="20"/>
-      <c r="B160" s="22"/>
-      <c r="D160" s="20"/>
-      <c r="E160" s="19"/>
+      <c r="A160" s="16"/>
+      <c r="B160" s="18"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="15"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="20"/>
-      <c r="B161" s="22"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="19"/>
+      <c r="A161" s="16"/>
+      <c r="B161" s="18"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="15"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="20"/>
-      <c r="B162" s="22"/>
-      <c r="D162" s="20"/>
-      <c r="E162" s="19"/>
+      <c r="A162" s="16"/>
+      <c r="B162" s="18"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="15"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="20"/>
-      <c r="B163" s="22"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="19"/>
+      <c r="A163" s="16"/>
+      <c r="B163" s="18"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="15"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="20"/>
-      <c r="B164" s="22"/>
-      <c r="D164" s="20"/>
-      <c r="E164" s="19"/>
+      <c r="A164" s="16"/>
+      <c r="B164" s="18"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="15"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="20"/>
-      <c r="B165" s="22"/>
-      <c r="D165" s="20"/>
-      <c r="E165" s="19"/>
+      <c r="A165" s="16"/>
+      <c r="B165" s="18"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="15"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="20"/>
-      <c r="B166" s="22"/>
-      <c r="D166" s="20"/>
-      <c r="E166" s="19"/>
+      <c r="A166" s="16"/>
+      <c r="B166" s="18"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="15"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="20"/>
-      <c r="B167" s="22"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="19"/>
+      <c r="A167" s="16"/>
+      <c r="B167" s="18"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="15"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="20"/>
-      <c r="B168" s="22"/>
-      <c r="D168" s="20"/>
-      <c r="E168" s="19"/>
+      <c r="A168" s="16"/>
+      <c r="B168" s="18"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="15"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="20"/>
-      <c r="B169" s="22"/>
-      <c r="D169" s="20"/>
-      <c r="E169" s="19"/>
+      <c r="A169" s="16"/>
+      <c r="B169" s="18"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="15"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="20"/>
-      <c r="B170" s="22"/>
-      <c r="D170" s="20"/>
-      <c r="E170" s="19"/>
+      <c r="A170" s="16"/>
+      <c r="B170" s="18"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="15"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="20"/>
-      <c r="B171" s="22"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="19"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="18"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="15"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="20"/>
-      <c r="B172" s="22"/>
-      <c r="D172" s="20"/>
-      <c r="E172" s="19"/>
+      <c r="A172" s="16"/>
+      <c r="B172" s="18"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="15"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="20"/>
-      <c r="B173" s="22"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="19"/>
+      <c r="A173" s="16"/>
+      <c r="B173" s="18"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="15"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="20"/>
-      <c r="B174" s="22"/>
-      <c r="D174" s="20"/>
-      <c r="E174" s="19"/>
+      <c r="A174" s="16"/>
+      <c r="B174" s="18"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="15"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="20"/>
-      <c r="B175" s="22"/>
-      <c r="D175" s="20"/>
-      <c r="E175" s="19"/>
+      <c r="A175" s="16"/>
+      <c r="B175" s="18"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="15"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="20"/>
-      <c r="B176" s="22"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="19"/>
+      <c r="A176" s="16"/>
+      <c r="B176" s="18"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="15"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="20"/>
-      <c r="B177" s="22"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="19"/>
+      <c r="A177" s="16"/>
+      <c r="B177" s="18"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="15"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="20"/>
-      <c r="B178" s="22"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="19"/>
+      <c r="A178" s="16"/>
+      <c r="B178" s="18"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="15"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="20"/>
-      <c r="B179" s="22"/>
-      <c r="D179" s="20"/>
-      <c r="E179" s="19"/>
+      <c r="A179" s="16"/>
+      <c r="B179" s="18"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="15"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="20"/>
-      <c r="B180" s="22"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="19"/>
+      <c r="A180" s="16"/>
+      <c r="B180" s="18"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="15"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="20"/>
-      <c r="B181" s="22"/>
-      <c r="D181" s="20"/>
-      <c r="E181" s="19"/>
+      <c r="A181" s="16"/>
+      <c r="B181" s="18"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="15"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="20"/>
-      <c r="B182" s="22"/>
-      <c r="D182" s="20"/>
-      <c r="E182" s="19"/>
+      <c r="A182" s="16"/>
+      <c r="B182" s="18"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="15"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="20"/>
-      <c r="B183" s="22"/>
-      <c r="D183" s="20"/>
-      <c r="E183" s="19"/>
+      <c r="A183" s="16"/>
+      <c r="B183" s="18"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="15"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="20"/>
-      <c r="B184" s="22"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="19"/>
+      <c r="A184" s="16"/>
+      <c r="B184" s="18"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="15"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="20"/>
-      <c r="B185" s="22"/>
-      <c r="D185" s="20"/>
-      <c r="E185" s="19"/>
+      <c r="A185" s="16"/>
+      <c r="B185" s="18"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="15"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="20"/>
-      <c r="B186" s="22"/>
-      <c r="D186" s="20"/>
-      <c r="E186" s="19"/>
+      <c r="A186" s="16"/>
+      <c r="B186" s="18"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="15"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="20"/>
-      <c r="D187" s="20"/>
-      <c r="E187" s="19"/>
+      <c r="A187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="15"/>
     </row>
     <row r="188" spans="4:5">
-      <c r="D188" s="20"/>
-      <c r="E188" s="19"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="15"/>
     </row>
     <row r="189" spans="4:5">
-      <c r="D189" s="20"/>
-      <c r="E189" s="19"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="15"/>
     </row>
     <row r="190" spans="4:5">
-      <c r="D190" s="20"/>
-      <c r="E190" s="19"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="15"/>
     </row>
     <row r="191" spans="4:5">
-      <c r="D191" s="20"/>
-      <c r="E191" s="19"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="15"/>
     </row>
     <row r="192" spans="4:5">
-      <c r="D192" s="20"/>
-      <c r="E192" s="19"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="15"/>
     </row>
     <row r="193" spans="4:5">
-      <c r="D193" s="20"/>
-      <c r="E193" s="19"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="15"/>
     </row>
     <row r="194" spans="4:5">
-      <c r="D194" s="20"/>
-      <c r="E194" s="19"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="15"/>
     </row>
     <row r="195" spans="4:5">
-      <c r="D195" s="20"/>
-      <c r="E195" s="19"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A3:B83">

--- a/Indice .xlsx
+++ b/Indice .xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
   <si>
     <t>Índice</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>Santidade - Tenor</t>
+  </si>
+  <si>
+    <t>Tão profundo</t>
+  </si>
+  <si>
+    <t>Salvo pelo teu amor</t>
   </si>
 </sst>
 </file>
@@ -232,10 +238,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -282,21 +288,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -305,16 +296,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,22 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,7 +364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,10 +387,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,11 +402,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,9 +416,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,7 +454,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,13 +532,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,31 +574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,13 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,49 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,19 +628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,10 +665,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -678,21 +682,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -722,11 +711,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,47 +736,73 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,115 +811,100 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2859,8 +2865,8 @@
   <sheetPr/>
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3167,7 +3173,9 @@
       <c r="D20" s="7">
         <v>69</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5">
       <c r="A21" s="7">
@@ -3180,7 +3188,9 @@
       <c r="D21" s="7">
         <v>70</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5">
       <c r="A22" s="7">

--- a/Indice .xlsx
+++ b/Indice .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="7500" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ORDEM ALFABETICA" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="83">
   <si>
     <t>Índice por ordem alfabetica</t>
   </si>
@@ -40,46 +40,58 @@
     <t>Aliança de sangue - Tenor / Contralto</t>
   </si>
   <si>
+    <t>Pedra preciosa - Tenor</t>
+  </si>
+  <si>
+    <t>Ambiente de glória -  Tenor / Soprano</t>
+  </si>
+  <si>
+    <t>Pra sempre - Soprano</t>
+  </si>
+  <si>
+    <t>Ao erguermos as mãos - Soprano</t>
+  </si>
+  <si>
     <t>Primeira essência - Soprano</t>
   </si>
   <si>
-    <t>Ambiente de glória -  Tenor / Soprano</t>
+    <t xml:space="preserve">Aqui eu vim para dizer - Tenor  </t>
   </si>
   <si>
     <t>Quando o vento soprar - Contralto</t>
   </si>
   <si>
-    <t>Ao erguermos as mãos - Soprano</t>
+    <t>Aquieta minh'alma - Soprano</t>
   </si>
   <si>
     <t>Quanto mais eu te buscar - Tenor</t>
   </si>
   <si>
-    <t xml:space="preserve">Aqui eu vim para dizer - Tenor  </t>
+    <t>Até que o Senhor venha - Tenor</t>
   </si>
   <si>
     <t>Queima de novo - Tenor</t>
   </si>
   <si>
-    <t>Aquieta minh'alma - Soprano</t>
+    <t>Aviva-nos - Tenor</t>
   </si>
   <si>
     <t>Ressuscitou - Todos</t>
   </si>
   <si>
-    <t>Aviva-nos - Tenor</t>
+    <t>Beija-me com tua glória - Tenor</t>
   </si>
   <si>
     <t>Ruja o leão - Contralto</t>
   </si>
   <si>
-    <t>Beija-me com tua glória - Tenor</t>
+    <t>Canção do apocalipse - Soprano</t>
   </si>
   <si>
     <t>Salvo pelo teu amor</t>
   </si>
   <si>
-    <t>Canção do apocalipse - Soprano</t>
+    <t>Canção que não envelhece - Soprano</t>
   </si>
   <si>
     <t>Santidade - Tenor</t>
@@ -190,39 +202,39 @@
     <t>Infinitamente mais - Tenor</t>
   </si>
   <si>
-    <t>Uma vez - Contralto</t>
+    <t>Unico - Tenor</t>
   </si>
   <si>
     <t>Invocamos - Tenor</t>
   </si>
   <si>
-    <t>Unico - Tenor</t>
+    <t>Unico senhor - Contralto</t>
   </si>
   <si>
     <t>Jesus é o caminho - Contralto</t>
   </si>
   <si>
-    <t>Unico senhor - Contralto</t>
+    <t>Vim para adorar-te - Tenor</t>
   </si>
   <si>
     <t>Jesus em tua presença - Tenor</t>
   </si>
   <si>
-    <t>Vim para adorar-te - Tenor</t>
+    <t>Volto os meus olhos - Contralto</t>
   </si>
   <si>
     <t>Lembra Senhor - Tenor</t>
   </si>
   <si>
-    <t>Volto os meus olhos - Contralto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louve - </t>
+    <t>Louve - Soprano</t>
   </si>
   <si>
     <t>Lugar seguro - Soprano</t>
   </si>
   <si>
+    <t>Maravilhado - Soprano</t>
+  </si>
+  <si>
     <t>Me atraiu - Soprano</t>
   </si>
   <si>
@@ -265,16 +277,7 @@
     <t>Oh quão lindo esse nome é - Contralto</t>
   </si>
   <si>
-    <t>Onde o fogo não apaga - Contralto</t>
-  </si>
-  <si>
     <t>Ousado amor - Tenor</t>
-  </si>
-  <si>
-    <t>Pedra preciosa - Tenor</t>
-  </si>
-  <si>
-    <t>Pra sempre - Soprano</t>
   </si>
   <si>
     <t>Índice por ordem numérica</t>
@@ -1352,8 +1355,8 @@
   <sheetPr/>
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1388,7 +1391,7 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>2</v>
@@ -1403,7 +1406,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -1418,7 +1421,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>6</v>
@@ -1433,7 +1436,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>8</v>
@@ -1448,7 +1451,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>10</v>
@@ -1456,14 +1459,14 @@
     </row>
     <row r="7" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A7" s="5">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -1471,14 +1474,14 @@
     </row>
     <row r="8" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A8" s="5">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
@@ -1486,14 +1489,14 @@
     </row>
     <row r="9" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A9" s="5">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -1501,14 +1504,14 @@
     </row>
     <row r="10" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A10" s="5">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>18</v>
@@ -1516,14 +1519,14 @@
     </row>
     <row r="11" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A11" s="5">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>20</v>
@@ -1531,14 +1534,14 @@
     </row>
     <row r="12" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A12" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>22</v>
@@ -1546,14 +1549,14 @@
     </row>
     <row r="13" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A13" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="5">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>24</v>
@@ -1561,14 +1564,14 @@
     </row>
     <row r="14" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A14" s="5">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>26</v>
@@ -1576,14 +1579,14 @@
     </row>
     <row r="15" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A15" s="5">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>28</v>
@@ -1591,14 +1594,14 @@
     </row>
     <row r="16" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A16" s="5">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>30</v>
@@ -1606,14 +1609,14 @@
     </row>
     <row r="17" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A17" s="5">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>32</v>
@@ -1621,14 +1624,14 @@
     </row>
     <row r="18" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A18" s="5">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>34</v>
@@ -1636,14 +1639,14 @@
     </row>
     <row r="19" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A19" s="5">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>36</v>
@@ -1651,14 +1654,14 @@
     </row>
     <row r="20" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A20" s="5">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>38</v>
@@ -1666,14 +1669,14 @@
     </row>
     <row r="21" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A21" s="5">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>40</v>
@@ -1681,14 +1684,14 @@
     </row>
     <row r="22" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A22" s="5">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>42</v>
@@ -1696,14 +1699,14 @@
     </row>
     <row r="23" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A23" s="5">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="5">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>44</v>
@@ -1711,14 +1714,14 @@
     </row>
     <row r="24" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A24" s="5">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>46</v>
@@ -1726,14 +1729,14 @@
     </row>
     <row r="25" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A25" s="5">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="5">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>48</v>
@@ -1741,14 +1744,14 @@
     </row>
     <row r="26" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A26" s="5">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="5">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>50</v>
@@ -1756,14 +1759,14 @@
     </row>
     <row r="27" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A27" s="5">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="5">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>52</v>
@@ -1771,14 +1774,14 @@
     </row>
     <row r="28" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A28" s="5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="5">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>54</v>
@@ -1786,14 +1789,14 @@
     </row>
     <row r="29" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A29" s="5">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="5">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>56</v>
@@ -1801,14 +1804,14 @@
     </row>
     <row r="30" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A30" s="5">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="5">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>58</v>
@@ -1816,14 +1819,14 @@
     </row>
     <row r="31" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A31" s="5">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="5">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>60</v>
@@ -1831,66 +1834,64 @@
     </row>
     <row r="32" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A32" s="5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="5">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A33" s="5">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="5">
-        <v>82</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A34" s="5">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A35" s="5">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="5">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="6"/>
     </row>
     <row r="36" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A36" s="5">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="5">
@@ -1900,10 +1901,10 @@
     </row>
     <row r="37" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A37" s="5">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="5">
@@ -1913,10 +1914,10 @@
     </row>
     <row r="38" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A38" s="5">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="5">
@@ -1926,10 +1927,10 @@
     </row>
     <row r="39" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A39" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="5">
@@ -1939,10 +1940,10 @@
     </row>
     <row r="40" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A40" s="5">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="5">
@@ -1952,10 +1953,10 @@
     </row>
     <row r="41" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A41" s="5">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="5">
@@ -1965,10 +1966,10 @@
     </row>
     <row r="42" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A42" s="5">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="5">
@@ -1978,10 +1979,10 @@
     </row>
     <row r="43" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A43" s="5">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="5">
@@ -1991,10 +1992,10 @@
     </row>
     <row r="44" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A44" s="5">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="5">
@@ -2004,10 +2005,10 @@
     </row>
     <row r="45" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A45" s="5">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="5">
@@ -2017,10 +2018,10 @@
     </row>
     <row r="46" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A46" s="5">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="5">
@@ -2030,10 +2031,10 @@
     </row>
     <row r="47" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A47" s="5">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="5">
@@ -2043,10 +2044,10 @@
     </row>
     <row r="48" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A48" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="5">
@@ -2056,10 +2057,10 @@
     </row>
     <row r="49" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A49" s="5">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="5">
@@ -2069,10 +2070,10 @@
     </row>
     <row r="50" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A50" s="5">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="5">
@@ -2082,10 +2083,10 @@
     </row>
     <row r="51" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A51" s="5">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="5">
@@ -3113,7 +3114,7 @@
   <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E10:E15"/>
+      <selection activeCell="D2" sqref="D2:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3128,7 +3129,7 @@
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:9">
       <c r="A1" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3144,14 +3145,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5">
         <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:5">
@@ -3166,7 +3167,7 @@
         <v>52</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:5">
@@ -3174,7 +3175,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
@@ -3189,14 +3190,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:5">
@@ -3204,14 +3205,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5">
         <v>55</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5">
@@ -3219,14 +3220,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5">
         <v>56</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5">
@@ -3234,14 +3235,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5">
         <v>57</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5">
@@ -3249,29 +3250,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5">
         <v>58</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5">
         <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5">
@@ -3279,7 +3278,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5">
@@ -3294,7 +3293,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5">
@@ -3307,14 +3306,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="5">
         <v>62</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5">
@@ -3322,14 +3321,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5">
         <v>63</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5">
@@ -3337,14 +3336,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5">
         <v>64</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5">
@@ -3352,14 +3351,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5">
         <v>65</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5">
@@ -3367,14 +3366,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5">
         <v>66</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5">
@@ -3382,14 +3381,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5">
         <v>67</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5">
@@ -3397,7 +3396,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5">
@@ -3412,14 +3411,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5">
         <v>69</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5">
@@ -3427,14 +3426,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5">
         <v>70</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5">
@@ -3442,14 +3441,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5">
         <v>71</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:5">
@@ -3457,14 +3456,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="5">
         <v>72</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5">
@@ -3472,14 +3471,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5">
         <v>73</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5">
@@ -3487,14 +3486,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="5">
         <v>74</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5">
@@ -3502,14 +3501,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="5">
         <v>75</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:5">
@@ -3524,7 +3523,7 @@
         <v>76</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:5">
@@ -3532,14 +3531,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="5">
         <v>77</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:5">
@@ -3547,14 +3546,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="5">
         <v>78</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:5">
@@ -3562,14 +3561,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="5">
         <v>79</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:5">
@@ -3577,14 +3576,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="5">
         <v>80</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:5">
@@ -3592,14 +3591,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="5">
         <v>81</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:5">
@@ -3607,14 +3606,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="5">
         <v>82</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:5">
@@ -3622,7 +3621,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5">
@@ -3635,20 +3634,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="5">
         <v>84</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:5">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="5">
@@ -3661,7 +3662,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="5">
@@ -3674,7 +3675,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="5">
@@ -3687,7 +3688,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="5">
@@ -3700,7 +3701,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="5">
@@ -3712,7 +3713,9 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C41" s="6"/>
       <c r="D41" s="5">
         <v>90</v>
@@ -3724,7 +3727,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="5">
@@ -3737,7 +3740,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="5">
@@ -3750,7 +3753,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="5">
@@ -3763,7 +3766,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="5">
@@ -3776,7 +3779,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="5">
@@ -3789,7 +3792,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="5">
@@ -3802,7 +3805,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="5">
@@ -3815,7 +3818,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="5">
@@ -3828,7 +3831,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="5">
@@ -3841,7 +3844,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="5">
@@ -4634,8 +4637,8 @@
   <sheetPr/>
   <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="4"/>
@@ -4660,7 +4663,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="16" customHeight="1" spans="1:5">
@@ -4675,7 +4678,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="16" customHeight="1" spans="1:5">
@@ -4705,7 +4708,7 @@
         <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="16" customHeight="1" spans="1:5">
@@ -4720,12 +4723,12 @@
         <v>55</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A6" s="5">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
@@ -4735,12 +4738,12 @@
         <v>56</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A7" s="5">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>13</v>
@@ -4750,12 +4753,12 @@
         <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A8" s="5">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>15</v>
@@ -4765,12 +4768,12 @@
         <v>58</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A9" s="5">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>17</v>
@@ -4780,12 +4783,12 @@
         <v>59</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A10" s="5">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>19</v>
@@ -4800,7 +4803,7 @@
     </row>
     <row r="11" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A11" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -4813,7 +4816,7 @@
     </row>
     <row r="12" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A12" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>23</v>
@@ -4823,12 +4826,12 @@
         <v>62</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A13" s="5">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>25</v>
@@ -4838,12 +4841,12 @@
         <v>63</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A14" s="5">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>27</v>
@@ -4853,12 +4856,12 @@
         <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A15" s="5">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>29</v>
@@ -4868,12 +4871,12 @@
         <v>65</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A16" s="5">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>31</v>
@@ -4883,12 +4886,12 @@
         <v>66</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A17" s="5">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>33</v>
@@ -4898,12 +4901,12 @@
         <v>67</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A18" s="5">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>35</v>
@@ -4918,7 +4921,7 @@
     </row>
     <row r="19" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A19" s="5">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>37</v>
@@ -4928,12 +4931,12 @@
         <v>69</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A20" s="5">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>39</v>
@@ -4943,12 +4946,12 @@
         <v>70</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A21" s="5">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>41</v>
@@ -4958,12 +4961,12 @@
         <v>71</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A22" s="5">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>43</v>
@@ -4973,12 +4976,12 @@
         <v>72</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A23" s="5">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>45</v>
@@ -4988,12 +4991,12 @@
         <v>73</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A24" s="5">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>47</v>
@@ -5003,12 +5006,12 @@
         <v>74</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A25" s="5">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>49</v>
@@ -5018,12 +5021,12 @@
         <v>75</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A26" s="5">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>51</v>
@@ -5033,12 +5036,12 @@
         <v>76</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A27" s="5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>53</v>
@@ -5048,12 +5051,12 @@
         <v>77</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A28" s="5">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
@@ -5063,12 +5066,12 @@
         <v>78</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A29" s="5">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>57</v>
@@ -5078,12 +5081,12 @@
         <v>79</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A30" s="5">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
@@ -5093,12 +5096,12 @@
         <v>80</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A31" s="5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>61</v>
@@ -5108,30 +5111,30 @@
         <v>81</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A32" s="5">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="5">
         <v>82</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A33" s="5">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="5">
@@ -5141,10 +5144,10 @@
     </row>
     <row r="34" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A34" s="5">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5">
@@ -5154,10 +5157,10 @@
     </row>
     <row r="35" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A35" s="5">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="5">
@@ -5167,10 +5170,10 @@
     </row>
     <row r="36" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A36" s="5">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="5">
@@ -5180,10 +5183,10 @@
     </row>
     <row r="37" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A37" s="5">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="5">
@@ -5193,10 +5196,10 @@
     </row>
     <row r="38" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A38" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="5">
@@ -5206,10 +5209,10 @@
     </row>
     <row r="39" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A39" s="5">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="5">
@@ -5219,10 +5222,10 @@
     </row>
     <row r="40" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A40" s="5">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="5">
@@ -5232,10 +5235,10 @@
     </row>
     <row r="41" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A41" s="5">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="5">
@@ -5245,10 +5248,10 @@
     </row>
     <row r="42" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A42" s="5">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="5">
@@ -5258,10 +5261,10 @@
     </row>
     <row r="43" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A43" s="5">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="5">
@@ -5271,10 +5274,10 @@
     </row>
     <row r="44" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A44" s="5">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="5">
@@ -5284,10 +5287,10 @@
     </row>
     <row r="45" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A45" s="5">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="5">
@@ -5297,10 +5300,10 @@
     </row>
     <row r="46" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A46" s="5">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="5">
@@ -5310,10 +5313,10 @@
     </row>
     <row r="47" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A47" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="5">
@@ -5323,10 +5326,10 @@
     </row>
     <row r="48" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A48" s="5">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="5">
@@ -5336,10 +5339,10 @@
     </row>
     <row r="49" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A49" s="5">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="5">
@@ -5349,10 +5352,10 @@
     </row>
     <row r="50" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A50" s="5">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="5">
@@ -5362,7 +5365,7 @@
     </row>
     <row r="51" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A51" s="5">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>2</v>
@@ -5373,7 +5376,7 @@
     </row>
     <row r="52" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A52" s="5">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>4</v>
@@ -5384,7 +5387,7 @@
     </row>
     <row r="53" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A53" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>6</v>
@@ -5395,7 +5398,7 @@
     </row>
     <row r="54" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A54" s="5">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>8</v>
@@ -5406,7 +5409,7 @@
     </row>
     <row r="55" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A55" s="5">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>10</v>
@@ -5417,7 +5420,7 @@
     </row>
     <row r="56" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A56" s="5">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>12</v>
@@ -5428,7 +5431,7 @@
     </row>
     <row r="57" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A57" s="5">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>14</v>
@@ -5439,7 +5442,7 @@
     </row>
     <row r="58" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A58" s="5">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>16</v>
@@ -5450,7 +5453,7 @@
     </row>
     <row r="59" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A59" s="5">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>18</v>
@@ -5461,7 +5464,7 @@
     </row>
     <row r="60" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A60" s="5">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>20</v>
@@ -5472,7 +5475,7 @@
     </row>
     <row r="61" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A61" s="5">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>22</v>
@@ -5483,7 +5486,7 @@
     </row>
     <row r="62" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A62" s="5">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>24</v>
@@ -5494,7 +5497,7 @@
     </row>
     <row r="63" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A63" s="5">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>26</v>
@@ -5505,7 +5508,7 @@
     </row>
     <row r="64" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A64" s="5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>28</v>
@@ -5516,7 +5519,7 @@
     </row>
     <row r="65" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A65" s="5">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>30</v>
@@ -5527,7 +5530,7 @@
     </row>
     <row r="66" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A66" s="5">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>32</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="67" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A67" s="5">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>34</v>
@@ -5549,7 +5552,7 @@
     </row>
     <row r="68" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A68" s="5">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>36</v>
@@ -5560,7 +5563,7 @@
     </row>
     <row r="69" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A69" s="5">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>38</v>
@@ -5571,7 +5574,7 @@
     </row>
     <row r="70" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A70" s="5">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>40</v>
@@ -5582,7 +5585,7 @@
     </row>
     <row r="71" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A71" s="5">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>42</v>
@@ -5593,7 +5596,7 @@
     </row>
     <row r="72" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A72" s="5">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>44</v>
@@ -5604,7 +5607,7 @@
     </row>
     <row r="73" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A73" s="5">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>46</v>
@@ -5615,7 +5618,7 @@
     </row>
     <row r="74" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A74" s="5">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>48</v>
@@ -5626,7 +5629,7 @@
     </row>
     <row r="75" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A75" s="5">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>50</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="76" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A76" s="5">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>52</v>
@@ -5648,7 +5651,7 @@
     </row>
     <row r="77" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A77" s="5">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>54</v>
@@ -5659,7 +5662,7 @@
     </row>
     <row r="78" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A78" s="5">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>56</v>
@@ -5670,7 +5673,7 @@
     </row>
     <row r="79" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A79" s="5">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>58</v>
@@ -5681,7 +5684,7 @@
     </row>
     <row r="80" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A80" s="5">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>60</v>
@@ -5692,16 +5695,18 @@
     </row>
     <row r="81" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A81" s="5">
-        <v>40</v>
-      </c>
-      <c r="B81" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C81" s="8"/>
       <c r="D81" s="1"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" customFormat="1" ht="14" customHeight="1" spans="1:5">
       <c r="A82" s="5">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="8"/>
@@ -5709,127 +5714,163 @@
       <c r="E82" s="4"/>
     </row>
     <row r="83" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="5">
+        <v>61</v>
+      </c>
+      <c r="B83" s="6"/>
       <c r="C83" s="8"/>
       <c r="D83" s="1"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" customFormat="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6"/>
       <c r="C84" s="8"/>
       <c r="D84" s="1"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="5">
+        <v>85</v>
+      </c>
+      <c r="B85" s="6"/>
       <c r="C85" s="8"/>
       <c r="D85" s="1"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="5">
+        <v>86</v>
+      </c>
+      <c r="B86" s="6"/>
       <c r="C86" s="8"/>
       <c r="D86" s="1"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
+      <c r="A87" s="5">
+        <v>87</v>
+      </c>
+      <c r="B87" s="6"/>
       <c r="C87" s="8"/>
       <c r="D87" s="1"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="5">
+        <v>88</v>
+      </c>
+      <c r="B88" s="6"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="5">
+        <v>89</v>
+      </c>
+      <c r="B89" s="6"/>
       <c r="C89" s="8"/>
       <c r="D89" s="9"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="5">
+        <v>90</v>
+      </c>
+      <c r="B90" s="6"/>
       <c r="C90" s="8"/>
       <c r="D90" s="9"/>
       <c r="E90" s="8"/>
     </row>
     <row r="91" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="5">
+        <v>91</v>
+      </c>
+      <c r="B91" s="6"/>
       <c r="C91" s="8"/>
       <c r="D91" s="9"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="5">
+        <v>92</v>
+      </c>
+      <c r="B92" s="6"/>
       <c r="C92" s="8"/>
       <c r="D92" s="9"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="5">
+        <v>93</v>
+      </c>
+      <c r="B93" s="6"/>
       <c r="C93" s="8"/>
       <c r="D93" s="9"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="5">
+        <v>94</v>
+      </c>
+      <c r="B94" s="6"/>
       <c r="C94" s="8"/>
       <c r="D94" s="9"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="5">
+        <v>95</v>
+      </c>
+      <c r="B95" s="6"/>
       <c r="C95" s="8"/>
       <c r="D95" s="9"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A96" s="1"/>
-      <c r="B96" s="2"/>
+      <c r="A96" s="5">
+        <v>96</v>
+      </c>
+      <c r="B96" s="6"/>
       <c r="C96" s="8"/>
       <c r="D96" s="9"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A97" s="1"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="5">
+        <v>97</v>
+      </c>
+      <c r="B97" s="6"/>
       <c r="C97" s="8"/>
       <c r="D97" s="9"/>
       <c r="E97" s="8"/>
     </row>
     <row r="98" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A98" s="1"/>
-      <c r="B98" s="2"/>
+      <c r="A98" s="5">
+        <v>98</v>
+      </c>
+      <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="9"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="5">
+        <v>99</v>
+      </c>
+      <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="9"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" customFormat="1" ht="14.1" customHeight="1" spans="1:5">
-      <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="5">
+        <v>100</v>
+      </c>
+      <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="9"/>
       <c r="E100" s="8"/>
@@ -6486,8 +6527,8 @@
       <c r="E193" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A1:B82">
-    <sortCondition ref="B82"/>
+  <sortState ref="A1:B100">
+    <sortCondition ref="B100"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
